--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>153</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1.96078431372549</v>
+      </c>
       <c r="L12" t="n">
         <v>3763.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>154</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.96078431372549</v>
+      </c>
       <c r="L13" t="n">
         <v>3764</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>154</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>43.11926605504588</v>
+      </c>
       <c r="L14" t="n">
         <v>3764.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>154</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>3769</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>154</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>3776.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>155</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>3778.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>164</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>3779.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>187</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-31.42857142857143</v>
+      </c>
       <c r="L19" t="n">
         <v>3778.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>215</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>26.98412698412698</v>
+      </c>
       <c r="L20" t="n">
         <v>3780</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>218</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.23076923076923</v>
+      </c>
       <c r="L21" t="n">
         <v>3782</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>218</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.125</v>
+      </c>
       <c r="L22" t="n">
         <v>3783.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>230</v>
       </c>
       <c r="K23" t="n">
-        <v>14.78260869565217</v>
+        <v>39.47368421052632</v>
       </c>
       <c r="L23" t="n">
         <v>3786.9</v>
@@ -1466,7 +1488,7 @@
         <v>236</v>
       </c>
       <c r="K24" t="n">
-        <v>16.59574468085106</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="L24" t="n">
         <v>3790.5</v>
@@ -1515,7 +1537,7 @@
         <v>236</v>
       </c>
       <c r="K25" t="n">
-        <v>43.45549738219896</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="L25" t="n">
         <v>3794.1</v>
@@ -1564,7 +1586,7 @@
         <v>260</v>
       </c>
       <c r="K26" t="n">
-        <v>75</v>
+        <v>56.19047619047619</v>
       </c>
       <c r="L26" t="n">
         <v>3800.1</v>
@@ -1613,7 +1635,7 @@
         <v>260</v>
       </c>
       <c r="K27" t="n">
-        <v>61.01694915254237</v>
+        <v>52.08333333333334</v>
       </c>
       <c r="L27" t="n">
         <v>3806</v>
@@ -1662,7 +1684,7 @@
         <v>263</v>
       </c>
       <c r="K28" t="n">
-        <v>53.57142857142857</v>
+        <v>92.10526315789474</v>
       </c>
       <c r="L28" t="n">
         <v>3810.7</v>
@@ -1711,7 +1733,7 @@
         <v>267</v>
       </c>
       <c r="K29" t="n">
-        <v>54.78260869565217</v>
+        <v>88.46153846153845</v>
       </c>
       <c r="L29" t="n">
         <v>3818.1</v>
@@ -1760,7 +1782,7 @@
         <v>307</v>
       </c>
       <c r="K30" t="n">
-        <v>14.83870967741935</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="L30" t="n">
         <v>3818.7</v>
@@ -1809,7 +1831,7 @@
         <v>311</v>
       </c>
       <c r="K31" t="n">
-        <v>11.94968553459119</v>
+        <v>-1.075268817204301</v>
       </c>
       <c r="L31" t="n">
         <v>3818.6</v>
@@ -1860,7 +1882,7 @@
         <v>319</v>
       </c>
       <c r="K32" t="n">
-        <v>15.66265060240964</v>
+        <v>-5.617977528089887</v>
       </c>
       <c r="L32" t="n">
         <v>3819.3</v>
@@ -1911,7 +1933,7 @@
         <v>385</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39393939393939</v>
+        <v>36.91275167785235</v>
       </c>
       <c r="L33" t="n">
         <v>3825.4</v>
@@ -1962,7 +1984,7 @@
         <v>388</v>
       </c>
       <c r="K34" t="n">
-        <v>37.60683760683761</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="L34" t="n">
         <v>3830.6</v>
@@ -2013,7 +2035,7 @@
         <v>393</v>
       </c>
       <c r="K35" t="n">
-        <v>34.72803347280335</v>
+        <v>17.29323308270677</v>
       </c>
       <c r="L35" t="n">
         <v>3835.3</v>
@@ -2064,7 +2086,7 @@
         <v>401</v>
       </c>
       <c r="K36" t="n">
-        <v>36.84210526315789</v>
+        <v>21.98581560283688</v>
       </c>
       <c r="L36" t="n">
         <v>3838.4</v>
@@ -2115,7 +2137,7 @@
         <v>404</v>
       </c>
       <c r="K37" t="n">
-        <v>37.34939759036144</v>
+        <v>26.24113475177305</v>
       </c>
       <c r="L37" t="n">
         <v>3841.8</v>
@@ -2166,7 +2188,7 @@
         <v>406</v>
       </c>
       <c r="K38" t="n">
-        <v>35.53719008264463</v>
+        <v>25.17985611510791</v>
       </c>
       <c r="L38" t="n">
         <v>3845.7</v>
@@ -2217,7 +2239,7 @@
         <v>406</v>
       </c>
       <c r="K39" t="n">
-        <v>49.77168949771689</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="L39" t="n">
         <v>3849.2</v>
@@ -2268,7 +2290,7 @@
         <v>445</v>
       </c>
       <c r="K40" t="n">
-        <v>52.17391304347826</v>
+        <v>88.05970149253731</v>
       </c>
       <c r="L40" t="n">
         <v>3860.6</v>
@@ -2319,7 +2341,7 @@
         <v>445</v>
       </c>
       <c r="K41" t="n">
-        <v>51.54185022026432</v>
+        <v>87.3015873015873</v>
       </c>
       <c r="L41" t="n">
         <v>3872.4</v>
@@ -2370,7 +2392,7 @@
         <v>448</v>
       </c>
       <c r="K42" t="n">
-        <v>49.56521739130435</v>
+        <v>65.07936507936508</v>
       </c>
       <c r="L42" t="n">
         <v>3883.1</v>
@@ -2421,7 +2443,7 @@
         <v>496</v>
       </c>
       <c r="K43" t="n">
-        <v>20.30075187969925</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L43" t="n">
         <v>3882.4</v>
@@ -2472,7 +2494,7 @@
         <v>504</v>
       </c>
       <c r="K44" t="n">
-        <v>14.92537313432836</v>
+        <v>-6.306306306306306</v>
       </c>
       <c r="L44" t="n">
         <v>3881.2</v>
@@ -2523,7 +2545,7 @@
         <v>507</v>
       </c>
       <c r="K45" t="n">
-        <v>15.86715867158672</v>
+        <v>-11.32075471698113</v>
       </c>
       <c r="L45" t="n">
         <v>3880.8</v>
@@ -2574,7 +2596,7 @@
         <v>507</v>
       </c>
       <c r="K46" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="L46" t="n">
         <v>3879.6</v>
@@ -2625,7 +2647,7 @@
         <v>527</v>
       </c>
       <c r="K47" t="n">
-        <v>14.60674157303371</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="L47" t="n">
         <v>3880.1</v>
@@ -2676,7 +2698,7 @@
         <v>541</v>
       </c>
       <c r="K48" t="n">
-        <v>10.07194244604317</v>
+        <v>-8.148148148148149</v>
       </c>
       <c r="L48" t="n">
         <v>3879</v>
@@ -2727,7 +2749,7 @@
         <v>556</v>
       </c>
       <c r="K49" t="n">
-        <v>13.49480968858132</v>
+        <v>-31.53153153153153</v>
       </c>
       <c r="L49" t="n">
         <v>3879.4</v>
@@ -2778,7 +2800,7 @@
         <v>560</v>
       </c>
       <c r="K50" t="n">
-        <v>29.64426877470356</v>
+        <v>-33.91304347826087</v>
       </c>
       <c r="L50" t="n">
         <v>3875.5</v>
@@ -2829,7 +2851,7 @@
         <v>560</v>
       </c>
       <c r="K51" t="n">
-        <v>31.72690763052209</v>
+        <v>-32.14285714285715</v>
       </c>
       <c r="L51" t="n">
         <v>3871.6</v>
@@ -2880,7 +2902,7 @@
         <v>564</v>
       </c>
       <c r="K52" t="n">
-        <v>27.3469387755102</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L52" t="n">
         <v>3867.6</v>
@@ -2931,7 +2953,7 @@
         <v>566</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.5524861878453038</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L53" t="n">
         <v>3868.2</v>
@@ -2982,7 +3004,7 @@
         <v>569</v>
       </c>
       <c r="K54" t="n">
-        <v>2.762430939226519</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L54" t="n">
         <v>3869.9</v>
@@ -3033,7 +3055,7 @@
         <v>577</v>
       </c>
       <c r="K55" t="n">
-        <v>9.782608695652174</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L55" t="n">
         <v>3872.1</v>
@@ -3084,7 +3106,7 @@
         <v>602</v>
       </c>
       <c r="K56" t="n">
-        <v>17.41293532338308</v>
+        <v>36</v>
       </c>
       <c r="L56" t="n">
         <v>3876.8</v>
@@ -3135,7 +3157,7 @@
         <v>633</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4366812227074235</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="L57" t="n">
         <v>3876.4</v>
@@ -3186,7 +3208,7 @@
         <v>668</v>
       </c>
       <c r="K58" t="n">
-        <v>12.97709923664122</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>3880.9</v>
@@ -3237,7 +3259,7 @@
         <v>704</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.6711409395973155</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="L59" t="n">
         <v>3880.3</v>
@@ -3288,7 +3310,7 @@
         <v>724</v>
       </c>
       <c r="K60" t="n">
-        <v>-21.86379928315412</v>
+        <v>-13.41463414634146</v>
       </c>
       <c r="L60" t="n">
         <v>3878.1</v>
@@ -3339,7 +3361,7 @@
         <v>725</v>
       </c>
       <c r="K61" t="n">
-        <v>-22.14285714285714</v>
+        <v>-11.80124223602484</v>
       </c>
       <c r="L61" t="n">
         <v>3875.8</v>
@@ -3390,7 +3412,7 @@
         <v>777</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.127659574468085</v>
+        <v>16.58767772511848</v>
       </c>
       <c r="L62" t="n">
         <v>3879.1</v>
@@ -3441,7 +3463,7 @@
         <v>798</v>
       </c>
       <c r="K63" t="n">
-        <v>6.622516556291391</v>
+        <v>4.803493449781659</v>
       </c>
       <c r="L63" t="n">
         <v>3880.5</v>
@@ -3492,7 +3514,7 @@
         <v>812</v>
       </c>
       <c r="K64" t="n">
-        <v>13.63636363636363</v>
+        <v>7.234042553191489</v>
       </c>
       <c r="L64" t="n">
         <v>3883</v>
@@ -3543,7 +3565,7 @@
         <v>815</v>
       </c>
       <c r="K65" t="n">
-        <v>11.68831168831169</v>
+        <v>-5.164319248826291</v>
       </c>
       <c r="L65" t="n">
         <v>3884.4</v>
@@ -3594,7 +3616,7 @@
         <v>843</v>
       </c>
       <c r="K66" t="n">
-        <v>2.380952380952381</v>
+        <v>-3.80952380952381</v>
       </c>
       <c r="L66" t="n">
         <v>3880.5</v>
@@ -3645,7 +3667,7 @@
         <v>843</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.79746835443038</v>
+        <v>-24.57142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>3879.7</v>
@@ -3696,7 +3718,7 @@
         <v>845</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L68" t="n">
         <v>3875.2</v>
@@ -3747,7 +3769,7 @@
         <v>866</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.61290322580645</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="L69" t="n">
         <v>3872.2</v>
@@ -3798,7 +3820,7 @@
         <v>866</v>
       </c>
       <c r="K70" t="n">
-        <v>-10.45751633986928</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L70" t="n">
         <v>3871.2</v>
@@ -3849,7 +3871,7 @@
         <v>868</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.740259740259742</v>
+        <v>-64.83516483516483</v>
       </c>
       <c r="L71" t="n">
         <v>3870.5</v>
@@ -3900,7 +3922,7 @@
         <v>888</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.851851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>3866.6</v>
@@ -3951,7 +3973,7 @@
         <v>888</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.24223602484472</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L73" t="n">
         <v>3864.8</v>
@@ -4002,7 +4024,7 @@
         <v>908</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.964601769911504</v>
+        <v>-52.68817204301075</v>
       </c>
       <c r="L74" t="n">
         <v>3859.6</v>
@@ -4053,7 +4075,7 @@
         <v>926</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.871060171919771</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L75" t="n">
         <v>3856.5</v>
@@ -4104,7 +4126,7 @@
         <v>928</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.26993865030675</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L76" t="n">
         <v>3856.4</v>
@@ -4155,7 +4177,7 @@
         <v>949</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.49367088607595</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L77" t="n">
         <v>3854.2</v>
@@ -4206,7 +4228,7 @@
         <v>949</v>
       </c>
       <c r="K78" t="n">
-        <v>-23.13167259786477</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="L78" t="n">
         <v>3852.2</v>
@@ -4257,7 +4279,7 @@
         <v>950</v>
       </c>
       <c r="K79" t="n">
-        <v>-12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>3852.2</v>
@@ -4308,7 +4330,7 @@
         <v>950</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.424778761061947</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L80" t="n">
         <v>3852.2</v>
@@ -4359,7 +4381,7 @@
         <v>964</v>
       </c>
       <c r="K81" t="n">
-        <v>2.092050209205021</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L81" t="n">
         <v>3853.4</v>
@@ -4410,7 +4432,7 @@
         <v>973</v>
       </c>
       <c r="K82" t="n">
-        <v>-19.38775510204082</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L82" t="n">
         <v>3853.5</v>
@@ -4461,7 +4483,7 @@
         <v>973</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.714285714285714</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="L83" t="n">
         <v>3853.6</v>
@@ -4512,7 +4534,7 @@
         <v>973</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.25465838509317</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L84" t="n">
         <v>3855.7</v>
@@ -4563,7 +4585,7 @@
         <v>975</v>
       </c>
       <c r="K85" t="n">
-        <v>-16.25</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L85" t="n">
         <v>3856.2</v>
@@ -4614,7 +4636,7 @@
         <v>975</v>
       </c>
       <c r="K86" t="n">
-        <v>1.515151515151515</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="L86" t="n">
         <v>3856.5</v>
@@ -4665,7 +4687,7 @@
         <v>999</v>
       </c>
       <c r="K87" t="n">
-        <v>16.66666666666666</v>
+        <v>96</v>
       </c>
       <c r="L87" t="n">
         <v>3861.3</v>
@@ -4716,7 +4738,7 @@
         <v>1069</v>
       </c>
       <c r="K88" t="n">
-        <v>43.75</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>3873.1</v>
@@ -4767,7 +4789,7 @@
         <v>1070</v>
       </c>
       <c r="K89" t="n">
-        <v>58.82352941176471</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>3885.1</v>
@@ -4818,7 +4840,7 @@
         <v>1137</v>
       </c>
       <c r="K90" t="n">
-        <v>19.55719557195572</v>
+        <v>22.54335260115607</v>
       </c>
       <c r="L90" t="n">
         <v>3890.4</v>
@@ -4869,7 +4891,7 @@
         <v>1210</v>
       </c>
       <c r="K91" t="n">
-        <v>36.25730994152047</v>
+        <v>43.45991561181435</v>
       </c>
       <c r="L91" t="n">
         <v>3901.6</v>
@@ -4920,7 +4942,7 @@
         <v>1241</v>
       </c>
       <c r="K92" t="n">
-        <v>38.24362606232295</v>
+        <v>50</v>
       </c>
       <c r="L92" t="n">
         <v>3915</v>
@@ -4971,7 +4993,7 @@
         <v>1244</v>
       </c>
       <c r="K93" t="n">
-        <v>38.76404494382022</v>
+        <v>50.55350553505535</v>
       </c>
       <c r="L93" t="n">
         <v>3928.7</v>
@@ -5022,7 +5044,7 @@
         <v>1301</v>
       </c>
       <c r="K94" t="n">
-        <v>54.70737913486005</v>
+        <v>58.89570552147239</v>
       </c>
       <c r="L94" t="n">
         <v>3948.1</v>
@@ -5073,7 +5095,7 @@
         <v>1341</v>
       </c>
       <c r="K95" t="n">
-        <v>37.83132530120482</v>
+        <v>41.53005464480874</v>
       </c>
       <c r="L95" t="n">
         <v>3963.3</v>
@@ -5124,7 +5146,7 @@
         <v>1365</v>
       </c>
       <c r="K96" t="n">
-        <v>40.96109839816934</v>
+        <v>41.53005464480874</v>
       </c>
       <c r="L96" t="n">
         <v>3980.9</v>
@@ -5175,7 +5197,7 @@
         <v>1380</v>
       </c>
       <c r="K97" t="n">
-        <v>49.88399071925754</v>
+        <v>31.18971061093248</v>
       </c>
       <c r="L97" t="n">
         <v>3997.6</v>
@@ -5226,7 +5248,7 @@
         <v>1420</v>
       </c>
       <c r="K98" t="n">
-        <v>37.15498938428875</v>
+        <v>16</v>
       </c>
       <c r="L98" t="n">
         <v>4003.3</v>
@@ -5277,7 +5299,7 @@
         <v>1425</v>
       </c>
       <c r="K99" t="n">
-        <v>38.10526315789474</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L99" t="n">
         <v>4009.4</v>
@@ -5328,7 +5350,7 @@
         <v>1427</v>
       </c>
       <c r="K100" t="n">
-        <v>38.36477987421384</v>
+        <v>26.26728110599078</v>
       </c>
       <c r="L100" t="n">
         <v>4022.4</v>
@@ -5379,7 +5401,7 @@
         <v>1428</v>
       </c>
       <c r="K101" t="n">
-        <v>36.63793103448275</v>
+        <v>14.43850267379679</v>
       </c>
       <c r="L101" t="n">
         <v>4028.2</v>
@@ -5430,7 +5452,7 @@
         <v>1428</v>
       </c>
       <c r="K102" t="n">
-        <v>35.38461538461539</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L102" t="n">
         <v>4030.9</v>
@@ -5481,7 +5503,7 @@
         <v>1429</v>
       </c>
       <c r="K103" t="n">
-        <v>35.08771929824561</v>
+        <v>-26.5625</v>
       </c>
       <c r="L103" t="n">
         <v>4033.2</v>
@@ -5532,7 +5554,7 @@
         <v>1453</v>
       </c>
       <c r="K104" t="n">
-        <v>38.33333333333334</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>4032.2</v>
@@ -5583,7 +5605,7 @@
         <v>1477</v>
       </c>
       <c r="K105" t="n">
-        <v>31.47410358565737</v>
+        <v>-16.07142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>4032.8</v>
@@ -5634,7 +5656,7 @@
         <v>1478</v>
       </c>
       <c r="K106" t="n">
-        <v>31.610337972167</v>
+        <v>-32.6530612244898</v>
       </c>
       <c r="L106" t="n">
         <v>4031.1</v>
@@ -5685,7 +5707,7 @@
         <v>1506</v>
       </c>
       <c r="K107" t="n">
-        <v>32.14990138067061</v>
+        <v>41.86046511627907</v>
       </c>
       <c r="L107" t="n">
         <v>4030.7</v>
@@ -5736,7 +5758,7 @@
         <v>1511</v>
       </c>
       <c r="K108" t="n">
-        <v>22.17194570135747</v>
+        <v>41.86046511627907</v>
       </c>
       <c r="L108" t="n">
         <v>4034.8</v>
@@ -5787,7 +5809,7 @@
         <v>1531</v>
       </c>
       <c r="K109" t="n">
-        <v>25.37960954446855</v>
+        <v>51.92307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>4040.4</v>
@@ -5838,7 +5860,7 @@
         <v>1569</v>
       </c>
       <c r="K110" t="n">
-        <v>33.7962962962963</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L110" t="n">
         <v>4042</v>
@@ -5889,7 +5911,7 @@
         <v>1574</v>
       </c>
       <c r="K111" t="n">
-        <v>21.42857142857143</v>
+        <v>13.6986301369863</v>
       </c>
       <c r="L111" t="n">
         <v>4044</v>
@@ -5940,7 +5962,7 @@
         <v>1627</v>
       </c>
       <c r="K112" t="n">
-        <v>25.90673575129533</v>
+        <v>37.37373737373738</v>
       </c>
       <c r="L112" t="n">
         <v>4051.3</v>
@@ -5991,7 +6013,7 @@
         <v>1635</v>
       </c>
       <c r="K113" t="n">
-        <v>22.76214833759591</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L113" t="n">
         <v>4057.9</v>
@@ -6042,7 +6064,7 @@
         <v>1636</v>
       </c>
       <c r="K114" t="n">
-        <v>9.253731343283581</v>
+        <v>40.88050314465409</v>
       </c>
       <c r="L114" t="n">
         <v>4062</v>
@@ -6093,7 +6115,7 @@
         <v>1685</v>
       </c>
       <c r="K115" t="n">
-        <v>34.88372093023256</v>
+        <v>54.58937198067633</v>
       </c>
       <c r="L115" t="n">
         <v>4073.4</v>
@@ -6144,7 +6166,7 @@
         <v>1686</v>
       </c>
       <c r="K116" t="n">
-        <v>30.21806853582554</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="L116" t="n">
         <v>4084.8</v>
@@ -6195,7 +6217,7 @@
         <v>1704</v>
       </c>
       <c r="K117" t="n">
-        <v>30.8641975308642</v>
+        <v>51.29533678756477</v>
       </c>
       <c r="L117" t="n">
         <v>4095.2</v>
@@ -6246,7 +6268,7 @@
         <v>1713</v>
       </c>
       <c r="K118" t="n">
-        <v>50.85324232081911</v>
+        <v>48.35164835164835</v>
       </c>
       <c r="L118" t="n">
         <v>4106</v>
@@ -6297,7 +6319,7 @@
         <v>1726</v>
       </c>
       <c r="K119" t="n">
-        <v>52.15946843853821</v>
+        <v>88.53503184713377</v>
       </c>
       <c r="L119" t="n">
         <v>4116.1</v>
@@ -6348,7 +6370,7 @@
         <v>1731</v>
       </c>
       <c r="K120" t="n">
-        <v>49.34210526315789</v>
+        <v>82.16560509554141</v>
       </c>
       <c r="L120" t="n">
         <v>4129.5</v>
@@ -6399,7 +6421,7 @@
         <v>1740</v>
       </c>
       <c r="K121" t="n">
-        <v>50.64102564102564</v>
+        <v>75.22123893805309</v>
       </c>
       <c r="L121" t="n">
         <v>4143.3</v>
@@ -6450,7 +6472,7 @@
         <v>1741</v>
       </c>
       <c r="K122" t="n">
-        <v>50.15974440894568</v>
+        <v>86.79245283018868</v>
       </c>
       <c r="L122" t="n">
         <v>4151.7</v>
@@ -6501,7 +6523,7 @@
         <v>1743</v>
       </c>
       <c r="K123" t="n">
-        <v>50.95541401273886</v>
+        <v>88.78504672897196</v>
       </c>
       <c r="L123" t="n">
         <v>4161.1</v>
@@ -6552,7 +6574,7 @@
         <v>1744</v>
       </c>
       <c r="K124" t="n">
-        <v>46.39175257731959</v>
+        <v>76.27118644067797</v>
       </c>
       <c r="L124" t="n">
         <v>4170.5</v>
@@ -6603,7 +6625,7 @@
         <v>1831</v>
       </c>
       <c r="K125" t="n">
-        <v>20.33898305084746</v>
+        <v>-29.6551724137931</v>
       </c>
       <c r="L125" t="n">
         <v>4166.3</v>
@@ -6654,7 +6676,7 @@
         <v>1868</v>
       </c>
       <c r="K126" t="n">
-        <v>8.717948717948717</v>
+        <v>-59.7560975609756</v>
       </c>
       <c r="L126" t="n">
         <v>4158.3</v>
@@ -6705,7 +6727,7 @@
         <v>1956</v>
       </c>
       <c r="K127" t="n">
-        <v>20.88888888888889</v>
+        <v>-7.818930041152264</v>
       </c>
       <c r="L127" t="n">
         <v>4157.3</v>
@@ -6756,7 +6778,7 @@
         <v>1957</v>
       </c>
       <c r="K128" t="n">
-        <v>20.17937219730942</v>
+        <v>-13.41991341991342</v>
       </c>
       <c r="L128" t="n">
         <v>4155.5</v>
@@ -6807,7 +6829,7 @@
         <v>1997</v>
       </c>
       <c r="K129" t="n">
-        <v>6.437768240343347</v>
+        <v>-24.81203007518797</v>
       </c>
       <c r="L129" t="n">
         <v>4148.4</v>
@@ -6858,7 +6880,7 @@
         <v>2006</v>
       </c>
       <c r="K130" t="n">
-        <v>13.50114416475973</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L130" t="n">
         <v>4140.9</v>
@@ -6909,7 +6931,7 @@
         <v>2052</v>
       </c>
       <c r="K131" t="n">
-        <v>1.673640167364017</v>
+        <v>-41.47909967845659</v>
       </c>
       <c r="L131" t="n">
         <v>4127.9</v>
@@ -6960,7 +6982,7 @@
         <v>2129</v>
       </c>
       <c r="K132" t="n">
-        <v>6.374501992031872</v>
+        <v>-13.98963730569948</v>
       </c>
       <c r="L132" t="n">
         <v>4122.7</v>
@@ -7011,7 +7033,7 @@
         <v>2135</v>
       </c>
       <c r="K133" t="n">
-        <v>9.199999999999999</v>
+        <v>-12.02046035805627</v>
       </c>
       <c r="L133" t="n">
         <v>4117.9</v>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>3721.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3775</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3775</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>3722.816666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>3775</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>3723.933333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>3724.3</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>3732</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3732</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>3724.15</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>3747</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>3725.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>142</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>3771</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,23 @@
         <v>3726.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>151</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +744,23 @@
         <v>3727.316666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>152</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +787,23 @@
         <v>3728.433333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>152</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +830,23 @@
         <v>3730.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>3763.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +873,23 @@
         <v>3731.416666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>153</v>
+        <v>3777</v>
       </c>
       <c r="K12" t="n">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3763.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +916,23 @@
         <v>3732.75</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>154</v>
+        <v>3778</v>
       </c>
       <c r="K13" t="n">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3764</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +959,23 @@
         <v>3734.083333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154</v>
+        <v>3779</v>
       </c>
       <c r="K14" t="n">
-        <v>43.11926605504588</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3764.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +1002,23 @@
         <v>3735.416666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>154</v>
+        <v>3779</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3769</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1045,23 @@
         <v>3736.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>154</v>
+        <v>3779</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3776.8</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1088,23 @@
         <v>3738.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>155</v>
+        <v>3779</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3778.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1131,23 @@
         <v>3740.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164</v>
+        <v>3789</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3779.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1174,23 @@
         <v>3741.15</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>187</v>
+        <v>3766</v>
       </c>
       <c r="K19" t="n">
-        <v>-31.42857142857143</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3778.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1217,23 @@
         <v>3742.716666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>215</v>
+        <v>3794</v>
       </c>
       <c r="K20" t="n">
-        <v>26.98412698412698</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3780</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>3732</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1260,23 @@
         <v>3744.333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>218</v>
+        <v>3794</v>
       </c>
       <c r="K21" t="n">
-        <v>29.23076923076923</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3782</v>
+        <v>3732</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>3772.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1306,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>28.125</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3783.9</v>
+        <v>3732</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>3773.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1347,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
-      </c>
-      <c r="J23" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>39.47368421052632</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3786.9</v>
+        <v>3732</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>3775.45</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1388,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>43.90243902439025</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3790.5</v>
+        <v>3732</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>3777.4</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1429,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
-      </c>
-      <c r="J25" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>43.90243902439025</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3794.1</v>
+        <v>3732</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>3781.55</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1470,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>64</v>
-      </c>
-      <c r="J26" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>56.19047619047619</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3800.1</v>
+        <v>3732</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>3788.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1511,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>64</v>
-      </c>
-      <c r="J27" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>52.08333333333334</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3806</v>
+        <v>3732</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>3792.05</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1552,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61</v>
-      </c>
-      <c r="J28" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>92.10526315789474</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3810.7</v>
+        <v>3732</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>3795.05</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1593,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65</v>
-      </c>
-      <c r="J29" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>88.46153846153845</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3818.1</v>
+        <v>3732</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>3798.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1634,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J30" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>3.370786516853932</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3818.7</v>
+        <v>3732</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>3799.35</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1675,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21</v>
-      </c>
-      <c r="J31" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>-1.075268817204301</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3818.6</v>
+        <v>3732</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>3800.3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3787.966666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1716,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
-      </c>
-      <c r="J32" t="n">
-        <v>319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-5.617977528089887</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3819.3</v>
+        <v>3732</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>3801.6</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3788.933333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1757,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>36.91275167785235</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3825.4</v>
+        <v>3732</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>3806.15</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3792.1</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1798,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>92</v>
-      </c>
-      <c r="J34" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>34.21052631578947</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3830.6</v>
+        <v>3732</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>3810.55</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3795.133333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1839,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>87</v>
-      </c>
-      <c r="J35" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>17.29323308270677</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3835.3</v>
+        <v>3732</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>3814.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3799.466666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1880,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>21.98581560283688</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3838.4</v>
+        <v>3732</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>3819.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3805.1</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1921,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98</v>
-      </c>
-      <c r="J37" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>26.24113475177305</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3841.8</v>
+        <v>3732</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>3823.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3808.633333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,29 +1962,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>100</v>
-      </c>
-      <c r="J38" t="n">
-        <v>406</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>25.17985611510791</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3845.7</v>
+        <v>3732</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>3828.2</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3811.933333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
+        <v>1.033317256162915</v>
       </c>
     </row>
     <row r="39">
@@ -2233,28 +2003,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>100</v>
-      </c>
-      <c r="J39" t="n">
-        <v>406</v>
-      </c>
-      <c r="K39" t="n">
-        <v>75.75757575757575</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3849.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>3833.65</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3815.2</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2038,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139</v>
-      </c>
-      <c r="J40" t="n">
-        <v>445</v>
-      </c>
-      <c r="K40" t="n">
-        <v>88.05970149253731</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3860.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>3839.65</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3819.766666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2073,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>139</v>
-      </c>
-      <c r="J41" t="n">
-        <v>445</v>
-      </c>
-      <c r="K41" t="n">
-        <v>87.3015873015873</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3872.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>3845.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3824.333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2108,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>136</v>
-      </c>
-      <c r="J42" t="n">
-        <v>448</v>
-      </c>
-      <c r="K42" t="n">
-        <v>65.07936507936508</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3883.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>3851.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3828.766666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2143,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88</v>
-      </c>
-      <c r="J43" t="n">
-        <v>496</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3882.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>3853.9</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3831.566666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2178,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>80</v>
-      </c>
-      <c r="J44" t="n">
-        <v>504</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-6.306306306306306</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3881.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>3855.9</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3834.1</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2213,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>83</v>
-      </c>
-      <c r="J45" t="n">
-        <v>507</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-11.32075471698113</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3880.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>3858.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3836.733333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2248,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83</v>
-      </c>
-      <c r="J46" t="n">
-        <v>507</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-14.5631067961165</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3879.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>3859</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3839.366666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2283,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>103</v>
-      </c>
-      <c r="J47" t="n">
-        <v>527</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.479338842975207</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3880.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>3860.95</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3842.633333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2318,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>89</v>
-      </c>
-      <c r="J48" t="n">
-        <v>541</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-8.148148148148149</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>3862.35</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3845.133333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2353,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>104</v>
-      </c>
-      <c r="J49" t="n">
-        <v>556</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-31.53153153153153</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3879.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>3864.3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3848.9</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2388,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="n">
-        <v>560</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-33.91304347826087</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3875.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>3868.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3851.6</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2423,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
-      </c>
-      <c r="J51" t="n">
-        <v>560</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-32.14285714285715</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3871.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>3872</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3854.2</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2458,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>96</v>
-      </c>
-      <c r="J52" t="n">
-        <v>564</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3867.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>3875.35</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3856.666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2493,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>94</v>
-      </c>
-      <c r="J53" t="n">
-        <v>566</v>
-      </c>
-      <c r="K53" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3868.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>3875.3</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3858.666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2528,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>569</v>
-      </c>
-      <c r="K54" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3869.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>3875.55</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3860.566666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2563,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>105</v>
-      </c>
-      <c r="J55" t="n">
-        <v>577</v>
-      </c>
-      <c r="K55" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3872.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>3876.45</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3862.733333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2598,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>130</v>
-      </c>
-      <c r="J56" t="n">
-        <v>602</v>
-      </c>
-      <c r="K56" t="n">
-        <v>36</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3876.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>3878.2</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3864.933333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2633,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>99</v>
-      </c>
-      <c r="J57" t="n">
-        <v>633</v>
-      </c>
-      <c r="K57" t="n">
-        <v>10.8695652173913</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3876.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>3878.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3866.1</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2668,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>134</v>
-      </c>
-      <c r="J58" t="n">
-        <v>668</v>
-      </c>
-      <c r="K58" t="n">
-        <v>26.78571428571428</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3880.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>3879.95</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3868.533333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2703,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>98</v>
-      </c>
-      <c r="J59" t="n">
-        <v>704</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3880.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>3879.85</v>
-      </c>
-      <c r="N59" t="n">
-        <v>3869.633333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2738,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>78</v>
-      </c>
-      <c r="J60" t="n">
-        <v>724</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-13.41463414634146</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3878.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>3876.8</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3871.4</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2773,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>77</v>
-      </c>
-      <c r="J61" t="n">
-        <v>725</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-11.80124223602484</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3875.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>3873.7</v>
-      </c>
-      <c r="N61" t="n">
-        <v>3873.266666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2808,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>129</v>
-      </c>
-      <c r="J62" t="n">
-        <v>777</v>
-      </c>
-      <c r="K62" t="n">
-        <v>16.58767772511848</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3879.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>3873.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3876.6</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2843,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>108</v>
-      </c>
-      <c r="J63" t="n">
-        <v>798</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.803493449781659</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3880.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>3874.35</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3877.033333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2878,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>122</v>
-      </c>
-      <c r="J64" t="n">
-        <v>812</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.234042553191489</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>3876.45</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3878.033333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2913,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>815</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-5.164319248826291</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3884.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>3878.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3879.1</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2948,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>843</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-3.80952380952381</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3880.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>3878.65</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3878.966666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2983,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>91</v>
-      </c>
-      <c r="J67" t="n">
-        <v>843</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-24.57142857142857</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3879.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>3878.05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3878.733333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3018,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>89</v>
-      </c>
-      <c r="J68" t="n">
-        <v>845</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3875.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>3878.05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3878.366666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3053,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>68</v>
-      </c>
-      <c r="J69" t="n">
-        <v>866</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-7.042253521126761</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3872.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>3876.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3877.3</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3088,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>68</v>
-      </c>
-      <c r="J70" t="n">
-        <v>866</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3871.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>3874.65</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3874.933333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3123,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>70</v>
-      </c>
-      <c r="J71" t="n">
-        <v>868</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-64.83516483516483</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3870.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>3873.15</v>
-      </c>
-      <c r="N71" t="n">
-        <v>3872.633333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3158,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>90</v>
-      </c>
-      <c r="J72" t="n">
-        <v>888</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3866.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>3872.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3871.1</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3193,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>90</v>
-      </c>
-      <c r="J73" t="n">
-        <v>888</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-42.10526315789473</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3864.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>3872.65</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3871.166666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3228,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>908</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-52.68817204301075</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3859.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>3871.3</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3870.833333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3263,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>88</v>
-      </c>
-      <c r="J75" t="n">
-        <v>926</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-3.614457831325301</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3856.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>3870.45</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3871</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3298,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>928</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-1.176470588235294</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3856.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>3868.45</v>
-      </c>
-      <c r="N76" t="n">
-        <v>3871.233333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3333,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>69</v>
-      </c>
-      <c r="J77" t="n">
-        <v>949</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-19.23076923076923</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3854.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>3866.95</v>
-      </c>
-      <c r="N77" t="n">
-        <v>3870.1</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3368,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>69</v>
-      </c>
-      <c r="J78" t="n">
-        <v>949</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.204819277108434</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3852.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>3863.7</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3869.433333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3403,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>68</v>
-      </c>
-      <c r="J79" t="n">
-        <v>950</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3852.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>3862.2</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3868.233333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3438,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>68</v>
-      </c>
-      <c r="J80" t="n">
-        <v>950</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3852.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>3861.7</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3867.166666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3473,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>82</v>
-      </c>
-      <c r="J81" t="n">
-        <v>964</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3853.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>3861.95</v>
-      </c>
-      <c r="N81" t="n">
-        <v>3866.566666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3508,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>91</v>
-      </c>
-      <c r="J82" t="n">
-        <v>973</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3853.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>3860.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>3866.4</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3543,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>91</v>
-      </c>
-      <c r="J83" t="n">
-        <v>973</v>
-      </c>
-      <c r="K83" t="n">
-        <v>32.30769230769231</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3853.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>3859.2</v>
-      </c>
-      <c r="N83" t="n">
-        <v>3866.3</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3578,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>91</v>
-      </c>
-      <c r="J84" t="n">
-        <v>973</v>
-      </c>
-      <c r="K84" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3855.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>3857.65</v>
-      </c>
-      <c r="N84" t="n">
-        <v>3866.1</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3613,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>93</v>
-      </c>
-      <c r="J85" t="n">
-        <v>975</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3856.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>3856.35</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3865.7</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3648,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>93</v>
-      </c>
-      <c r="J86" t="n">
-        <v>975</v>
-      </c>
-      <c r="K86" t="n">
-        <v>92.30769230769231</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3856.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>3856.45</v>
-      </c>
-      <c r="N86" t="n">
-        <v>3864.466666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3683,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>117</v>
-      </c>
-      <c r="J87" t="n">
-        <v>999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>96</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3861.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>3857.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>3865.066666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3718,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>187</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1069</v>
-      </c>
-      <c r="K88" t="n">
-        <v>100</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3873.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>3862.65</v>
-      </c>
-      <c r="N88" t="n">
-        <v>3866.833333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3753,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>188</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1070</v>
-      </c>
-      <c r="K89" t="n">
-        <v>100</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3885.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>3868.65</v>
-      </c>
-      <c r="N89" t="n">
-        <v>3869.833333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3788,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>121</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1137</v>
-      </c>
-      <c r="K90" t="n">
-        <v>22.54335260115607</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3890.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>3871.3</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3871.266666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3823,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>194</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1210</v>
-      </c>
-      <c r="K91" t="n">
-        <v>43.45991561181435</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3901.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>3877.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3875.166666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3858,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>225</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1241</v>
-      </c>
-      <c r="K92" t="n">
-        <v>50</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>3884.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>3878.366666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3893,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>228</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K93" t="n">
-        <v>50.55350553505535</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3928.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>3891.15</v>
-      </c>
-      <c r="N93" t="n">
-        <v>3882.366666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3928,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>285</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1301</v>
-      </c>
-      <c r="K94" t="n">
-        <v>58.89570552147239</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3948.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>3901.9</v>
-      </c>
-      <c r="N94" t="n">
-        <v>3887.8</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3963,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>245</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1341</v>
-      </c>
-      <c r="K95" t="n">
-        <v>41.53005464480874</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3963.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>3909.75</v>
-      </c>
-      <c r="N95" t="n">
-        <v>3892</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3998,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>269</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1365</v>
-      </c>
-      <c r="K96" t="n">
-        <v>41.53005464480874</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3980.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>3918.7</v>
-      </c>
-      <c r="N96" t="n">
-        <v>3897.933333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4033,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>284</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1380</v>
-      </c>
-      <c r="K97" t="n">
-        <v>31.18971061093248</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3997.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>3929.45</v>
-      </c>
-      <c r="N97" t="n">
-        <v>3904.366666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4068,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>244</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1420</v>
-      </c>
-      <c r="K98" t="n">
-        <v>16</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4003.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>3938.2</v>
-      </c>
-      <c r="N98" t="n">
-        <v>3909.533333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4103,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>249</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1425</v>
-      </c>
-      <c r="K99" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4009.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>3947.25</v>
-      </c>
-      <c r="N99" t="n">
-        <v>3915.566666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4138,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>251</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1427</v>
-      </c>
-      <c r="K100" t="n">
-        <v>26.26728110599078</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4022.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>3956.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>3921.666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4173,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>252</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1428</v>
-      </c>
-      <c r="K101" t="n">
-        <v>14.43850267379679</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4028.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>3964.9</v>
-      </c>
-      <c r="N101" t="n">
-        <v>3927.733333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4208,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>252</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1428</v>
-      </c>
-      <c r="K102" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4030.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>3972.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>3933.133333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4243,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>251</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1429</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-26.5625</v>
-      </c>
-      <c r="L103" t="n">
-        <v>4033.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>3980.95</v>
-      </c>
-      <c r="N103" t="n">
-        <v>3938.5</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4278,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>275</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1453</v>
-      </c>
-      <c r="K104" t="n">
-        <v>26.78571428571428</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4032.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>3990.15</v>
-      </c>
-      <c r="N104" t="n">
-        <v>3945.333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4313,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>251</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1477</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-16.07142857142857</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4032.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>3998.05</v>
-      </c>
-      <c r="N105" t="n">
-        <v>3950.766666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4348,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>252</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1478</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-32.6530612244898</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4031.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>4006</v>
-      </c>
-      <c r="N106" t="n">
-        <v>3956.166666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4383,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>280</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1506</v>
-      </c>
-      <c r="K107" t="n">
-        <v>41.86046511627907</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4030.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>4014.15</v>
-      </c>
-      <c r="N107" t="n">
-        <v>3963.2</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4418,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>285</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1511</v>
-      </c>
-      <c r="K108" t="n">
-        <v>41.86046511627907</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4034.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>4019.05</v>
-      </c>
-      <c r="N108" t="n">
-        <v>3970.4</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4453,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>305</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1531</v>
-      </c>
-      <c r="K109" t="n">
-        <v>51.92307692307693</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4040.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>4024.9</v>
-      </c>
-      <c r="N109" t="n">
-        <v>3978.3</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4488,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>267</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1569</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.63829787234043</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>4032.2</v>
-      </c>
-      <c r="N110" t="n">
-        <v>3984.933333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4523,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>272</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1574</v>
-      </c>
-      <c r="K111" t="n">
-        <v>13.6986301369863</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>4036.1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>3991.266666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,1099 +4558,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>325</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1627</v>
-      </c>
-      <c r="K112" t="n">
-        <v>37.37373737373738</v>
-      </c>
-      <c r="L112" t="n">
-        <v>4051.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>4041.1</v>
-      </c>
-      <c r="N112" t="n">
-        <v>3999.066666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4099</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4092</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4099</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4092</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11.0347</v>
-      </c>
-      <c r="G113" t="n">
-        <v>3936.45</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>317</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1635</v>
-      </c>
-      <c r="K113" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L113" t="n">
-        <v>4057.9</v>
-      </c>
-      <c r="M113" t="n">
-        <v>4045.55</v>
-      </c>
-      <c r="N113" t="n">
-        <v>4006.6</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4070</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4091</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4091</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4070</v>
-      </c>
-      <c r="F114" t="n">
-        <v>13.8828</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3940.1</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>316</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1636</v>
-      </c>
-      <c r="K114" t="n">
-        <v>40.88050314465409</v>
-      </c>
-      <c r="L114" t="n">
-        <v>4062</v>
-      </c>
-      <c r="M114" t="n">
-        <v>4047.1</v>
-      </c>
-      <c r="N114" t="n">
-        <v>4014.1</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4091</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4140</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4140</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4091</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1576.8927</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3944.433333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>365</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1685</v>
-      </c>
-      <c r="K115" t="n">
-        <v>54.58937198067633</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4073.4</v>
-      </c>
-      <c r="M115" t="n">
-        <v>4053.1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>4023.166666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4101</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4141</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4141</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4100</v>
-      </c>
-      <c r="F116" t="n">
-        <v>186.9135</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3948.366666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>366</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1686</v>
-      </c>
-      <c r="K116" t="n">
-        <v>47.77777777777778</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4084.8</v>
-      </c>
-      <c r="M116" t="n">
-        <v>4057.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>4032.266666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4159</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4159</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4101</v>
-      </c>
-      <c r="F117" t="n">
-        <v>57.5134</v>
-      </c>
-      <c r="G117" t="n">
-        <v>3953.116666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>384</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1704</v>
-      </c>
-      <c r="K117" t="n">
-        <v>51.29533678756477</v>
-      </c>
-      <c r="L117" t="n">
-        <v>4095.2</v>
-      </c>
-      <c r="M117" t="n">
-        <v>4062.95</v>
-      </c>
-      <c r="N117" t="n">
-        <v>4041.166666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4168</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4168</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4157</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1047.7342</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3957.433333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>393</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1713</v>
-      </c>
-      <c r="K118" t="n">
-        <v>48.35164835164835</v>
-      </c>
-      <c r="L118" t="n">
-        <v>4106</v>
-      </c>
-      <c r="M118" t="n">
-        <v>4070.4</v>
-      </c>
-      <c r="N118" t="n">
-        <v>4048.033333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4173</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4181</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4123</v>
-      </c>
-      <c r="F119" t="n">
-        <v>499.6397</v>
-      </c>
-      <c r="G119" t="n">
-        <v>3962.566666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>406</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1726</v>
-      </c>
-      <c r="K119" t="n">
-        <v>88.53503184713377</v>
-      </c>
-      <c r="L119" t="n">
-        <v>4116.1</v>
-      </c>
-      <c r="M119" t="n">
-        <v>4078.25</v>
-      </c>
-      <c r="N119" t="n">
-        <v>4055.3</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4181</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4176</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4139</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1483.0744</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3967.95</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>401</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1731</v>
-      </c>
-      <c r="K120" t="n">
-        <v>82.16560509554141</v>
-      </c>
-      <c r="L120" t="n">
-        <v>4129.5</v>
-      </c>
-      <c r="M120" t="n">
-        <v>4085.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>4064.633333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4179</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4179</v>
-      </c>
-      <c r="F121" t="n">
-        <v>13.3215</v>
-      </c>
-      <c r="G121" t="n">
-        <v>3973.5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>410</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1740</v>
-      </c>
-      <c r="K121" t="n">
-        <v>75.22123893805309</v>
-      </c>
-      <c r="L121" t="n">
-        <v>4143.3</v>
-      </c>
-      <c r="M121" t="n">
-        <v>4093.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>4071.833333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4182</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4184</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4182</v>
-      </c>
-      <c r="F122" t="n">
-        <v>228.3784</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3978.166666666667</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>409</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1741</v>
-      </c>
-      <c r="K122" t="n">
-        <v>86.79245283018868</v>
-      </c>
-      <c r="L122" t="n">
-        <v>4151.7</v>
-      </c>
-      <c r="M122" t="n">
-        <v>4101.5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>4077.966666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4185</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4186</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4186</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4185</v>
-      </c>
-      <c r="F123" t="n">
-        <v>132.1066</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3983.216666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>411</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1743</v>
-      </c>
-      <c r="K123" t="n">
-        <v>88.78504672897196</v>
-      </c>
-      <c r="L123" t="n">
-        <v>4161.1</v>
-      </c>
-      <c r="M123" t="n">
-        <v>4109.5</v>
-      </c>
-      <c r="N123" t="n">
-        <v>4084.066666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4186</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4186</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4132</v>
-      </c>
-      <c r="F124" t="n">
-        <v>433.3381</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3988.016666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>410</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1744</v>
-      </c>
-      <c r="K124" t="n">
-        <v>76.27118644067797</v>
-      </c>
-      <c r="L124" t="n">
-        <v>4170.5</v>
-      </c>
-      <c r="M124" t="n">
-        <v>4116.25</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4088.233333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4169</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4098</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4169</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4098</v>
-      </c>
-      <c r="F125" t="n">
-        <v>215</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3991.416666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>323</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1831</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-29.6551724137931</v>
-      </c>
-      <c r="L125" t="n">
-        <v>4166.3</v>
-      </c>
-      <c r="M125" t="n">
-        <v>4119.85</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4090.833333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4169</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4061</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4169</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4061</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1151.5974</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3994.666666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>286</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1868</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-59.7560975609756</v>
-      </c>
-      <c r="L126" t="n">
-        <v>4158.3</v>
-      </c>
-      <c r="M126" t="n">
-        <v>4121.55</v>
-      </c>
-      <c r="N126" t="n">
-        <v>4091.4</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4118</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4149</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4149</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4110</v>
-      </c>
-      <c r="F127" t="n">
-        <v>668.23140865</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3999.383333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>374</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1956</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-7.818930041152264</v>
-      </c>
-      <c r="L127" t="n">
-        <v>4157.3</v>
-      </c>
-      <c r="M127" t="n">
-        <v>4126.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4094.4</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4149</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4150</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4150</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4149</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G128" t="n">
-        <v>4004.15</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>375</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1957</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-13.41991341991342</v>
-      </c>
-      <c r="L128" t="n">
-        <v>4155.5</v>
-      </c>
-      <c r="M128" t="n">
-        <v>4130.75</v>
-      </c>
-      <c r="N128" t="n">
-        <v>4098.766666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4110</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4189</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4110</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1629.8226</v>
-      </c>
-      <c r="G129" t="n">
-        <v>4008.6</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>335</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-24.81203007518797</v>
-      </c>
-      <c r="L129" t="n">
-        <v>4148.4</v>
-      </c>
-      <c r="M129" t="n">
-        <v>4132.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>4101.633333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4097</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4101</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4101</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4097</v>
-      </c>
-      <c r="F130" t="n">
-        <v>214.9826</v>
-      </c>
-      <c r="G130" t="n">
-        <v>4012.9</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>326</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-31.57894736842105</v>
-      </c>
-      <c r="L130" t="n">
-        <v>4140.9</v>
-      </c>
-      <c r="M130" t="n">
-        <v>4135.2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>4104.133333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4056</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4055</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4125</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F131" t="n">
-        <v>574.3192</v>
-      </c>
-      <c r="G131" t="n">
-        <v>4016.4</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>280</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2052</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-41.47909967845659</v>
-      </c>
-      <c r="L131" t="n">
-        <v>4127.9</v>
-      </c>
-      <c r="M131" t="n">
-        <v>4135.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>4105.066666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>4020.85</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>357</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2129</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-13.98963730569948</v>
-      </c>
-      <c r="L132" t="n">
-        <v>4122.7</v>
-      </c>
-      <c r="M132" t="n">
-        <v>4137.2</v>
-      </c>
-      <c r="N132" t="n">
-        <v>4108.566666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4025.4</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>363</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2135</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-12.02046035805627</v>
-      </c>
-      <c r="L133" t="n">
-        <v>4117.9</v>
-      </c>
-      <c r="M133" t="n">
-        <v>4139.5</v>
-      </c>
-      <c r="N133" t="n">
-        <v>4112.3</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -451,17 +451,13 @@
         <v>3721.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3775</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3775</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3722.816666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3775</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3775</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3723.933333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3775</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>3724.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3732</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3732</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>3724.15</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3747</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>3725.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3771</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>3726.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>3727.316666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>3728.433333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3777</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>3730.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3777</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>3731.416666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3777</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>3732.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3778</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>3734.083333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3779</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>3735.416666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3779</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>3736.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>3779</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>3738.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>3779</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>3740.05</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3789</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>3741.15</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3766</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>3742.716666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3794</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>3744.333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3794</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1391,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1473,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1555,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1637,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1719,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1760,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1801,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1924,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1962,19 +1714,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1.033317256162915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2003,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2038,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2073,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2108,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2213,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2248,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3435,13 +3181,17 @@
         <v>3859.383333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3843</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3843</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3470,14 +3220,22 @@
         <v>3860.383333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3843</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3505,14 +3263,22 @@
         <v>3861.533333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3857</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +3306,22 @@
         <v>3862.483333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3581,8 +3355,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3610,14 +3390,22 @@
         <v>3864.216666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3645,14 +3433,22 @@
         <v>3864.7</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3868</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3476,22 @@
         <v>3865.583333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3868</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3519,22 @@
         <v>3867.683333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3892</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3750,14 +3562,22 @@
         <v>3869.733333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3962</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3785,14 +3605,22 @@
         <v>3871.333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3963</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3826,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3861,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3896,8 +3736,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3928,13 +3774,19 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>1.051466302367942</v>
       </c>
     </row>
     <row r="95">
@@ -3998,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4033,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="D2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="E2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="F2" t="n">
-        <v>15.1</v>
+        <v>0.3807</v>
       </c>
       <c r="G2" t="n">
-        <v>3721.9</v>
+        <v>3720.983333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>3775</v>
       </c>
       <c r="F3" t="n">
-        <v>125.4541</v>
+        <v>15.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3722.816666666667</v>
+        <v>3721.9</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3776</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>3775</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3775</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3775</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F4" t="n">
+        <v>125.4541</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3722.816666666667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
         <v>3776</v>
       </c>
-      <c r="C4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="F4" t="n">
-        <v>80.1079</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3723.933333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="C5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="D5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="E5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2297</v>
+        <v>80.1079</v>
       </c>
       <c r="G5" t="n">
-        <v>3724.3</v>
+        <v>3723.933333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>3776</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="C6" t="n">
-        <v>3701</v>
+        <v>3732</v>
       </c>
       <c r="D6" t="n">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="E6" t="n">
-        <v>3701</v>
+        <v>3732</v>
       </c>
       <c r="F6" t="n">
-        <v>1059.7987</v>
+        <v>2.2297</v>
       </c>
       <c r="G6" t="n">
-        <v>3724.15</v>
+        <v>3724.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,32 +624,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3771</v>
+        <v>3747</v>
       </c>
       <c r="C7" t="n">
-        <v>3767</v>
+        <v>3701</v>
       </c>
       <c r="D7" t="n">
-        <v>3771</v>
+        <v>3747</v>
       </c>
       <c r="E7" t="n">
-        <v>3767</v>
+        <v>3701</v>
       </c>
       <c r="F7" t="n">
-        <v>99.0085</v>
+        <v>1059.7987</v>
       </c>
       <c r="G7" t="n">
-        <v>3725.1</v>
+        <v>3724.15</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3732</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,32 +665,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="C8" t="n">
-        <v>3776</v>
+        <v>3767</v>
       </c>
       <c r="D8" t="n">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="E8" t="n">
-        <v>3776</v>
+        <v>3767</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>99.0085</v>
       </c>
       <c r="G8" t="n">
-        <v>3726.2</v>
+        <v>3725.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3701</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -681,29 +709,35 @@
         <v>3776</v>
       </c>
       <c r="C9" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="D9" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E9" t="n">
         <v>3776</v>
       </c>
       <c r="F9" t="n">
-        <v>45.5799</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>3727.316666666667</v>
+        <v>3726.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3767</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C10" t="n">
         <v>3777</v>
@@ -722,23 +756,29 @@
         <v>3777</v>
       </c>
       <c r="E10" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="F10" t="n">
-        <v>68.48</v>
+        <v>45.5799</v>
       </c>
       <c r="G10" t="n">
-        <v>3728.433333333333</v>
+        <v>3727.316666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3776</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,20 +800,26 @@
         <v>3777</v>
       </c>
       <c r="F11" t="n">
-        <v>15.1</v>
+        <v>68.48</v>
       </c>
       <c r="G11" t="n">
-        <v>3730.1</v>
+        <v>3728.433333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3777</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -786,19 +832,19 @@
         <v>3777</v>
       </c>
       <c r="C12" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="D12" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="E12" t="n">
         <v>3777</v>
       </c>
       <c r="F12" t="n">
-        <v>296.6735</v>
+        <v>15.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3731.416666666667</v>
+        <v>3730.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +854,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +868,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>3777</v>
+      </c>
+      <c r="C13" t="n">
         <v>3778</v>
       </c>
-      <c r="C13" t="n">
-        <v>3779</v>
-      </c>
       <c r="D13" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="E13" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F13" t="n">
-        <v>72.8899</v>
+        <v>296.6735</v>
       </c>
       <c r="G13" t="n">
-        <v>3732.75</v>
+        <v>3731.416666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3777</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C14" t="n">
         <v>3779</v>
@@ -862,13 +918,13 @@
         <v>3779</v>
       </c>
       <c r="E14" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="F14" t="n">
-        <v>9.5999</v>
+        <v>72.8899</v>
       </c>
       <c r="G14" t="n">
-        <v>3734.083333333333</v>
+        <v>3732.75</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +934,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +960,10 @@
         <v>3779</v>
       </c>
       <c r="F15" t="n">
-        <v>15.1</v>
+        <v>9.5999</v>
       </c>
       <c r="G15" t="n">
-        <v>3735.416666666667</v>
+        <v>3734.083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +973,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -935,10 +999,10 @@
         <v>3779</v>
       </c>
       <c r="F16" t="n">
-        <v>56.3299</v>
+        <v>15.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3736.9</v>
+        <v>3735.416666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +1012,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -961,19 +1029,19 @@
         <v>3779</v>
       </c>
       <c r="C17" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="D17" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="E17" t="n">
         <v>3779</v>
       </c>
       <c r="F17" t="n">
-        <v>99.4546</v>
+        <v>56.3299</v>
       </c>
       <c r="G17" t="n">
-        <v>3738.4</v>
+        <v>3736.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1051,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1065,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3789</v>
+        <v>3779</v>
       </c>
       <c r="C18" t="n">
-        <v>3789</v>
+        <v>3780</v>
       </c>
       <c r="D18" t="n">
-        <v>3789</v>
+        <v>3780</v>
       </c>
       <c r="E18" t="n">
-        <v>3789</v>
+        <v>3779</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7316</v>
+        <v>99.4546</v>
       </c>
       <c r="G18" t="n">
-        <v>3740.05</v>
+        <v>3738.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1090,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1104,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="C19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="D19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="E19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="F19" t="n">
-        <v>5.2153</v>
+        <v>11.7316</v>
       </c>
       <c r="G19" t="n">
-        <v>3741.15</v>
+        <v>3740.05</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1129,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1143,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="C20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="D20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="E20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>5.2153</v>
       </c>
       <c r="G20" t="n">
-        <v>3742.716666666667</v>
+        <v>3741.15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1168,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1185,19 @@
         <v>3794</v>
       </c>
       <c r="C21" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="D21" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="E21" t="n">
         <v>3794</v>
       </c>
       <c r="F21" t="n">
-        <v>22.9</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3744.333333333333</v>
+        <v>3742.716666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1207,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="C22" t="n">
         <v>3797</v>
@@ -1142,13 +1230,13 @@
         <v>3797</v>
       </c>
       <c r="E22" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="F22" t="n">
-        <v>59.08</v>
+        <v>22.9</v>
       </c>
       <c r="G22" t="n">
-        <v>3745.866666666667</v>
+        <v>3744.333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1246,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1171,19 +1263,19 @@
         <v>3797</v>
       </c>
       <c r="C23" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="D23" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="E23" t="n">
         <v>3797</v>
       </c>
       <c r="F23" t="n">
-        <v>348.0656</v>
+        <v>59.08</v>
       </c>
       <c r="G23" t="n">
-        <v>3747.6</v>
+        <v>3745.866666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1285,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1299,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>3797</v>
+      </c>
+      <c r="C24" t="n">
         <v>3809</v>
       </c>
-      <c r="C24" t="n">
-        <v>3815</v>
-      </c>
       <c r="D24" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="E24" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="F24" t="n">
-        <v>12.6813</v>
+        <v>348.0656</v>
       </c>
       <c r="G24" t="n">
-        <v>3749.433333333333</v>
+        <v>3747.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1324,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1338,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="C25" t="n">
         <v>3815</v>
@@ -1247,13 +1347,13 @@
         <v>3815</v>
       </c>
       <c r="E25" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>12.6813</v>
       </c>
       <c r="G25" t="n">
-        <v>3751.266666666667</v>
+        <v>3749.433333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1363,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1380,19 @@
         <v>3815</v>
       </c>
       <c r="C26" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="D26" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="E26" t="n">
         <v>3815</v>
       </c>
       <c r="F26" t="n">
-        <v>41.3006</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3753.25</v>
+        <v>3751.266666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1402,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="C27" t="n">
         <v>3839</v>
@@ -1317,13 +1425,13 @@
         <v>3839</v>
       </c>
       <c r="E27" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>41.3006</v>
       </c>
       <c r="G27" t="n">
-        <v>3755.1</v>
+        <v>3753.25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1441,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1455,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3801</v>
+        <v>3839</v>
       </c>
       <c r="C28" t="n">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="D28" t="n">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="E28" t="n">
-        <v>3801</v>
+        <v>3839</v>
       </c>
       <c r="F28" t="n">
-        <v>5.9018</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3756.916666666667</v>
+        <v>3755.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1480,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1494,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3840</v>
+        <v>3801</v>
       </c>
       <c r="C29" t="n">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="D29" t="n">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="E29" t="n">
-        <v>3840</v>
+        <v>3801</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>5.9018</v>
       </c>
       <c r="G29" t="n">
-        <v>3758.816666666667</v>
+        <v>3756.916666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1519,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1416,19 +1536,19 @@
         <v>3840</v>
       </c>
       <c r="C30" t="n">
-        <v>3800</v>
+        <v>3840</v>
       </c>
       <c r="D30" t="n">
-        <v>3870</v>
+        <v>3840</v>
       </c>
       <c r="E30" t="n">
-        <v>3768</v>
+        <v>3840</v>
       </c>
       <c r="F30" t="n">
-        <v>1304.595</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3760.05</v>
+        <v>3758.816666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1558,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1572,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3870</v>
+        <v>3840</v>
       </c>
       <c r="C31" t="n">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="D31" t="n">
         <v>3870</v>
       </c>
       <c r="E31" t="n">
-        <v>3796</v>
+        <v>3768</v>
       </c>
       <c r="F31" t="n">
-        <v>871.2791999999999</v>
+        <v>1304.595</v>
       </c>
       <c r="G31" t="n">
-        <v>3761.2</v>
+        <v>3760.05</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1597,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1611,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3804</v>
+        <v>3870</v>
       </c>
       <c r="C32" t="n">
-        <v>3804</v>
+        <v>3796</v>
       </c>
       <c r="D32" t="n">
-        <v>3804</v>
+        <v>3870</v>
       </c>
       <c r="E32" t="n">
-        <v>3804</v>
+        <v>3796</v>
       </c>
       <c r="F32" t="n">
-        <v>7.54</v>
+        <v>871.2791999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3762.483333333333</v>
+        <v>3761.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1636,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,57 +1650,59 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="C33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="D33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="E33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>7.54</v>
       </c>
       <c r="G33" t="n">
-        <v>3764.866666666667</v>
+        <v>3762.483333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="C34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="D34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="E34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="F34" t="n">
-        <v>28.4276</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3767.516666666667</v>
+        <v>3764.866666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1722,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="C35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="D35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="E35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="F35" t="n">
-        <v>30.8</v>
+        <v>28.4276</v>
       </c>
       <c r="G35" t="n">
-        <v>3769.783333333333</v>
+        <v>3767.516666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1760,19 @@
         <v>3862</v>
       </c>
       <c r="C36" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="D36" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="E36" t="n">
         <v>3862</v>
       </c>
       <c r="F36" t="n">
-        <v>11.3</v>
+        <v>30.8</v>
       </c>
       <c r="G36" t="n">
-        <v>3772.183333333333</v>
+        <v>3769.783333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1792,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>3862</v>
+      </c>
+      <c r="C37" t="n">
         <v>3870</v>
       </c>
-      <c r="C37" t="n">
-        <v>3873</v>
-      </c>
       <c r="D37" t="n">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="E37" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="F37" t="n">
-        <v>349.5172</v>
+        <v>11.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3774.616666666667</v>
+        <v>3772.183333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1827,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3870</v>
+      </c>
+      <c r="C38" t="n">
         <v>3873</v>
       </c>
-      <c r="C38" t="n">
-        <v>3875</v>
-      </c>
       <c r="D38" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="E38" t="n">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="F38" t="n">
-        <v>43.8191</v>
+        <v>349.5172</v>
       </c>
       <c r="G38" t="n">
-        <v>3777.083333333333</v>
+        <v>3774.616666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="C39" t="n">
         <v>3875</v>
@@ -1737,13 +1871,13 @@
         <v>3875</v>
       </c>
       <c r="E39" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>43.8191</v>
       </c>
       <c r="G39" t="n">
-        <v>3779.55</v>
+        <v>3777.083333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1900,19 @@
         <v>3875</v>
       </c>
       <c r="C40" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="D40" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="E40" t="n">
         <v>3875</v>
       </c>
       <c r="F40" t="n">
-        <v>12.1963</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>3782.666666666667</v>
+        <v>3779.55</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="C41" t="n">
         <v>3914</v>
@@ -1807,13 +1941,13 @@
         <v>3914</v>
       </c>
       <c r="E41" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>12.1963</v>
       </c>
       <c r="G41" t="n">
-        <v>3785.766666666667</v>
+        <v>3782.666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1967,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3861</v>
+        <v>3914</v>
       </c>
       <c r="C42" t="n">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="D42" t="n">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="E42" t="n">
-        <v>3861</v>
+        <v>3914</v>
       </c>
       <c r="F42" t="n">
-        <v>211.1705</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3788.816666666667</v>
+        <v>3785.766666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +2002,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C43" t="n">
-        <v>3863</v>
+        <v>3911</v>
       </c>
       <c r="D43" t="n">
-        <v>3863</v>
+        <v>3911</v>
       </c>
       <c r="E43" t="n">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2895</v>
+        <v>211.1705</v>
       </c>
       <c r="G43" t="n">
-        <v>3791.066666666667</v>
+        <v>3788.816666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +2037,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="C44" t="n">
-        <v>3855</v>
+        <v>3863</v>
       </c>
       <c r="D44" t="n">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="E44" t="n">
-        <v>3855</v>
+        <v>3863</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>0.2895</v>
       </c>
       <c r="G44" t="n">
-        <v>3793.166666666667</v>
+        <v>3791.066666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +2072,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="C45" t="n">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="D45" t="n">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="E45" t="n">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="F45" t="n">
-        <v>12.3136</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
-        <v>3795.316666666667</v>
+        <v>3793.166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1982,13 +2116,13 @@
         <v>3858</v>
       </c>
       <c r="E46" t="n">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="F46" t="n">
-        <v>17.0029</v>
+        <v>12.3136</v>
       </c>
       <c r="G46" t="n">
-        <v>3797.466666666667</v>
+        <v>3795.316666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2142,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="C47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="D47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="E47" t="n">
-        <v>3878</v>
+        <v>3857</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>17.0029</v>
       </c>
       <c r="G47" t="n">
-        <v>3799.95</v>
+        <v>3797.466666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2177,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="C48" t="n">
-        <v>3864</v>
+        <v>3878</v>
       </c>
       <c r="D48" t="n">
-        <v>3864</v>
+        <v>3878</v>
       </c>
       <c r="E48" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="F48" t="n">
-        <v>39.487</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3802.183333333333</v>
+        <v>3799.95</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2212,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3830</v>
+        <v>3863</v>
       </c>
       <c r="C49" t="n">
-        <v>3879</v>
+        <v>3864</v>
       </c>
       <c r="D49" t="n">
-        <v>3879</v>
+        <v>3864</v>
       </c>
       <c r="E49" t="n">
-        <v>3827</v>
+        <v>3863</v>
       </c>
       <c r="F49" t="n">
-        <v>590.2285000000001</v>
+        <v>39.487</v>
       </c>
       <c r="G49" t="n">
-        <v>3804.666666666667</v>
+        <v>3802.183333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2247,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3875</v>
+        <v>3830</v>
       </c>
       <c r="C50" t="n">
-        <v>3875</v>
+        <v>3879</v>
       </c>
       <c r="D50" t="n">
-        <v>3875</v>
+        <v>3879</v>
       </c>
       <c r="E50" t="n">
-        <v>3875</v>
+        <v>3827</v>
       </c>
       <c r="F50" t="n">
-        <v>77.56999999999999</v>
+        <v>590.2285000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>3807.083333333333</v>
+        <v>3804.666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2282,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3844</v>
+        <v>3875</v>
       </c>
       <c r="C51" t="n">
         <v>3875</v>
@@ -2157,13 +2291,13 @@
         <v>3875</v>
       </c>
       <c r="E51" t="n">
-        <v>3844</v>
+        <v>3875</v>
       </c>
       <c r="F51" t="n">
-        <v>168.8159</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>3809.516666666667</v>
+        <v>3807.083333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2317,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3871</v>
+        <v>3844</v>
       </c>
       <c r="C52" t="n">
-        <v>3871</v>
+        <v>3875</v>
       </c>
       <c r="D52" t="n">
-        <v>3871</v>
+        <v>3875</v>
       </c>
       <c r="E52" t="n">
-        <v>3871</v>
+        <v>3844</v>
       </c>
       <c r="F52" t="n">
-        <v>10.92</v>
+        <v>168.8159</v>
       </c>
       <c r="G52" t="n">
-        <v>3811.866666666667</v>
+        <v>3809.516666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2352,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="C53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="D53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="E53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="F53" t="n">
-        <v>77.92</v>
+        <v>10.92</v>
       </c>
       <c r="G53" t="n">
-        <v>3814.183333333333</v>
+        <v>3811.866666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2387,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="C54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="D54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="E54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="F54" t="n">
-        <v>8.1906</v>
+        <v>77.92</v>
       </c>
       <c r="G54" t="n">
-        <v>3816.466666666667</v>
+        <v>3814.183333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2422,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="C55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="D55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="E55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>8.1906</v>
       </c>
       <c r="G55" t="n">
-        <v>3818.883333333333</v>
+        <v>3816.466666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2457,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3906</v>
+        <v>3880</v>
       </c>
       <c r="C56" t="n">
-        <v>3905</v>
+        <v>3880</v>
       </c>
       <c r="D56" t="n">
-        <v>3906</v>
+        <v>3880</v>
       </c>
       <c r="E56" t="n">
-        <v>3905</v>
+        <v>3880</v>
       </c>
       <c r="F56" t="n">
-        <v>4.31522432</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>3821.716666666667</v>
+        <v>3818.883333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2492,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="C57" t="n">
-        <v>3874</v>
+        <v>3905</v>
       </c>
       <c r="D57" t="n">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="E57" t="n">
-        <v>3874</v>
+        <v>3905</v>
       </c>
       <c r="F57" t="n">
-        <v>58.3106</v>
+        <v>4.31522432</v>
       </c>
       <c r="G57" t="n">
-        <v>3823.466666666667</v>
+        <v>3821.716666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2530,19 @@
         <v>3909</v>
       </c>
       <c r="C58" t="n">
-        <v>3909</v>
+        <v>3874</v>
       </c>
       <c r="D58" t="n">
         <v>3909</v>
       </c>
       <c r="E58" t="n">
-        <v>3909</v>
+        <v>3874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>58.3106</v>
       </c>
       <c r="G58" t="n">
-        <v>3825.8</v>
+        <v>3823.466666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2562,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="C59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="D59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="E59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8094</v>
+        <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>3827.533333333333</v>
+        <v>3825.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2597,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="C60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="D60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="E60" t="n">
-        <v>3852</v>
+        <v>3873</v>
       </c>
       <c r="F60" t="n">
-        <v>111.6502</v>
+        <v>0.8094</v>
       </c>
       <c r="G60" t="n">
-        <v>3829.35</v>
+        <v>3827.533333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2632,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="C61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="E61" t="n">
         <v>3852</v>
       </c>
       <c r="F61" t="n">
-        <v>5.37</v>
+        <v>111.6502</v>
       </c>
       <c r="G61" t="n">
-        <v>3830.616666666667</v>
+        <v>3829.35</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2667,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="C62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="D62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="E62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>5.37</v>
       </c>
       <c r="G62" t="n">
-        <v>3832.766666666667</v>
+        <v>3830.616666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2702,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="C63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="D63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="E63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="F63" t="n">
-        <v>4.00206026</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>3834.566666666667</v>
+        <v>3832.766666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2737,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="C64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="D64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="E64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>4.00206026</v>
       </c>
       <c r="G64" t="n">
-        <v>3836.583333333333</v>
+        <v>3834.566666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2772,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="C65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="D65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="E65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="F65" t="n">
-        <v>4.00102722</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>3839.283333333333</v>
+        <v>3836.583333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2807,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="C66" t="n">
-        <v>3866</v>
+        <v>3894</v>
       </c>
       <c r="D66" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="E66" t="n">
-        <v>3866</v>
+        <v>3894</v>
       </c>
       <c r="F66" t="n">
-        <v>87.3219</v>
+        <v>4.00102722</v>
       </c>
       <c r="G66" t="n">
-        <v>3842.033333333333</v>
+        <v>3839.283333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2842,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C67" t="n">
         <v>3866</v>
       </c>
       <c r="D67" t="n">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="E67" t="n">
         <v>3866</v>
       </c>
       <c r="F67" t="n">
-        <v>167.2461</v>
+        <v>87.3219</v>
       </c>
       <c r="G67" t="n">
-        <v>3843.683333333333</v>
+        <v>3842.033333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2877,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="C68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="D68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="E68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>167.2461</v>
       </c>
       <c r="G68" t="n">
-        <v>3845.15</v>
+        <v>3843.683333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2912,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="C69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="D69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="E69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="F69" t="n">
-        <v>54.7068</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>3846.25</v>
+        <v>3845.15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2959,10 @@
         <v>3843</v>
       </c>
       <c r="F70" t="n">
-        <v>39.2052</v>
+        <v>54.7068</v>
       </c>
       <c r="G70" t="n">
-        <v>3847.35</v>
+        <v>3846.25</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2982,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="C71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="D71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="E71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="F71" t="n">
-        <v>2.5377</v>
+        <v>39.2052</v>
       </c>
       <c r="G71" t="n">
-        <v>3848.483333333333</v>
+        <v>3847.35</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +3017,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="C72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="D72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="E72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>2.5377</v>
       </c>
       <c r="G72" t="n">
-        <v>3849.933333333333</v>
+        <v>3848.483333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +3064,10 @@
         <v>3865</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>3851.366666666667</v>
+        <v>3849.933333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3087,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3846</v>
+        <v>3865</v>
       </c>
       <c r="C74" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="D74" t="n">
-        <v>3846</v>
+        <v>3865</v>
       </c>
       <c r="E74" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="F74" t="n">
-        <v>22.5925</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>3852.466666666667</v>
+        <v>3851.366666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3122,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3863</v>
+        <v>3846</v>
       </c>
       <c r="C75" t="n">
-        <v>3863</v>
+        <v>3845</v>
       </c>
       <c r="D75" t="n">
-        <v>3863</v>
+        <v>3846</v>
       </c>
       <c r="E75" t="n">
-        <v>3863</v>
+        <v>3845</v>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>22.5925</v>
       </c>
       <c r="G75" t="n">
-        <v>3853.866666666667</v>
+        <v>3852.466666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,10 +3160,10 @@
         <v>3863</v>
       </c>
       <c r="C76" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="D76" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="E76" t="n">
         <v>3863</v>
@@ -3038,7 +3172,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>3855.3</v>
+        <v>3853.866666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3192,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3845</v>
+        <v>3863</v>
       </c>
       <c r="C77" t="n">
-        <v>3844</v>
+        <v>3865</v>
       </c>
       <c r="D77" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="E77" t="n">
-        <v>3844</v>
+        <v>3863</v>
       </c>
       <c r="F77" t="n">
-        <v>64.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>3856.366666666667</v>
+        <v>3855.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3227,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="C78" t="n">
         <v>3844</v>
       </c>
       <c r="D78" t="n">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="E78" t="n">
         <v>3844</v>
       </c>
       <c r="F78" t="n">
-        <v>10.7505</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>3857.283333333333</v>
+        <v>3856.366666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3262,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3852</v>
+        <v>3844</v>
       </c>
       <c r="C79" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="D79" t="n">
-        <v>3853</v>
+        <v>3844</v>
       </c>
       <c r="E79" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="F79" t="n">
-        <v>95.9639</v>
+        <v>10.7505</v>
       </c>
       <c r="G79" t="n">
-        <v>3858.566666666667</v>
+        <v>3857.283333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,35 +3297,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3843</v>
+        <v>3852</v>
       </c>
       <c r="C80" t="n">
         <v>3843</v>
       </c>
       <c r="D80" t="n">
-        <v>3843</v>
+        <v>3853</v>
       </c>
       <c r="E80" t="n">
         <v>3843</v>
       </c>
       <c r="F80" t="n">
-        <v>8.011200000000001</v>
+        <v>95.9639</v>
       </c>
       <c r="G80" t="n">
-        <v>3859.383333333333</v>
+        <v>3858.566666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3843</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3843</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3202,40 +3332,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3813</v>
+        <v>3843</v>
       </c>
       <c r="C81" t="n">
-        <v>3857</v>
+        <v>3843</v>
       </c>
       <c r="D81" t="n">
-        <v>3857</v>
+        <v>3843</v>
       </c>
       <c r="E81" t="n">
-        <v>3813</v>
+        <v>3843</v>
       </c>
       <c r="F81" t="n">
-        <v>69.756</v>
+        <v>8.011200000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>3860.383333333333</v>
+        <v>3859.383333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3843</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,40 +3367,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3866</v>
+        <v>3813</v>
       </c>
       <c r="C82" t="n">
-        <v>3866</v>
+        <v>3857</v>
       </c>
       <c r="D82" t="n">
-        <v>3866</v>
+        <v>3857</v>
       </c>
       <c r="E82" t="n">
-        <v>3866</v>
+        <v>3813</v>
       </c>
       <c r="F82" t="n">
-        <v>42.1</v>
+        <v>69.756</v>
       </c>
       <c r="G82" t="n">
-        <v>3861.533333333333</v>
+        <v>3860.383333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3857</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3300,28 +3414,20 @@
         <v>3866</v>
       </c>
       <c r="F83" t="n">
-        <v>21</v>
+        <v>42.1</v>
       </c>
       <c r="G83" t="n">
-        <v>3862.483333333333</v>
+        <v>3861.533333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3866</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3331,7 +3437,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3820</v>
+        <v>3866</v>
       </c>
       <c r="C84" t="n">
         <v>3866</v>
@@ -3340,13 +3446,13 @@
         <v>3866</v>
       </c>
       <c r="E84" t="n">
-        <v>3820</v>
+        <v>3866</v>
       </c>
       <c r="F84" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G84" t="n">
-        <v>3863.333333333333</v>
+        <v>3862.483333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3355,14 +3461,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3372,40 +3472,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>3820</v>
+      </c>
+      <c r="C85" t="n">
         <v>3866</v>
       </c>
-      <c r="C85" t="n">
-        <v>3868</v>
-      </c>
       <c r="D85" t="n">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="E85" t="n">
-        <v>3866</v>
+        <v>3820</v>
       </c>
       <c r="F85" t="n">
-        <v>175</v>
+        <v>26.6</v>
       </c>
       <c r="G85" t="n">
-        <v>3864.216666666667</v>
+        <v>3863.333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3866</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3415,7 +3507,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C86" t="n">
         <v>3868</v>
@@ -3424,31 +3516,23 @@
         <v>3868</v>
       </c>
       <c r="E86" t="n">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="F86" t="n">
-        <v>49.2091</v>
+        <v>175</v>
       </c>
       <c r="G86" t="n">
-        <v>3864.7</v>
+        <v>3864.216666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3868</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3458,40 +3542,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3889</v>
+        <v>3867</v>
       </c>
       <c r="C87" t="n">
-        <v>3892</v>
+        <v>3868</v>
       </c>
       <c r="D87" t="n">
-        <v>3892</v>
+        <v>3868</v>
       </c>
       <c r="E87" t="n">
-        <v>3889</v>
+        <v>3867</v>
       </c>
       <c r="F87" t="n">
-        <v>562.5029</v>
+        <v>49.2091</v>
       </c>
       <c r="G87" t="n">
-        <v>3865.583333333333</v>
+        <v>3864.7</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>3868</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3501,40 +3577,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>3889</v>
+      </c>
+      <c r="C88" t="n">
         <v>3892</v>
       </c>
-      <c r="C88" t="n">
-        <v>3962</v>
-      </c>
       <c r="D88" t="n">
-        <v>3962</v>
+        <v>3892</v>
       </c>
       <c r="E88" t="n">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="F88" t="n">
-        <v>2136.7184</v>
+        <v>562.5029</v>
       </c>
       <c r="G88" t="n">
-        <v>3867.683333333333</v>
+        <v>3865.583333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>3892</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3544,40 +3612,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>3892</v>
+      </c>
+      <c r="C89" t="n">
         <v>3962</v>
       </c>
-      <c r="C89" t="n">
-        <v>3963</v>
-      </c>
       <c r="D89" t="n">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E89" t="n">
-        <v>3962</v>
+        <v>3892</v>
       </c>
       <c r="F89" t="n">
-        <v>486</v>
+        <v>2136.7184</v>
       </c>
       <c r="G89" t="n">
-        <v>3869.733333333333</v>
+        <v>3867.683333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>3962</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3590,37 +3650,29 @@
         <v>3962</v>
       </c>
       <c r="C90" t="n">
-        <v>3896</v>
+        <v>3963</v>
       </c>
       <c r="D90" t="n">
+        <v>3963</v>
+      </c>
+      <c r="E90" t="n">
         <v>3962</v>
       </c>
-      <c r="E90" t="n">
-        <v>3896</v>
-      </c>
       <c r="F90" t="n">
-        <v>121.3</v>
+        <v>486</v>
       </c>
       <c r="G90" t="n">
-        <v>3871.333333333333</v>
+        <v>3869.733333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>3963</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3682,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C91" t="n">
-        <v>3969</v>
+        <v>3896</v>
       </c>
       <c r="D91" t="n">
-        <v>3969</v>
+        <v>3962</v>
       </c>
       <c r="E91" t="n">
-        <v>3961</v>
+        <v>3896</v>
       </c>
       <c r="F91" t="n">
-        <v>1068.1496</v>
+        <v>121.3</v>
       </c>
       <c r="G91" t="n">
-        <v>3874.216666666667</v>
+        <v>3871.333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3654,14 +3706,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3717,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>3961</v>
+      </c>
+      <c r="C92" t="n">
         <v>3969</v>
       </c>
-      <c r="C92" t="n">
-        <v>4000</v>
-      </c>
       <c r="D92" t="n">
-        <v>4000</v>
+        <v>3969</v>
       </c>
       <c r="E92" t="n">
-        <v>3969</v>
+        <v>3961</v>
       </c>
       <c r="F92" t="n">
-        <v>3100.4944</v>
+        <v>1068.1496</v>
       </c>
       <c r="G92" t="n">
-        <v>3877.483333333333</v>
+        <v>3874.216666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3695,14 +3741,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3712,22 +3752,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>3969</v>
+      </c>
+      <c r="C93" t="n">
         <v>4000</v>
       </c>
-      <c r="C93" t="n">
-        <v>4003</v>
-      </c>
       <c r="D93" t="n">
-        <v>4041</v>
+        <v>4000</v>
       </c>
       <c r="E93" t="n">
-        <v>3999</v>
+        <v>3969</v>
       </c>
       <c r="F93" t="n">
-        <v>1544.0513</v>
+        <v>3100.4944</v>
       </c>
       <c r="G93" t="n">
-        <v>3879.7</v>
+        <v>3877.483333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3736,14 +3776,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3753,40 +3787,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C94" t="n">
         <v>4003</v>
       </c>
-      <c r="C94" t="n">
-        <v>4060</v>
-      </c>
       <c r="D94" t="n">
-        <v>4062</v>
+        <v>4041</v>
       </c>
       <c r="E94" t="n">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="F94" t="n">
-        <v>571.6998</v>
+        <v>1544.0513</v>
       </c>
       <c r="G94" t="n">
-        <v>3882.916666666667</v>
+        <v>3879.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3843</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>1.051466302367942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3794,22 +3822,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C95" t="n">
         <v>4060</v>
       </c>
-      <c r="C95" t="n">
-        <v>4020</v>
-      </c>
       <c r="D95" t="n">
-        <v>4077</v>
+        <v>4062</v>
       </c>
       <c r="E95" t="n">
-        <v>4015</v>
+        <v>4003</v>
       </c>
       <c r="F95" t="n">
-        <v>2349.1368</v>
+        <v>571.6998</v>
       </c>
       <c r="G95" t="n">
-        <v>3885.55</v>
+        <v>3882.916666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3829,28 +3857,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4021</v>
+        <v>4060</v>
       </c>
       <c r="C96" t="n">
-        <v>4044</v>
+        <v>4020</v>
       </c>
       <c r="D96" t="n">
-        <v>4049</v>
+        <v>4077</v>
       </c>
       <c r="E96" t="n">
-        <v>4021</v>
+        <v>4015</v>
       </c>
       <c r="F96" t="n">
-        <v>146.6389</v>
+        <v>2349.1368</v>
       </c>
       <c r="G96" t="n">
-        <v>3888.45</v>
+        <v>3885.55</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3864,22 +3892,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>4021</v>
+      </c>
+      <c r="C97" t="n">
         <v>4044</v>
       </c>
-      <c r="C97" t="n">
-        <v>4059</v>
-      </c>
       <c r="D97" t="n">
-        <v>4059</v>
+        <v>4049</v>
       </c>
       <c r="E97" t="n">
-        <v>4044</v>
+        <v>4021</v>
       </c>
       <c r="F97" t="n">
-        <v>312.3795</v>
+        <v>146.6389</v>
       </c>
       <c r="G97" t="n">
-        <v>3891.55</v>
+        <v>3888.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3899,22 +3927,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="C98" t="n">
-        <v>4019</v>
+        <v>4059</v>
       </c>
       <c r="D98" t="n">
-        <v>4045</v>
+        <v>4059</v>
       </c>
       <c r="E98" t="n">
-        <v>4019</v>
+        <v>4044</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>312.3795</v>
       </c>
       <c r="G98" t="n">
-        <v>3893.95</v>
+        <v>3891.55</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3934,22 +3962,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4024</v>
+        <v>4045</v>
       </c>
       <c r="C99" t="n">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="D99" t="n">
-        <v>4024</v>
+        <v>4045</v>
       </c>
       <c r="E99" t="n">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="F99" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="G99" t="n">
-        <v>3896.433333333333</v>
+        <v>3893.95</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3969,22 +3997,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="C100" t="n">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="D100" t="n">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="E100" t="n">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F100" t="n">
-        <v>82.3107</v>
+        <v>8.4</v>
       </c>
       <c r="G100" t="n">
-        <v>3898.3</v>
+        <v>3896.433333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4007,19 +4035,19 @@
         <v>4027</v>
       </c>
       <c r="C101" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="D101" t="n">
         <v>4027</v>
       </c>
       <c r="E101" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F101" t="n">
-        <v>40.3411</v>
+        <v>82.3107</v>
       </c>
       <c r="G101" t="n">
-        <v>3900.183333333333</v>
+        <v>3898.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4051,10 +4079,10 @@
         <v>4027</v>
       </c>
       <c r="F102" t="n">
-        <v>964.3812</v>
+        <v>40.3411</v>
       </c>
       <c r="G102" t="n">
-        <v>3902.116666666667</v>
+        <v>3900.183333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4102,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="C103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="D103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="E103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="F103" t="n">
-        <v>474.7361</v>
+        <v>964.3812</v>
       </c>
       <c r="G103" t="n">
-        <v>3904.833333333333</v>
+        <v>3902.116666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4109,22 +4137,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="C104" t="n">
-        <v>4050</v>
+        <v>4026</v>
       </c>
       <c r="D104" t="n">
-        <v>4050</v>
+        <v>4026</v>
       </c>
       <c r="E104" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F104" t="n">
-        <v>193.0085</v>
+        <v>474.7361</v>
       </c>
       <c r="G104" t="n">
-        <v>3908.083333333333</v>
+        <v>3904.833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4147,19 +4175,19 @@
         <v>4027</v>
       </c>
       <c r="C105" t="n">
-        <v>4026</v>
+        <v>4050</v>
       </c>
       <c r="D105" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E105" t="n">
         <v>4027</v>
       </c>
-      <c r="E105" t="n">
-        <v>4026</v>
-      </c>
       <c r="F105" t="n">
-        <v>295.93</v>
+        <v>193.0085</v>
       </c>
       <c r="G105" t="n">
-        <v>3910.883333333333</v>
+        <v>3908.083333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,19 +4210,19 @@
         <v>4027</v>
       </c>
       <c r="C106" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D106" t="n">
         <v>4027</v>
       </c>
-      <c r="D106" t="n">
-        <v>4047</v>
-      </c>
       <c r="E106" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F106" t="n">
-        <v>59.0434</v>
+        <v>295.93</v>
       </c>
       <c r="G106" t="n">
-        <v>3913.7</v>
+        <v>3910.883333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4214,22 +4242,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4046</v>
+        <v>4027</v>
       </c>
       <c r="C107" t="n">
-        <v>4055</v>
+        <v>4027</v>
       </c>
       <c r="D107" t="n">
-        <v>4055</v>
+        <v>4047</v>
       </c>
       <c r="E107" t="n">
-        <v>4046</v>
+        <v>4027</v>
       </c>
       <c r="F107" t="n">
-        <v>39.8736</v>
+        <v>59.0434</v>
       </c>
       <c r="G107" t="n">
-        <v>3916.65</v>
+        <v>3913.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4249,22 +4277,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C108" t="n">
         <v>4055</v>
       </c>
-      <c r="C108" t="n">
-        <v>4060</v>
-      </c>
       <c r="D108" t="n">
-        <v>4060</v>
+        <v>4055</v>
       </c>
       <c r="E108" t="n">
-        <v>4055</v>
+        <v>4046</v>
       </c>
       <c r="F108" t="n">
-        <v>419.4817</v>
+        <v>39.8736</v>
       </c>
       <c r="G108" t="n">
-        <v>3919.916666666667</v>
+        <v>3916.65</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4284,22 +4312,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="C109" t="n">
-        <v>4080</v>
+        <v>4060</v>
       </c>
       <c r="D109" t="n">
-        <v>4080</v>
+        <v>4060</v>
       </c>
       <c r="E109" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="F109" t="n">
-        <v>98.2</v>
+        <v>419.4817</v>
       </c>
       <c r="G109" t="n">
-        <v>3923.266666666667</v>
+        <v>3919.916666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4322,19 +4350,19 @@
         <v>4080</v>
       </c>
       <c r="C110" t="n">
-        <v>4042</v>
+        <v>4080</v>
       </c>
       <c r="D110" t="n">
         <v>4080</v>
       </c>
       <c r="E110" t="n">
-        <v>4036</v>
+        <v>4080</v>
       </c>
       <c r="F110" t="n">
-        <v>539.8313000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G110" t="n">
-        <v>3926.05</v>
+        <v>3923.266666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4354,22 +4382,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4068</v>
+        <v>4080</v>
       </c>
       <c r="C111" t="n">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="D111" t="n">
-        <v>4106</v>
+        <v>4080</v>
       </c>
       <c r="E111" t="n">
-        <v>4047</v>
+        <v>4036</v>
       </c>
       <c r="F111" t="n">
-        <v>768.6543</v>
+        <v>539.8313000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>3928.916666666667</v>
+        <v>3926.05</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4389,22 +4417,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4139</v>
+        <v>4068</v>
       </c>
       <c r="C112" t="n">
-        <v>4100</v>
+        <v>4047</v>
       </c>
       <c r="D112" t="n">
-        <v>4139</v>
+        <v>4106</v>
       </c>
       <c r="E112" t="n">
-        <v>4099</v>
+        <v>4047</v>
       </c>
       <c r="F112" t="n">
-        <v>402.5452</v>
+        <v>768.6543</v>
       </c>
       <c r="G112" t="n">
-        <v>3932.733333333333</v>
+        <v>3928.916666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4419,6 +4447,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4099</v>
+      </c>
+      <c r="F113" t="n">
+        <v>402.5452</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3932.733333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.3807</v>
       </c>
       <c r="G2" t="n">
+        <v>3742.666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>3720.983333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>15.1</v>
       </c>
       <c r="G3" t="n">
+        <v>3745.733333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>3721.9</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3776</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>3776</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,24 +533,29 @@
         <v>125.4541</v>
       </c>
       <c r="G4" t="n">
+        <v>3748.733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>3722.816666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>3775</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,24 +579,29 @@
         <v>80.1079</v>
       </c>
       <c r="G5" t="n">
+        <v>3751.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>3723.933333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
-        <v>3776</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>3775</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,18 +625,25 @@
         <v>2.2297</v>
       </c>
       <c r="G6" t="n">
+        <v>3751.933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>3724.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3776</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,24 +667,29 @@
         <v>1059.7987</v>
       </c>
       <c r="G7" t="n">
+        <v>3750.066666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>3724.15</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>3732</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -680,24 +713,29 @@
         <v>99.0085</v>
       </c>
       <c r="G8" t="n">
+        <v>3752.533333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>3725.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>3701</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,24 +759,29 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
+        <v>3755.6</v>
+      </c>
+      <c r="H9" t="n">
         <v>3726.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>3767</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,24 +805,29 @@
         <v>45.5799</v>
       </c>
       <c r="G10" t="n">
+        <v>3758.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>3727.316666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3776</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,24 +851,29 @@
         <v>68.48</v>
       </c>
       <c r="G11" t="n">
+        <v>3761.2</v>
+      </c>
+      <c r="H11" t="n">
         <v>3728.433333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3777</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -844,22 +897,29 @@
         <v>15.1</v>
       </c>
       <c r="G12" t="n">
+        <v>3764</v>
+      </c>
+      <c r="H12" t="n">
         <v>3730.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3777</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -883,24 +943,29 @@
         <v>296.6735</v>
       </c>
       <c r="G13" t="n">
+        <v>3764.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3731.416666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>3777</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,22 +989,29 @@
         <v>72.8899</v>
       </c>
       <c r="G14" t="n">
+        <v>3765.266666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>3732.75</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3778</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -963,22 +1035,29 @@
         <v>9.5999</v>
       </c>
       <c r="G15" t="n">
+        <v>3765.933333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>3734.083333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3779</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1002,22 +1081,27 @@
         <v>15.1</v>
       </c>
       <c r="G16" t="n">
+        <v>3768.266666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>3735.416666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1041,22 +1125,27 @@
         <v>56.3299</v>
       </c>
       <c r="G17" t="n">
+        <v>3768.466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>3736.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1080,22 +1169,27 @@
         <v>99.4546</v>
       </c>
       <c r="G18" t="n">
+        <v>3768.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>3738.4</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,22 +1213,29 @@
         <v>11.7316</v>
       </c>
       <c r="G19" t="n">
+        <v>3769.733333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>3740.05</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,22 +1259,29 @@
         <v>5.2153</v>
       </c>
       <c r="G20" t="n">
+        <v>3769.066666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>3741.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3789</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1197,22 +1305,29 @@
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
+        <v>3773.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>3742.716666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3766</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,22 +1351,29 @@
         <v>22.9</v>
       </c>
       <c r="G22" t="n">
+        <v>3779.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>3744.333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3794</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1275,22 +1397,27 @@
         <v>59.08</v>
       </c>
       <c r="G23" t="n">
+        <v>3781.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>3745.866666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,22 +1441,27 @@
         <v>348.0656</v>
       </c>
       <c r="G24" t="n">
+        <v>3783.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>3747.6</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,22 +1485,27 @@
         <v>12.6813</v>
       </c>
       <c r="G25" t="n">
+        <v>3786.333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>3749.433333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,22 +1529,27 @@
         <v>0.1</v>
       </c>
       <c r="G26" t="n">
+        <v>3788.866666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>3751.266666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1431,22 +1573,27 @@
         <v>41.3006</v>
       </c>
       <c r="G27" t="n">
+        <v>3793</v>
+      </c>
+      <c r="H27" t="n">
         <v>3753.25</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,22 +1617,27 @@
         <v>0.1</v>
       </c>
       <c r="G28" t="n">
+        <v>3797.066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>3755.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1509,22 +1661,27 @@
         <v>5.9018</v>
       </c>
       <c r="G29" t="n">
+        <v>3800.866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>3756.916666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,22 +1705,27 @@
         <v>0.1</v>
       </c>
       <c r="G30" t="n">
+        <v>3804.933333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>3758.816666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1587,22 +1749,27 @@
         <v>1304.595</v>
       </c>
       <c r="G31" t="n">
+        <v>3806.333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>3760.05</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,22 +1793,27 @@
         <v>871.2791999999999</v>
       </c>
       <c r="G32" t="n">
+        <v>3807.466666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>3761.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1665,22 +1837,29 @@
         <v>7.54</v>
       </c>
       <c r="G33" t="n">
+        <v>3809.066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>3762.483333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,18 +1881,27 @@
         <v>0.1</v>
       </c>
       <c r="G34" t="n">
+        <v>3814.466666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>3764.866666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1737,18 +1925,27 @@
         <v>28.4276</v>
       </c>
       <c r="G35" t="n">
+        <v>3821.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>3767.516666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,18 +1969,27 @@
         <v>30.8</v>
       </c>
       <c r="G36" t="n">
+        <v>3825.733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>3769.783333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1807,18 +2013,27 @@
         <v>11.3</v>
       </c>
       <c r="G37" t="n">
+        <v>3830.6</v>
+      </c>
+      <c r="H37" t="n">
         <v>3772.183333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,18 +2057,27 @@
         <v>349.5172</v>
       </c>
       <c r="G38" t="n">
+        <v>3835.666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>3774.616666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1877,18 +2101,27 @@
         <v>43.8191</v>
       </c>
       <c r="G39" t="n">
+        <v>3840.066666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>3777.083333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,18 +2145,27 @@
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
+        <v>3844.066666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>3779.55</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1947,18 +2189,27 @@
         <v>12.1963</v>
       </c>
       <c r="G41" t="n">
+        <v>3850.666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>3782.666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1982,18 +2233,27 @@
         <v>0.1</v>
       </c>
       <c r="G42" t="n">
+        <v>3855.666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>3785.766666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2017,18 +2277,27 @@
         <v>211.1705</v>
       </c>
       <c r="G43" t="n">
+        <v>3860.466666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>3788.816666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,18 +2321,27 @@
         <v>0.2895</v>
       </c>
       <c r="G44" t="n">
+        <v>3862.266666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>3791.066666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2087,18 +2365,27 @@
         <v>82</v>
       </c>
       <c r="G45" t="n">
+        <v>3863.266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>3793.166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,18 +2409,27 @@
         <v>12.3136</v>
       </c>
       <c r="G46" t="n">
+        <v>3867.133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>3795.316666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2157,18 +2453,27 @@
         <v>17.0029</v>
       </c>
       <c r="G47" t="n">
+        <v>3871.266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>3797.466666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2192,18 +2497,27 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
+        <v>3876.2</v>
+      </c>
+      <c r="H48" t="n">
         <v>3799.95</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2227,18 +2541,27 @@
         <v>39.487</v>
       </c>
       <c r="G49" t="n">
+        <v>3875.8</v>
+      </c>
+      <c r="H49" t="n">
         <v>3802.183333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,18 +2585,27 @@
         <v>590.2285000000001</v>
       </c>
       <c r="G50" t="n">
+        <v>3876.6</v>
+      </c>
+      <c r="H50" t="n">
         <v>3804.666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2297,18 +2629,27 @@
         <v>77.56999999999999</v>
       </c>
       <c r="G51" t="n">
+        <v>3877.466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>3807.083333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,18 +2673,27 @@
         <v>168.8159</v>
       </c>
       <c r="G52" t="n">
+        <v>3877.8</v>
+      </c>
+      <c r="H52" t="n">
         <v>3809.516666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,18 +2717,27 @@
         <v>10.92</v>
       </c>
       <c r="G53" t="n">
+        <v>3877.666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>3811.866666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2402,18 +2761,27 @@
         <v>77.92</v>
       </c>
       <c r="G54" t="n">
+        <v>3877.266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>3814.183333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,18 +2805,27 @@
         <v>8.1906</v>
       </c>
       <c r="G55" t="n">
+        <v>3877.066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>3816.466666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,18 +2849,27 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
+        <v>3874.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>3818.883333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2507,18 +2893,27 @@
         <v>4.31522432</v>
       </c>
       <c r="G57" t="n">
+        <v>3874.2</v>
+      </c>
+      <c r="H57" t="n">
         <v>3821.716666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2542,18 +2937,27 @@
         <v>58.3106</v>
       </c>
       <c r="G58" t="n">
+        <v>3871.733333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>3823.466666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2577,18 +2981,27 @@
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
+        <v>3874.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>3825.8</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,18 +3025,27 @@
         <v>0.8094</v>
       </c>
       <c r="G60" t="n">
+        <v>3876</v>
+      </c>
+      <c r="H60" t="n">
         <v>3827.533333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2647,18 +3069,27 @@
         <v>111.6502</v>
       </c>
       <c r="G61" t="n">
+        <v>3875.666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>3829.35</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,18 +3113,27 @@
         <v>5.37</v>
       </c>
       <c r="G62" t="n">
+        <v>3875.266666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>3830.616666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,18 +3157,27 @@
         <v>4</v>
       </c>
       <c r="G63" t="n">
+        <v>3877</v>
+      </c>
+      <c r="H63" t="n">
         <v>3832.766666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,18 +3201,27 @@
         <v>4.00206026</v>
       </c>
       <c r="G64" t="n">
+        <v>3878.266666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>3834.566666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2787,18 +3245,27 @@
         <v>4</v>
       </c>
       <c r="G65" t="n">
+        <v>3879.466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>3836.583333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,18 +3289,27 @@
         <v>4.00102722</v>
       </c>
       <c r="G66" t="n">
+        <v>3880.733333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>3839.283333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2857,18 +3333,27 @@
         <v>87.3219</v>
       </c>
       <c r="G67" t="n">
+        <v>3880.133333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>3842.033333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,18 +3377,27 @@
         <v>167.2461</v>
       </c>
       <c r="G68" t="n">
+        <v>3879.8</v>
+      </c>
+      <c r="H68" t="n">
         <v>3843.683333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2927,18 +3421,27 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
+        <v>3879.466666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>3845.15</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,18 +3465,27 @@
         <v>54.7068</v>
       </c>
       <c r="G70" t="n">
+        <v>3877.533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>3846.25</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,18 +3509,27 @@
         <v>39.2052</v>
       </c>
       <c r="G71" t="n">
+        <v>3875.066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>3847.35</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3032,18 +3553,27 @@
         <v>2.5377</v>
       </c>
       <c r="G72" t="n">
+        <v>3871.066666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>3848.483333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3067,18 +3597,27 @@
         <v>4</v>
       </c>
       <c r="G73" t="n">
+        <v>3870.466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>3849.933333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,18 +3641,27 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>3867.533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>3851.366666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3137,18 +3685,27 @@
         <v>22.5925</v>
       </c>
       <c r="G75" t="n">
+        <v>3865.666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>3852.466666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,18 +3729,27 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
+        <v>3866.333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>3853.866666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,18 +3773,27 @@
         <v>40</v>
       </c>
       <c r="G77" t="n">
+        <v>3867.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>3855.3</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,18 +3817,27 @@
         <v>64.09999999999999</v>
       </c>
       <c r="G78" t="n">
+        <v>3863.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>3856.366666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3277,18 +3861,27 @@
         <v>10.7505</v>
       </c>
       <c r="G79" t="n">
+        <v>3860.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>3857.283333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,18 +3905,27 @@
         <v>95.9639</v>
       </c>
       <c r="G80" t="n">
+        <v>3857</v>
+      </c>
+      <c r="H80" t="n">
         <v>3858.566666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,18 +3949,27 @@
         <v>8.011200000000001</v>
       </c>
       <c r="G81" t="n">
+        <v>3853.6</v>
+      </c>
+      <c r="H81" t="n">
         <v>3859.383333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,18 +3993,27 @@
         <v>69.756</v>
       </c>
       <c r="G82" t="n">
+        <v>3853</v>
+      </c>
+      <c r="H82" t="n">
         <v>3860.383333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3417,18 +4037,27 @@
         <v>42.1</v>
       </c>
       <c r="G83" t="n">
+        <v>3853</v>
+      </c>
+      <c r="H83" t="n">
         <v>3861.533333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,18 +4081,27 @@
         <v>21</v>
       </c>
       <c r="G84" t="n">
+        <v>3853.133333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>3862.483333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,18 +4125,27 @@
         <v>26.6</v>
       </c>
       <c r="G85" t="n">
+        <v>3854.666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>3863.333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,18 +4169,27 @@
         <v>175</v>
       </c>
       <c r="G86" t="n">
+        <v>3856.333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>3864.216666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,18 +4213,27 @@
         <v>49.2091</v>
       </c>
       <c r="G87" t="n">
+        <v>3857.866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>3864.7</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,18 +4257,27 @@
         <v>562.5029</v>
       </c>
       <c r="G88" t="n">
+        <v>3859.666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>3865.583333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,18 +4301,27 @@
         <v>2136.7184</v>
       </c>
       <c r="G89" t="n">
+        <v>3866.133333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>3867.683333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,18 +4345,27 @@
         <v>486</v>
       </c>
       <c r="G90" t="n">
+        <v>3874</v>
+      </c>
+      <c r="H90" t="n">
         <v>3869.733333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,18 +4389,27 @@
         <v>121.3</v>
       </c>
       <c r="G91" t="n">
+        <v>3876.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>3871.333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,18 +4433,27 @@
         <v>1068.1496</v>
       </c>
       <c r="G92" t="n">
+        <v>3883.133333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>3874.216666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,18 +4477,27 @@
         <v>3100.4944</v>
       </c>
       <c r="G93" t="n">
+        <v>3893.533333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>3877.483333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,18 +4521,27 @@
         <v>1544.0513</v>
       </c>
       <c r="G94" t="n">
+        <v>3904.133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>3879.7</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3837,18 +4565,27 @@
         <v>571.6998</v>
       </c>
       <c r="G95" t="n">
+        <v>3918.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>3882.916666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,18 +4609,27 @@
         <v>2349.1368</v>
       </c>
       <c r="G96" t="n">
+        <v>3930.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>3885.55</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,18 +4653,27 @@
         <v>146.6389</v>
       </c>
       <c r="G97" t="n">
+        <v>3942.866666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>3888.45</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,18 +4697,27 @@
         <v>312.3795</v>
       </c>
       <c r="G98" t="n">
+        <v>3955.733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>3891.55</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,18 +4741,27 @@
         <v>15</v>
       </c>
       <c r="G99" t="n">
+        <v>3965.933333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>3893.95</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,18 +4785,27 @@
         <v>8.4</v>
       </c>
       <c r="G100" t="n">
+        <v>3976.466666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>3896.433333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,18 +4829,27 @@
         <v>82.3107</v>
       </c>
       <c r="G101" t="n">
+        <v>3987</v>
+      </c>
+      <c r="H101" t="n">
         <v>3898.3</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,18 +4873,27 @@
         <v>40.3411</v>
       </c>
       <c r="G102" t="n">
+        <v>3997.6</v>
+      </c>
+      <c r="H102" t="n">
         <v>3900.183333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,18 +4917,27 @@
         <v>964.3812</v>
       </c>
       <c r="G103" t="n">
+        <v>4006.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>3902.116666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,18 +4961,27 @@
         <v>474.7361</v>
       </c>
       <c r="G104" t="n">
+        <v>4010.866666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>3904.833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,18 +5005,27 @@
         <v>193.0085</v>
       </c>
       <c r="G105" t="n">
+        <v>4016.666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>3908.083333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,18 +5049,27 @@
         <v>295.93</v>
       </c>
       <c r="G106" t="n">
+        <v>4025.333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>3910.883333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4257,18 +5093,27 @@
         <v>59.0434</v>
       </c>
       <c r="G107" t="n">
+        <v>4029.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>3913.7</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,18 +5137,27 @@
         <v>39.8736</v>
       </c>
       <c r="G108" t="n">
+        <v>4032.866666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>3916.65</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,18 +5181,27 @@
         <v>419.4817</v>
       </c>
       <c r="G109" t="n">
+        <v>4036.666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>3919.916666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,18 +5225,27 @@
         <v>98.2</v>
       </c>
       <c r="G110" t="n">
+        <v>4038</v>
+      </c>
+      <c r="H110" t="n">
         <v>3923.266666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,18 +5269,27 @@
         <v>539.8313000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>4039.466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>3926.05</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,18 +5313,27 @@
         <v>768.6543</v>
       </c>
       <c r="G112" t="n">
+        <v>4039.666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>3928.916666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,18 +5357,425 @@
         <v>402.5452</v>
       </c>
       <c r="G113" t="n">
+        <v>4042.4</v>
+      </c>
+      <c r="H113" t="n">
         <v>3932.733333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4099</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4092</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4092</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11.0347</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4047.266666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3936.45</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4070</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4091</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4091</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4070</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13.8828</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4051.733333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3940.1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4091</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4140</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4091</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1576.8927</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4059.333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3944.433333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>3776</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1.091398305084746</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4141</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F117" t="n">
+        <v>186.9135</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4066.933333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3948.366666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4159</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4159</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4101</v>
+      </c>
+      <c r="F118" t="n">
+        <v>57.5134</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4075.733333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3953.116666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4159</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4168</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1047.7342</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4085.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3957.433333333333</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4173</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4181</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4123</v>
+      </c>
+      <c r="F120" t="n">
+        <v>499.6397</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4093.933333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3962.566666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4181</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4176</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4139</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1483.0744</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4103.933333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3967.95</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4179</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4185</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4179</v>
+      </c>
+      <c r="F122" t="n">
+        <v>13.3215</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4114.466666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3973.5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4182</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4184</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4182</v>
+      </c>
+      <c r="F123" t="n">
+        <v>228.3784</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4123.066666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3978.166666666667</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="C2" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="D2" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="E2" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3807</v>
+        <v>11.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3742.666666666667</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="H2" t="n">
-        <v>3720.983333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3775</v>
+        <v>3727</v>
       </c>
       <c r="C3" t="n">
-        <v>3775</v>
+        <v>3727</v>
       </c>
       <c r="D3" t="n">
-        <v>3775</v>
+        <v>3727</v>
       </c>
       <c r="E3" t="n">
-        <v>3775</v>
+        <v>3727</v>
       </c>
       <c r="F3" t="n">
         <v>15.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3745.733333333333</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="H3" t="n">
-        <v>3721.9</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K3" t="n">
-        <v>3776</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>3727</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3775</v>
+        <v>3708</v>
       </c>
       <c r="C4" t="n">
-        <v>3775</v>
+        <v>3708</v>
       </c>
       <c r="D4" t="n">
-        <v>3775</v>
+        <v>3708</v>
       </c>
       <c r="E4" t="n">
-        <v>3775</v>
+        <v>3708</v>
       </c>
       <c r="F4" t="n">
-        <v>125.4541</v>
+        <v>31.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3748.733333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>3722.816666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K4" t="n">
-        <v>3775</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>3727</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3776</v>
+        <v>3726</v>
       </c>
       <c r="C5" t="n">
-        <v>3776</v>
+        <v>3726</v>
       </c>
       <c r="D5" t="n">
-        <v>3776</v>
+        <v>3726</v>
       </c>
       <c r="E5" t="n">
-        <v>3776</v>
+        <v>3726</v>
       </c>
       <c r="F5" t="n">
-        <v>80.1079</v>
+        <v>8.9</v>
       </c>
       <c r="G5" t="n">
-        <v>3751.8</v>
+        <v>12.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3723.933333333333</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3708</v>
       </c>
       <c r="K5" t="n">
-        <v>3775</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>3727</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="C6" t="n">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="D6" t="n">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="E6" t="n">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2297</v>
+        <v>22.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3751.933333333333</v>
+        <v>-5</v>
       </c>
       <c r="H6" t="n">
-        <v>3724.3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3726</v>
       </c>
       <c r="K6" t="n">
-        <v>3776</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3747</v>
+        <v>3727</v>
       </c>
       <c r="C7" t="n">
-        <v>3701</v>
+        <v>3727</v>
       </c>
       <c r="D7" t="n">
-        <v>3747</v>
+        <v>3727</v>
       </c>
       <c r="E7" t="n">
-        <v>3701</v>
+        <v>3727</v>
       </c>
       <c r="F7" t="n">
-        <v>1059.7987</v>
+        <v>25.0611</v>
       </c>
       <c r="G7" t="n">
-        <v>3750.066666666667</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3724.15</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3726</v>
       </c>
       <c r="K7" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,44 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3771</v>
+        <v>3709</v>
       </c>
       <c r="C8" t="n">
-        <v>3767</v>
+        <v>3727</v>
       </c>
       <c r="D8" t="n">
-        <v>3771</v>
+        <v>3727</v>
       </c>
       <c r="E8" t="n">
-        <v>3767</v>
+        <v>3709</v>
       </c>
       <c r="F8" t="n">
-        <v>99.0085</v>
+        <v>22.5858</v>
       </c>
       <c r="G8" t="n">
-        <v>3752.533333333333</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="H8" t="n">
-        <v>3725.1</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K8" t="n">
-        <v>3701</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,44 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="C9" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="D9" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="E9" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>59.87</v>
       </c>
       <c r="G9" t="n">
-        <v>3755.6</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="H9" t="n">
-        <v>3726.2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K9" t="n">
-        <v>3767</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,44 +761,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="C10" t="n">
-        <v>3777</v>
+        <v>3727</v>
       </c>
       <c r="D10" t="n">
-        <v>3777</v>
+        <v>3727</v>
       </c>
       <c r="E10" t="n">
-        <v>3776</v>
+        <v>3727</v>
       </c>
       <c r="F10" t="n">
-        <v>45.5799</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>3758.4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3727.316666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K10" t="n">
-        <v>3776</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,44 +804,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3777</v>
+        <v>3727</v>
       </c>
       <c r="C11" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="D11" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="E11" t="n">
-        <v>3777</v>
+        <v>3727</v>
       </c>
       <c r="F11" t="n">
-        <v>68.48</v>
+        <v>377.4651</v>
       </c>
       <c r="G11" t="n">
-        <v>3761.2</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="H11" t="n">
-        <v>3728.433333333333</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="K11" t="n">
-        <v>3777</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -882,44 +847,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="C12" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="D12" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="E12" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="F12" t="n">
-        <v>15.1</v>
+        <v>47.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3764</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="H12" t="n">
-        <v>3730.1</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3728</v>
       </c>
       <c r="K12" t="n">
-        <v>3777</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -928,44 +890,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="C13" t="n">
-        <v>3778</v>
+        <v>3728</v>
       </c>
       <c r="D13" t="n">
-        <v>3778</v>
+        <v>3728</v>
       </c>
       <c r="E13" t="n">
-        <v>3777</v>
+        <v>3728</v>
       </c>
       <c r="F13" t="n">
-        <v>296.6735</v>
+        <v>60.36</v>
       </c>
       <c r="G13" t="n">
-        <v>3764.6</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>3731.416666666667</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3728</v>
       </c>
       <c r="K13" t="n">
-        <v>3777</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -974,44 +933,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3778</v>
+        <v>3728</v>
       </c>
       <c r="C14" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="D14" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="E14" t="n">
-        <v>3778</v>
+        <v>3728</v>
       </c>
       <c r="F14" t="n">
-        <v>72.8899</v>
+        <v>157.6982</v>
       </c>
       <c r="G14" t="n">
-        <v>3765.266666666667</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>3732.75</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3728</v>
       </c>
       <c r="K14" t="n">
-        <v>3778</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1020,44 +976,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="C15" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="D15" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="E15" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="F15" t="n">
-        <v>9.5999</v>
+        <v>1173.2699</v>
       </c>
       <c r="G15" t="n">
-        <v>3765.933333333333</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>3734.083333333333</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3729</v>
       </c>
       <c r="K15" t="n">
-        <v>3779</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,42 +1019,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="C16" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="D16" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="E16" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="F16" t="n">
-        <v>15.1</v>
+        <v>150.73</v>
       </c>
       <c r="G16" t="n">
-        <v>3768.266666666667</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>3735.416666666667</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>3729</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1110,42 +1062,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="C17" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="D17" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="E17" t="n">
-        <v>3779</v>
+        <v>3729</v>
       </c>
       <c r="F17" t="n">
-        <v>56.3299</v>
+        <v>99.2403</v>
       </c>
       <c r="G17" t="n">
-        <v>3768.466666666667</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>3736.9</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>3729</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,42 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3779</v>
+        <v>3725</v>
       </c>
       <c r="C18" t="n">
-        <v>3780</v>
+        <v>3730</v>
       </c>
       <c r="D18" t="n">
-        <v>3780</v>
+        <v>3730</v>
       </c>
       <c r="E18" t="n">
-        <v>3779</v>
+        <v>3725</v>
       </c>
       <c r="F18" t="n">
-        <v>99.4546</v>
+        <v>139.7129</v>
       </c>
       <c r="G18" t="n">
-        <v>3768.8</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>3738.4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>3729</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3726</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,45 +1148,42 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3789</v>
+        <v>3729</v>
       </c>
       <c r="C19" t="n">
-        <v>3789</v>
+        <v>3730</v>
       </c>
       <c r="D19" t="n">
-        <v>3789</v>
+        <v>3730</v>
       </c>
       <c r="E19" t="n">
-        <v>3789</v>
+        <v>3729</v>
       </c>
       <c r="F19" t="n">
-        <v>11.7316</v>
+        <v>57.65</v>
       </c>
       <c r="G19" t="n">
-        <v>3769.733333333333</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>3740.05</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="K19" t="n">
-        <v>3780</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
+        <v>3726</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9960735373054214</v>
       </c>
     </row>
     <row r="20">
@@ -1244,44 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3766</v>
+        <v>3729</v>
       </c>
       <c r="C20" t="n">
-        <v>3766</v>
+        <v>3730</v>
       </c>
       <c r="D20" t="n">
-        <v>3766</v>
+        <v>3730</v>
       </c>
       <c r="E20" t="n">
-        <v>3766</v>
+        <v>3729</v>
       </c>
       <c r="F20" t="n">
-        <v>5.2153</v>
+        <v>60.11</v>
       </c>
       <c r="G20" t="n">
-        <v>3769.066666666667</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>3741.15</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="K20" t="n">
-        <v>3789</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,44 +1234,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3794</v>
+        <v>3729</v>
       </c>
       <c r="C21" t="n">
-        <v>3794</v>
+        <v>3729</v>
       </c>
       <c r="D21" t="n">
-        <v>3794</v>
+        <v>3729</v>
       </c>
       <c r="E21" t="n">
-        <v>3794</v>
+        <v>3729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>59.25</v>
       </c>
       <c r="G21" t="n">
-        <v>3773.2</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>3742.716666666667</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="K21" t="n">
-        <v>3766</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,44 +1277,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3794</v>
+        <v>3730</v>
       </c>
       <c r="C22" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="D22" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="E22" t="n">
-        <v>3794</v>
+        <v>3730</v>
       </c>
       <c r="F22" t="n">
-        <v>22.9</v>
+        <v>61.0143</v>
       </c>
       <c r="G22" t="n">
-        <v>3779.6</v>
+        <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>3744.333333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3729</v>
       </c>
       <c r="K22" t="n">
-        <v>3794</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,42 +1320,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="C23" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="D23" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="E23" t="n">
-        <v>3797</v>
+        <v>3730</v>
       </c>
       <c r="F23" t="n">
-        <v>59.08</v>
+        <v>494.1718</v>
       </c>
       <c r="G23" t="n">
-        <v>3781.6</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>3745.866666666667</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>3730</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,42 +1363,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3797</v>
+        <v>3735</v>
       </c>
       <c r="C24" t="n">
-        <v>3809</v>
+        <v>3735</v>
       </c>
       <c r="D24" t="n">
-        <v>3809</v>
+        <v>3735</v>
       </c>
       <c r="E24" t="n">
-        <v>3797</v>
+        <v>3735</v>
       </c>
       <c r="F24" t="n">
-        <v>348.0656</v>
+        <v>11.93</v>
       </c>
       <c r="G24" t="n">
-        <v>3783.8</v>
+        <v>75</v>
       </c>
       <c r="H24" t="n">
-        <v>3747.6</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>3730</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,42 +1406,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3809</v>
+        <v>3735</v>
       </c>
       <c r="C25" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="D25" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="E25" t="n">
-        <v>3809</v>
+        <v>3735</v>
       </c>
       <c r="F25" t="n">
-        <v>12.6813</v>
+        <v>88.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3786.333333333333</v>
+        <v>75</v>
       </c>
       <c r="H25" t="n">
-        <v>3749.433333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>3735</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,42 +1449,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="C26" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="D26" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="E26" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>87.1598</v>
       </c>
       <c r="G26" t="n">
-        <v>3788.866666666667</v>
+        <v>75</v>
       </c>
       <c r="H26" t="n">
-        <v>3751.266666666667</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>3735</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,42 +1492,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="C27" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="D27" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="E27" t="n">
-        <v>3815</v>
+        <v>3735</v>
       </c>
       <c r="F27" t="n">
-        <v>41.3006</v>
+        <v>28.54</v>
       </c>
       <c r="G27" t="n">
-        <v>3793</v>
+        <v>95.1219512195122</v>
       </c>
       <c r="H27" t="n">
-        <v>3753.25</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>3735</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,42 +1535,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="C28" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="D28" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="E28" t="n">
-        <v>3839</v>
+        <v>3769</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>117.7079</v>
       </c>
       <c r="G28" t="n">
-        <v>3797.066666666667</v>
+        <v>95.1219512195122</v>
       </c>
       <c r="H28" t="n">
-        <v>3755.1</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>3769</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1646,42 +1578,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3801</v>
+        <v>3769</v>
       </c>
       <c r="C29" t="n">
-        <v>3836</v>
+        <v>3769</v>
       </c>
       <c r="D29" t="n">
-        <v>3836</v>
+        <v>3769</v>
       </c>
       <c r="E29" t="n">
-        <v>3801</v>
+        <v>3769</v>
       </c>
       <c r="F29" t="n">
-        <v>5.9018</v>
+        <v>45.9799</v>
       </c>
       <c r="G29" t="n">
-        <v>3800.866666666667</v>
+        <v>95.1219512195122</v>
       </c>
       <c r="H29" t="n">
-        <v>3756.916666666667</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>3769</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,42 +1621,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3840</v>
+        <v>3744</v>
       </c>
       <c r="C30" t="n">
-        <v>3840</v>
+        <v>3744</v>
       </c>
       <c r="D30" t="n">
-        <v>3840</v>
+        <v>3744</v>
       </c>
       <c r="E30" t="n">
-        <v>3840</v>
+        <v>3744</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>0.3668</v>
       </c>
       <c r="G30" t="n">
-        <v>3804.933333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H30" t="n">
-        <v>3758.816666666667</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>3769</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,43 +1664,42 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3840</v>
+        <v>3776</v>
       </c>
       <c r="C31" t="n">
-        <v>3800</v>
+        <v>3776</v>
       </c>
       <c r="D31" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="E31" t="n">
-        <v>3768</v>
+        <v>3776</v>
       </c>
       <c r="F31" t="n">
-        <v>1304.595</v>
+        <v>0.3807</v>
       </c>
       <c r="G31" t="n">
-        <v>3806.333333333333</v>
+        <v>47.91666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>3760.05</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
+        <v>3744</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3729</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1.007603915258783</v>
       </c>
     </row>
     <row r="32">
@@ -1778,42 +1707,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3870</v>
+        <v>3775</v>
       </c>
       <c r="C32" t="n">
-        <v>3796</v>
+        <v>3775</v>
       </c>
       <c r="D32" t="n">
-        <v>3870</v>
+        <v>3775</v>
       </c>
       <c r="E32" t="n">
-        <v>3796</v>
+        <v>3775</v>
       </c>
       <c r="F32" t="n">
-        <v>871.2791999999999</v>
+        <v>15.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3807.466666666667</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="H32" t="n">
-        <v>3761.2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
         <v>3776</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="K32" t="n">
+        <v>3744</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,42 +1750,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3804</v>
+        <v>3775</v>
       </c>
       <c r="C33" t="n">
-        <v>3804</v>
+        <v>3775</v>
       </c>
       <c r="D33" t="n">
-        <v>3804</v>
+        <v>3775</v>
       </c>
       <c r="E33" t="n">
-        <v>3804</v>
+        <v>3775</v>
       </c>
       <c r="F33" t="n">
-        <v>7.54</v>
+        <v>125.4541</v>
       </c>
       <c r="G33" t="n">
-        <v>3809.066666666667</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="H33" t="n">
-        <v>3762.483333333333</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>3775</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3744</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,42 +1793,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="C34" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="D34" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="E34" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>80.1079</v>
       </c>
       <c r="G34" t="n">
-        <v>3814.466666666667</v>
+        <v>44.08602150537634</v>
       </c>
       <c r="H34" t="n">
-        <v>3764.866666666667</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>3775</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,42 +1832,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3867</v>
+        <v>3732</v>
       </c>
       <c r="C35" t="n">
-        <v>3867</v>
+        <v>3732</v>
       </c>
       <c r="D35" t="n">
-        <v>3867</v>
+        <v>3732</v>
       </c>
       <c r="E35" t="n">
-        <v>3867</v>
+        <v>3732</v>
       </c>
       <c r="F35" t="n">
-        <v>28.4276</v>
+        <v>2.2297</v>
       </c>
       <c r="G35" t="n">
-        <v>3821.2</v>
+        <v>-2.18978102189781</v>
       </c>
       <c r="H35" t="n">
-        <v>3767.516666666667</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
         <v>3776</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="K35" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,42 +1875,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3862</v>
+        <v>3747</v>
       </c>
       <c r="C36" t="n">
-        <v>3862</v>
+        <v>3701</v>
       </c>
       <c r="D36" t="n">
-        <v>3862</v>
+        <v>3747</v>
       </c>
       <c r="E36" t="n">
-        <v>3862</v>
+        <v>3701</v>
       </c>
       <c r="F36" t="n">
-        <v>30.8</v>
+        <v>1059.7987</v>
       </c>
       <c r="G36" t="n">
-        <v>3825.733333333333</v>
+        <v>-50.74626865671642</v>
       </c>
       <c r="H36" t="n">
-        <v>3769.783333333333</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>3732</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,42 +1918,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3862</v>
+        <v>3771</v>
       </c>
       <c r="C37" t="n">
-        <v>3870</v>
+        <v>3767</v>
       </c>
       <c r="D37" t="n">
-        <v>3870</v>
+        <v>3771</v>
       </c>
       <c r="E37" t="n">
-        <v>3862</v>
+        <v>3767</v>
       </c>
       <c r="F37" t="n">
-        <v>11.3</v>
+        <v>99.0085</v>
       </c>
       <c r="G37" t="n">
-        <v>3830.6</v>
+        <v>-1</v>
       </c>
       <c r="H37" t="n">
-        <v>3772.183333333333</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>3701</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,42 +1961,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="C38" t="n">
-        <v>3873</v>
+        <v>3776</v>
       </c>
       <c r="D38" t="n">
-        <v>3873</v>
+        <v>3776</v>
       </c>
       <c r="E38" t="n">
-        <v>3870</v>
+        <v>3776</v>
       </c>
       <c r="F38" t="n">
-        <v>349.5172</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>3835.666666666667</v>
+        <v>3.349282296650718</v>
       </c>
       <c r="H38" t="n">
-        <v>3774.616666666667</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>3767</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,42 +2004,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3873</v>
+        <v>3776</v>
       </c>
       <c r="C39" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="D39" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="E39" t="n">
-        <v>3873</v>
+        <v>3776</v>
       </c>
       <c r="F39" t="n">
-        <v>43.8191</v>
+        <v>45.5799</v>
       </c>
       <c r="G39" t="n">
-        <v>3840.066666666667</v>
+        <v>17.83783783783784</v>
       </c>
       <c r="H39" t="n">
-        <v>3777.083333333333</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
         <v>3776</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="K39" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,42 +2047,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="C40" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="D40" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="E40" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>68.48</v>
       </c>
       <c r="G40" t="n">
-        <v>3844.066666666667</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="H40" t="n">
-        <v>3779.55</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,42 +2090,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="C41" t="n">
-        <v>3914</v>
+        <v>3777</v>
       </c>
       <c r="D41" t="n">
-        <v>3914</v>
+        <v>3777</v>
       </c>
       <c r="E41" t="n">
-        <v>3875</v>
+        <v>3777</v>
       </c>
       <c r="F41" t="n">
-        <v>12.1963</v>
+        <v>15.1</v>
       </c>
       <c r="G41" t="n">
-        <v>3850.666666666667</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="H41" t="n">
-        <v>3782.666666666667</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,42 +2133,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3914</v>
+        <v>3777</v>
       </c>
       <c r="C42" t="n">
-        <v>3914</v>
+        <v>3778</v>
       </c>
       <c r="D42" t="n">
-        <v>3914</v>
+        <v>3778</v>
       </c>
       <c r="E42" t="n">
-        <v>3914</v>
+        <v>3777</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>296.6735</v>
       </c>
       <c r="G42" t="n">
-        <v>3855.666666666667</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="H42" t="n">
-        <v>3785.766666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,42 +2176,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3861</v>
+        <v>3778</v>
       </c>
       <c r="C43" t="n">
-        <v>3911</v>
+        <v>3779</v>
       </c>
       <c r="D43" t="n">
-        <v>3911</v>
+        <v>3779</v>
       </c>
       <c r="E43" t="n">
-        <v>3861</v>
+        <v>3778</v>
       </c>
       <c r="F43" t="n">
-        <v>211.1705</v>
+        <v>72.8899</v>
       </c>
       <c r="G43" t="n">
-        <v>3860.466666666667</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="H43" t="n">
-        <v>3788.816666666667</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>3778</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,42 +2219,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3863</v>
+        <v>3779</v>
       </c>
       <c r="C44" t="n">
-        <v>3863</v>
+        <v>3779</v>
       </c>
       <c r="D44" t="n">
-        <v>3863</v>
+        <v>3779</v>
       </c>
       <c r="E44" t="n">
-        <v>3863</v>
+        <v>3779</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2895</v>
+        <v>9.5999</v>
       </c>
       <c r="G44" t="n">
-        <v>3862.266666666667</v>
+        <v>43.11926605504588</v>
       </c>
       <c r="H44" t="n">
-        <v>3791.066666666667</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>3779</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,42 +2262,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3856</v>
+        <v>3779</v>
       </c>
       <c r="C45" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="D45" t="n">
-        <v>3856</v>
+        <v>3779</v>
       </c>
       <c r="E45" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="F45" t="n">
-        <v>82</v>
+        <v>15.1</v>
       </c>
       <c r="G45" t="n">
-        <v>3863.266666666667</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>3793.166666666667</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>3779</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,42 +2305,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3858</v>
+        <v>3779</v>
       </c>
       <c r="C46" t="n">
-        <v>3858</v>
+        <v>3779</v>
       </c>
       <c r="D46" t="n">
-        <v>3858</v>
+        <v>3779</v>
       </c>
       <c r="E46" t="n">
-        <v>3858</v>
+        <v>3779</v>
       </c>
       <c r="F46" t="n">
-        <v>12.3136</v>
+        <v>56.3299</v>
       </c>
       <c r="G46" t="n">
-        <v>3867.133333333333</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>3795.316666666667</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>3779</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,43 +2348,42 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3858</v>
+        <v>3779</v>
       </c>
       <c r="C47" t="n">
-        <v>3858</v>
+        <v>3780</v>
       </c>
       <c r="D47" t="n">
-        <v>3858</v>
+        <v>3780</v>
       </c>
       <c r="E47" t="n">
-        <v>3857</v>
+        <v>3779</v>
       </c>
       <c r="F47" t="n">
-        <v>17.0029</v>
+        <v>99.4546</v>
       </c>
       <c r="G47" t="n">
-        <v>3871.266666666667</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>3797.466666666667</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
+        <v>3779</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3775</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9963245033112583</v>
       </c>
     </row>
     <row r="48">
@@ -2482,42 +2391,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3878</v>
+        <v>3789</v>
       </c>
       <c r="C48" t="n">
-        <v>3878</v>
+        <v>3789</v>
       </c>
       <c r="D48" t="n">
-        <v>3878</v>
+        <v>3789</v>
       </c>
       <c r="E48" t="n">
-        <v>3878</v>
+        <v>3789</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>11.7316</v>
       </c>
       <c r="G48" t="n">
-        <v>3876.2</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>3799.95</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>3780</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,42 +2430,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3863</v>
+        <v>3766</v>
       </c>
       <c r="C49" t="n">
-        <v>3864</v>
+        <v>3766</v>
       </c>
       <c r="D49" t="n">
-        <v>3864</v>
+        <v>3766</v>
       </c>
       <c r="E49" t="n">
-        <v>3863</v>
+        <v>3766</v>
       </c>
       <c r="F49" t="n">
-        <v>39.487</v>
+        <v>5.2153</v>
       </c>
       <c r="G49" t="n">
-        <v>3875.8</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>3802.183333333333</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>3789</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,42 +2473,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3830</v>
+        <v>3794</v>
       </c>
       <c r="C50" t="n">
-        <v>3879</v>
+        <v>3794</v>
       </c>
       <c r="D50" t="n">
-        <v>3879</v>
+        <v>3794</v>
       </c>
       <c r="E50" t="n">
-        <v>3827</v>
+        <v>3794</v>
       </c>
       <c r="F50" t="n">
-        <v>590.2285000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>3876.6</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="H50" t="n">
-        <v>3804.666666666667</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>3766</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,42 +2516,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3875</v>
+        <v>3794</v>
       </c>
       <c r="C51" t="n">
-        <v>3875</v>
+        <v>3797</v>
       </c>
       <c r="D51" t="n">
-        <v>3875</v>
+        <v>3797</v>
       </c>
       <c r="E51" t="n">
-        <v>3875</v>
+        <v>3794</v>
       </c>
       <c r="F51" t="n">
-        <v>77.56999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="G51" t="n">
-        <v>3877.466666666667</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="H51" t="n">
-        <v>3807.083333333333</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>3794</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,42 +2559,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3844</v>
+        <v>3797</v>
       </c>
       <c r="C52" t="n">
-        <v>3875</v>
+        <v>3797</v>
       </c>
       <c r="D52" t="n">
-        <v>3875</v>
+        <v>3797</v>
       </c>
       <c r="E52" t="n">
-        <v>3844</v>
+        <v>3797</v>
       </c>
       <c r="F52" t="n">
-        <v>168.8159</v>
+        <v>59.08</v>
       </c>
       <c r="G52" t="n">
-        <v>3877.8</v>
+        <v>28.125</v>
       </c>
       <c r="H52" t="n">
-        <v>3809.516666666667</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>3797</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,42 +2602,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3871</v>
+        <v>3797</v>
       </c>
       <c r="C53" t="n">
-        <v>3871</v>
+        <v>3809</v>
       </c>
       <c r="D53" t="n">
-        <v>3871</v>
+        <v>3809</v>
       </c>
       <c r="E53" t="n">
-        <v>3871</v>
+        <v>3797</v>
       </c>
       <c r="F53" t="n">
-        <v>10.92</v>
+        <v>348.0656</v>
       </c>
       <c r="G53" t="n">
-        <v>3877.666666666667</v>
+        <v>39.47368421052632</v>
       </c>
       <c r="H53" t="n">
-        <v>3811.866666666667</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>3797</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,42 +2645,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3869</v>
+        <v>3809</v>
       </c>
       <c r="C54" t="n">
-        <v>3869</v>
+        <v>3815</v>
       </c>
       <c r="D54" t="n">
-        <v>3869</v>
+        <v>3815</v>
       </c>
       <c r="E54" t="n">
-        <v>3869</v>
+        <v>3809</v>
       </c>
       <c r="F54" t="n">
-        <v>77.92</v>
+        <v>12.6813</v>
       </c>
       <c r="G54" t="n">
-        <v>3877.266666666667</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="H54" t="n">
-        <v>3814.183333333333</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>3809</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,42 +2688,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3872</v>
+        <v>3815</v>
       </c>
       <c r="C55" t="n">
-        <v>3872</v>
+        <v>3815</v>
       </c>
       <c r="D55" t="n">
-        <v>3872</v>
+        <v>3815</v>
       </c>
       <c r="E55" t="n">
-        <v>3872</v>
+        <v>3815</v>
       </c>
       <c r="F55" t="n">
-        <v>8.1906</v>
+        <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>3877.066666666667</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="H55" t="n">
-        <v>3816.466666666667</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>3815</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,42 +2731,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3880</v>
+        <v>3815</v>
       </c>
       <c r="C56" t="n">
-        <v>3880</v>
+        <v>3839</v>
       </c>
       <c r="D56" t="n">
-        <v>3880</v>
+        <v>3839</v>
       </c>
       <c r="E56" t="n">
-        <v>3880</v>
+        <v>3815</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>41.3006</v>
       </c>
       <c r="G56" t="n">
-        <v>3874.8</v>
+        <v>56.19047619047619</v>
       </c>
       <c r="H56" t="n">
-        <v>3818.883333333333</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>3815</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,42 +2774,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3906</v>
+        <v>3839</v>
       </c>
       <c r="C57" t="n">
-        <v>3905</v>
+        <v>3839</v>
       </c>
       <c r="D57" t="n">
-        <v>3906</v>
+        <v>3839</v>
       </c>
       <c r="E57" t="n">
-        <v>3905</v>
+        <v>3839</v>
       </c>
       <c r="F57" t="n">
-        <v>4.31522432</v>
+        <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3874.2</v>
+        <v>52.08333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>3821.716666666667</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>3839</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,42 +2817,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3909</v>
+        <v>3801</v>
       </c>
       <c r="C58" t="n">
-        <v>3874</v>
+        <v>3836</v>
       </c>
       <c r="D58" t="n">
-        <v>3909</v>
+        <v>3836</v>
       </c>
       <c r="E58" t="n">
-        <v>3874</v>
+        <v>3801</v>
       </c>
       <c r="F58" t="n">
-        <v>58.3106</v>
+        <v>5.9018</v>
       </c>
       <c r="G58" t="n">
-        <v>3871.733333333333</v>
+        <v>92.10526315789474</v>
       </c>
       <c r="H58" t="n">
-        <v>3823.466666666667</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>3839</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,42 +2860,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3909</v>
+        <v>3840</v>
       </c>
       <c r="C59" t="n">
-        <v>3909</v>
+        <v>3840</v>
       </c>
       <c r="D59" t="n">
-        <v>3909</v>
+        <v>3840</v>
       </c>
       <c r="E59" t="n">
-        <v>3909</v>
+        <v>3840</v>
       </c>
       <c r="F59" t="n">
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>3874.8</v>
+        <v>88.46153846153845</v>
       </c>
       <c r="H59" t="n">
-        <v>3825.8</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>3836</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,42 +2903,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3873</v>
+        <v>3840</v>
       </c>
       <c r="C60" t="n">
-        <v>3873</v>
+        <v>3800</v>
       </c>
       <c r="D60" t="n">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="E60" t="n">
-        <v>3873</v>
+        <v>3768</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8094</v>
+        <v>1304.595</v>
       </c>
       <c r="G60" t="n">
-        <v>3876</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="H60" t="n">
-        <v>3827.533333333333</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>3840</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,42 +2946,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3853</v>
+        <v>3870</v>
       </c>
       <c r="C61" t="n">
-        <v>3853</v>
+        <v>3796</v>
       </c>
       <c r="D61" t="n">
-        <v>3853</v>
+        <v>3870</v>
       </c>
       <c r="E61" t="n">
-        <v>3852</v>
+        <v>3796</v>
       </c>
       <c r="F61" t="n">
-        <v>111.6502</v>
+        <v>871.2791999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>3875.666666666667</v>
+        <v>-1.075268817204301</v>
       </c>
       <c r="H61" t="n">
-        <v>3829.35</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,43 +2989,42 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3852</v>
+        <v>3804</v>
       </c>
       <c r="C62" t="n">
-        <v>3852</v>
+        <v>3804</v>
       </c>
       <c r="D62" t="n">
-        <v>3852</v>
+        <v>3804</v>
       </c>
       <c r="E62" t="n">
-        <v>3852</v>
+        <v>3804</v>
       </c>
       <c r="F62" t="n">
-        <v>5.37</v>
+        <v>7.54</v>
       </c>
       <c r="G62" t="n">
-        <v>3875.266666666667</v>
+        <v>-5.617977528089887</v>
       </c>
       <c r="H62" t="n">
-        <v>3830.616666666667</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
+        <v>3796</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3780</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1.001349206349206</v>
       </c>
     </row>
     <row r="63">
@@ -3142,42 +3032,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="C63" t="n">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="D63" t="n">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="E63" t="n">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>3877</v>
+        <v>36.91275167785235</v>
       </c>
       <c r="H63" t="n">
-        <v>3832.766666666667</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>3804</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3796</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,42 +3075,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3883</v>
+        <v>3867</v>
       </c>
       <c r="C64" t="n">
-        <v>3883</v>
+        <v>3867</v>
       </c>
       <c r="D64" t="n">
-        <v>3883</v>
+        <v>3867</v>
       </c>
       <c r="E64" t="n">
-        <v>3883</v>
+        <v>3867</v>
       </c>
       <c r="F64" t="n">
-        <v>4.00206026</v>
+        <v>28.4276</v>
       </c>
       <c r="G64" t="n">
-        <v>3878.266666666667</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="H64" t="n">
-        <v>3834.566666666667</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>3870</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3796</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,42 +3118,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3897</v>
+        <v>3862</v>
       </c>
       <c r="C65" t="n">
-        <v>3897</v>
+        <v>3862</v>
       </c>
       <c r="D65" t="n">
-        <v>3897</v>
+        <v>3862</v>
       </c>
       <c r="E65" t="n">
-        <v>3897</v>
+        <v>3862</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>30.8</v>
       </c>
       <c r="G65" t="n">
-        <v>3879.466666666667</v>
+        <v>17.29323308270677</v>
       </c>
       <c r="H65" t="n">
-        <v>3836.583333333333</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>3867</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,42 +3157,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3894</v>
+        <v>3862</v>
       </c>
       <c r="C66" t="n">
-        <v>3894</v>
+        <v>3870</v>
       </c>
       <c r="D66" t="n">
-        <v>3894</v>
+        <v>3870</v>
       </c>
       <c r="E66" t="n">
-        <v>3894</v>
+        <v>3862</v>
       </c>
       <c r="F66" t="n">
-        <v>4.00102722</v>
+        <v>11.3</v>
       </c>
       <c r="G66" t="n">
-        <v>3880.733333333333</v>
+        <v>21.98581560283688</v>
       </c>
       <c r="H66" t="n">
-        <v>3839.283333333333</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>3862</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,42 +3200,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>3870</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3873</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3873</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3870</v>
+      </c>
+      <c r="F67" t="n">
+        <v>349.5172</v>
+      </c>
+      <c r="G67" t="n">
+        <v>26.24113475177305</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3870</v>
+      </c>
+      <c r="K67" t="n">
         <v>3867</v>
       </c>
-      <c r="C67" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3867</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3866</v>
-      </c>
-      <c r="F67" t="n">
-        <v>87.3219</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3880.133333333333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3842.033333333333</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,42 +3243,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3866</v>
+        <v>3873</v>
       </c>
       <c r="C68" t="n">
-        <v>3866</v>
+        <v>3875</v>
       </c>
       <c r="D68" t="n">
-        <v>3866</v>
+        <v>3875</v>
       </c>
       <c r="E68" t="n">
-        <v>3866</v>
+        <v>3873</v>
       </c>
       <c r="F68" t="n">
-        <v>167.2461</v>
+        <v>43.8191</v>
       </c>
       <c r="G68" t="n">
-        <v>3879.8</v>
+        <v>25.17985611510791</v>
       </c>
       <c r="H68" t="n">
-        <v>3843.683333333333</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>3873</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,42 +3286,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="C69" t="n">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="D69" t="n">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="E69" t="n">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>3879.466666666667</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="H69" t="n">
-        <v>3845.15</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>3875</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,42 +3329,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="C70" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="D70" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="E70" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="F70" t="n">
-        <v>54.7068</v>
+        <v>12.1963</v>
       </c>
       <c r="G70" t="n">
-        <v>3877.533333333333</v>
+        <v>88.05970149253731</v>
       </c>
       <c r="H70" t="n">
-        <v>3846.25</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>3875</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,42 +3372,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="C71" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="D71" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="E71" t="n">
-        <v>3843</v>
+        <v>3914</v>
       </c>
       <c r="F71" t="n">
-        <v>39.2052</v>
+        <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>3875.066666666667</v>
+        <v>87.3015873015873</v>
       </c>
       <c r="H71" t="n">
-        <v>3847.35</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>3914</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,42 +3415,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3845</v>
+        <v>3861</v>
       </c>
       <c r="C72" t="n">
-        <v>3845</v>
+        <v>3911</v>
       </c>
       <c r="D72" t="n">
-        <v>3845</v>
+        <v>3911</v>
       </c>
       <c r="E72" t="n">
-        <v>3845</v>
+        <v>3861</v>
       </c>
       <c r="F72" t="n">
-        <v>2.5377</v>
+        <v>211.1705</v>
       </c>
       <c r="G72" t="n">
-        <v>3871.066666666667</v>
+        <v>65.07936507936508</v>
       </c>
       <c r="H72" t="n">
-        <v>3848.483333333333</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>3914</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,42 +3458,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="C73" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="D73" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="E73" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>0.2895</v>
       </c>
       <c r="G73" t="n">
-        <v>3870.466666666667</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="H73" t="n">
-        <v>3849.933333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>3911</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,42 +3501,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3865</v>
+        <v>3856</v>
       </c>
       <c r="C74" t="n">
-        <v>3865</v>
+        <v>3855</v>
       </c>
       <c r="D74" t="n">
-        <v>3865</v>
+        <v>3856</v>
       </c>
       <c r="E74" t="n">
-        <v>3865</v>
+        <v>3855</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="G74" t="n">
-        <v>3867.533333333333</v>
+        <v>-6.306306306306306</v>
       </c>
       <c r="H74" t="n">
-        <v>3851.366666666667</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>3863</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,42 +3544,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3846</v>
+        <v>3858</v>
       </c>
       <c r="C75" t="n">
-        <v>3845</v>
+        <v>3858</v>
       </c>
       <c r="D75" t="n">
-        <v>3846</v>
+        <v>3858</v>
       </c>
       <c r="E75" t="n">
-        <v>3845</v>
+        <v>3858</v>
       </c>
       <c r="F75" t="n">
-        <v>22.5925</v>
+        <v>12.3136</v>
       </c>
       <c r="G75" t="n">
-        <v>3865.666666666667</v>
+        <v>-11.32075471698113</v>
       </c>
       <c r="H75" t="n">
-        <v>3852.466666666667</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>3855</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,42 +3587,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="C76" t="n">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="D76" t="n">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="E76" t="n">
-        <v>3863</v>
+        <v>3857</v>
       </c>
       <c r="F76" t="n">
-        <v>40</v>
+        <v>17.0029</v>
       </c>
       <c r="G76" t="n">
-        <v>3866.333333333333</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="H76" t="n">
-        <v>3853.866666666667</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>3858</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,43 +3630,42 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="C77" t="n">
-        <v>3865</v>
+        <v>3878</v>
       </c>
       <c r="D77" t="n">
-        <v>3865</v>
+        <v>3878</v>
       </c>
       <c r="E77" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>3867.2</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="H77" t="n">
-        <v>3855.3</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>1</v>
+        <v>3858</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3867</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9978445823635894</v>
       </c>
     </row>
     <row r="78">
@@ -3802,42 +3673,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3845</v>
+        <v>3863</v>
       </c>
       <c r="C78" t="n">
-        <v>3844</v>
+        <v>3864</v>
       </c>
       <c r="D78" t="n">
-        <v>3845</v>
+        <v>3864</v>
       </c>
       <c r="E78" t="n">
-        <v>3844</v>
+        <v>3863</v>
       </c>
       <c r="F78" t="n">
-        <v>64.09999999999999</v>
+        <v>39.487</v>
       </c>
       <c r="G78" t="n">
-        <v>3863.2</v>
+        <v>-8.148148148148149</v>
       </c>
       <c r="H78" t="n">
-        <v>3856.366666666667</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>3878</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,42 +3716,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3844</v>
+        <v>3830</v>
       </c>
       <c r="C79" t="n">
-        <v>3844</v>
+        <v>3879</v>
       </c>
       <c r="D79" t="n">
-        <v>3844</v>
+        <v>3879</v>
       </c>
       <c r="E79" t="n">
-        <v>3844</v>
+        <v>3827</v>
       </c>
       <c r="F79" t="n">
-        <v>10.7505</v>
+        <v>590.2285000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>3860.6</v>
+        <v>-31.53153153153153</v>
       </c>
       <c r="H79" t="n">
-        <v>3857.283333333333</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>3864</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,42 +3759,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3852</v>
+        <v>3875</v>
       </c>
       <c r="C80" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="D80" t="n">
-        <v>3853</v>
+        <v>3875</v>
       </c>
       <c r="E80" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="F80" t="n">
-        <v>95.9639</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>3857</v>
+        <v>-33.91304347826087</v>
       </c>
       <c r="H80" t="n">
-        <v>3858.566666666667</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>3879</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,42 +3802,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="C81" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="D81" t="n">
-        <v>3843</v>
+        <v>3875</v>
       </c>
       <c r="E81" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="F81" t="n">
-        <v>8.011200000000001</v>
+        <v>168.8159</v>
       </c>
       <c r="G81" t="n">
-        <v>3853.6</v>
+        <v>-32.14285714285715</v>
       </c>
       <c r="H81" t="n">
-        <v>3859.383333333333</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>3875</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,42 +3845,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3813</v>
+        <v>3871</v>
       </c>
       <c r="C82" t="n">
-        <v>3857</v>
+        <v>3871</v>
       </c>
       <c r="D82" t="n">
-        <v>3857</v>
+        <v>3871</v>
       </c>
       <c r="E82" t="n">
-        <v>3813</v>
+        <v>3871</v>
       </c>
       <c r="F82" t="n">
-        <v>69.756</v>
+        <v>10.92</v>
       </c>
       <c r="G82" t="n">
-        <v>3853</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H82" t="n">
-        <v>3860.383333333333</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>3875</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,42 +3888,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="C83" t="n">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="D83" t="n">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="E83" t="n">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="F83" t="n">
-        <v>42.1</v>
+        <v>77.92</v>
       </c>
       <c r="G83" t="n">
-        <v>3853</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="H83" t="n">
-        <v>3861.533333333333</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>3871</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,42 +3931,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="C84" t="n">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="D84" t="n">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="E84" t="n">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="F84" t="n">
-        <v>21</v>
+        <v>8.1906</v>
       </c>
       <c r="G84" t="n">
-        <v>3853.133333333333</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="H84" t="n">
-        <v>3862.483333333333</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>3869</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,42 +3974,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3820</v>
+        <v>3880</v>
       </c>
       <c r="C85" t="n">
-        <v>3866</v>
+        <v>3880</v>
       </c>
       <c r="D85" t="n">
-        <v>3866</v>
+        <v>3880</v>
       </c>
       <c r="E85" t="n">
-        <v>3820</v>
+        <v>3880</v>
       </c>
       <c r="F85" t="n">
-        <v>26.6</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>3854.666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>3863.333333333333</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>3872</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,42 +4017,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3866</v>
+        <v>3906</v>
       </c>
       <c r="C86" t="n">
-        <v>3868</v>
+        <v>3905</v>
       </c>
       <c r="D86" t="n">
-        <v>3868</v>
+        <v>3906</v>
       </c>
       <c r="E86" t="n">
-        <v>3866</v>
+        <v>3905</v>
       </c>
       <c r="F86" t="n">
-        <v>175</v>
+        <v>4.31522432</v>
       </c>
       <c r="G86" t="n">
-        <v>3856.333333333333</v>
+        <v>36</v>
       </c>
       <c r="H86" t="n">
-        <v>3864.216666666667</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>3880</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,42 +4060,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3867</v>
+        <v>3909</v>
       </c>
       <c r="C87" t="n">
-        <v>3868</v>
+        <v>3874</v>
       </c>
       <c r="D87" t="n">
-        <v>3868</v>
+        <v>3909</v>
       </c>
       <c r="E87" t="n">
-        <v>3867</v>
+        <v>3874</v>
       </c>
       <c r="F87" t="n">
-        <v>49.2091</v>
+        <v>58.3106</v>
       </c>
       <c r="G87" t="n">
-        <v>3857.866666666667</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="H87" t="n">
-        <v>3864.7</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>3905</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,42 +4103,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3889</v>
+        <v>3909</v>
       </c>
       <c r="C88" t="n">
-        <v>3892</v>
+        <v>3909</v>
       </c>
       <c r="D88" t="n">
-        <v>3892</v>
+        <v>3909</v>
       </c>
       <c r="E88" t="n">
-        <v>3889</v>
+        <v>3909</v>
       </c>
       <c r="F88" t="n">
-        <v>562.5029</v>
+        <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>3859.666666666667</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="H88" t="n">
-        <v>3865.583333333333</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>3874</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,43 +4146,42 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3892</v>
+        <v>3873</v>
       </c>
       <c r="C89" t="n">
-        <v>3962</v>
+        <v>3873</v>
       </c>
       <c r="D89" t="n">
-        <v>3962</v>
+        <v>3873</v>
       </c>
       <c r="E89" t="n">
-        <v>3892</v>
+        <v>3873</v>
       </c>
       <c r="F89" t="n">
-        <v>2136.7184</v>
+        <v>0.8094</v>
       </c>
       <c r="G89" t="n">
-        <v>3866.133333333333</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="H89" t="n">
-        <v>3867.683333333333</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
+        <v>3909</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9996692607003891</v>
       </c>
     </row>
     <row r="90">
@@ -4330,42 +4189,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3962</v>
+        <v>3853</v>
       </c>
       <c r="C90" t="n">
-        <v>3963</v>
+        <v>3853</v>
       </c>
       <c r="D90" t="n">
-        <v>3963</v>
+        <v>3853</v>
       </c>
       <c r="E90" t="n">
-        <v>3962</v>
+        <v>3852</v>
       </c>
       <c r="F90" t="n">
-        <v>486</v>
+        <v>111.6502</v>
       </c>
       <c r="G90" t="n">
+        <v>-13.41463414634146</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3873</v>
+      </c>
+      <c r="K90" t="n">
         <v>3874</v>
       </c>
-      <c r="H90" t="n">
-        <v>3869.733333333333</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,42 +4232,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3962</v>
+        <v>3852</v>
       </c>
       <c r="C91" t="n">
-        <v>3896</v>
+        <v>3852</v>
       </c>
       <c r="D91" t="n">
-        <v>3962</v>
+        <v>3852</v>
       </c>
       <c r="E91" t="n">
-        <v>3896</v>
+        <v>3852</v>
       </c>
       <c r="F91" t="n">
-        <v>121.3</v>
+        <v>5.37</v>
       </c>
       <c r="G91" t="n">
-        <v>3876.2</v>
+        <v>-11.80124223602484</v>
       </c>
       <c r="H91" t="n">
-        <v>3871.333333333333</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>3853</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,42 +4275,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3961</v>
+        <v>3904</v>
       </c>
       <c r="C92" t="n">
-        <v>3969</v>
+        <v>3904</v>
       </c>
       <c r="D92" t="n">
-        <v>3969</v>
+        <v>3904</v>
       </c>
       <c r="E92" t="n">
-        <v>3961</v>
+        <v>3904</v>
       </c>
       <c r="F92" t="n">
-        <v>1068.1496</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>3883.133333333333</v>
+        <v>16.58767772511848</v>
       </c>
       <c r="H92" t="n">
-        <v>3874.216666666667</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>3852</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,42 +4318,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3969</v>
+        <v>3883</v>
       </c>
       <c r="C93" t="n">
-        <v>4000</v>
+        <v>3883</v>
       </c>
       <c r="D93" t="n">
-        <v>4000</v>
+        <v>3883</v>
       </c>
       <c r="E93" t="n">
-        <v>3969</v>
+        <v>3883</v>
       </c>
       <c r="F93" t="n">
-        <v>3100.4944</v>
+        <v>4.00206026</v>
       </c>
       <c r="G93" t="n">
-        <v>3893.533333333333</v>
+        <v>4.803493449781659</v>
       </c>
       <c r="H93" t="n">
-        <v>3877.483333333333</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>3904</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,42 +4361,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4000</v>
+        <v>3897</v>
       </c>
       <c r="C94" t="n">
-        <v>4003</v>
+        <v>3897</v>
       </c>
       <c r="D94" t="n">
-        <v>4041</v>
+        <v>3897</v>
       </c>
       <c r="E94" t="n">
-        <v>3999</v>
+        <v>3897</v>
       </c>
       <c r="F94" t="n">
-        <v>1544.0513</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>3904.133333333333</v>
+        <v>7.234042553191489</v>
       </c>
       <c r="H94" t="n">
-        <v>3879.7</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>3883</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,42 +4404,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4003</v>
+        <v>3894</v>
       </c>
       <c r="C95" t="n">
-        <v>4060</v>
+        <v>3894</v>
       </c>
       <c r="D95" t="n">
-        <v>4062</v>
+        <v>3894</v>
       </c>
       <c r="E95" t="n">
-        <v>4003</v>
+        <v>3894</v>
       </c>
       <c r="F95" t="n">
-        <v>571.6998</v>
+        <v>4.00102722</v>
       </c>
       <c r="G95" t="n">
-        <v>3918.6</v>
+        <v>-5.164319248826291</v>
       </c>
       <c r="H95" t="n">
-        <v>3882.916666666667</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>3897</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,42 +4447,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4060</v>
+        <v>3867</v>
       </c>
       <c r="C96" t="n">
-        <v>4020</v>
+        <v>3866</v>
       </c>
       <c r="D96" t="n">
-        <v>4077</v>
+        <v>3867</v>
       </c>
       <c r="E96" t="n">
-        <v>4015</v>
+        <v>3866</v>
       </c>
       <c r="F96" t="n">
-        <v>2349.1368</v>
+        <v>87.3219</v>
       </c>
       <c r="G96" t="n">
-        <v>3930.4</v>
+        <v>-3.80952380952381</v>
       </c>
       <c r="H96" t="n">
-        <v>3885.55</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>3894</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,42 +4490,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4021</v>
+        <v>3866</v>
       </c>
       <c r="C97" t="n">
-        <v>4044</v>
+        <v>3866</v>
       </c>
       <c r="D97" t="n">
-        <v>4049</v>
+        <v>3866</v>
       </c>
       <c r="E97" t="n">
-        <v>4021</v>
+        <v>3866</v>
       </c>
       <c r="F97" t="n">
-        <v>146.6389</v>
+        <v>167.2461</v>
       </c>
       <c r="G97" t="n">
-        <v>3942.866666666667</v>
+        <v>-24.57142857142857</v>
       </c>
       <c r="H97" t="n">
-        <v>3888.45</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,42 +4533,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4044</v>
+        <v>3864</v>
       </c>
       <c r="C98" t="n">
-        <v>4059</v>
+        <v>3864</v>
       </c>
       <c r="D98" t="n">
-        <v>4059</v>
+        <v>3864</v>
       </c>
       <c r="E98" t="n">
-        <v>4044</v>
+        <v>3864</v>
       </c>
       <c r="F98" t="n">
-        <v>312.3795</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
-        <v>3955.733333333333</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="H98" t="n">
-        <v>3891.55</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,42 +4576,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4045</v>
+        <v>3843</v>
       </c>
       <c r="C99" t="n">
-        <v>4019</v>
+        <v>3843</v>
       </c>
       <c r="D99" t="n">
-        <v>4045</v>
+        <v>3843</v>
       </c>
       <c r="E99" t="n">
-        <v>4019</v>
+        <v>3843</v>
       </c>
       <c r="F99" t="n">
-        <v>15</v>
+        <v>54.7068</v>
       </c>
       <c r="G99" t="n">
-        <v>3965.933333333333</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="H99" t="n">
-        <v>3893.95</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>3864</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,42 +4619,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4024</v>
+        <v>3843</v>
       </c>
       <c r="C100" t="n">
-        <v>4024</v>
+        <v>3843</v>
       </c>
       <c r="D100" t="n">
-        <v>4024</v>
+        <v>3843</v>
       </c>
       <c r="E100" t="n">
-        <v>4024</v>
+        <v>3843</v>
       </c>
       <c r="F100" t="n">
-        <v>8.4</v>
+        <v>39.2052</v>
       </c>
       <c r="G100" t="n">
-        <v>3976.466666666667</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="H100" t="n">
-        <v>3896.433333333333</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>3843</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,43 +4662,42 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4027</v>
+        <v>3845</v>
       </c>
       <c r="C101" t="n">
-        <v>4026</v>
+        <v>3845</v>
       </c>
       <c r="D101" t="n">
-        <v>4027</v>
+        <v>3845</v>
       </c>
       <c r="E101" t="n">
-        <v>4026</v>
+        <v>3845</v>
       </c>
       <c r="F101" t="n">
-        <v>82.3107</v>
+        <v>2.5377</v>
       </c>
       <c r="G101" t="n">
-        <v>3987</v>
+        <v>-64.83516483516483</v>
       </c>
       <c r="H101" t="n">
-        <v>3898.3</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>1</v>
+        <v>3843</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9875141972121838</v>
       </c>
     </row>
     <row r="102">
@@ -4858,42 +4705,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="C102" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="D102" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="E102" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="F102" t="n">
-        <v>40.3411</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>3997.6</v>
+        <v>-20</v>
       </c>
       <c r="H102" t="n">
-        <v>3900.183333333333</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>3845</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3843</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,42 +4748,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="C103" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="D103" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="E103" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="F103" t="n">
-        <v>964.3812</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>4006.6</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="H103" t="n">
-        <v>3902.116666666667</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>3865</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,42 +4787,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4026</v>
+        <v>3846</v>
       </c>
       <c r="C104" t="n">
-        <v>4026</v>
+        <v>3845</v>
       </c>
       <c r="D104" t="n">
-        <v>4026</v>
+        <v>3846</v>
       </c>
       <c r="E104" t="n">
-        <v>4026</v>
+        <v>3845</v>
       </c>
       <c r="F104" t="n">
-        <v>474.7361</v>
+        <v>22.5925</v>
       </c>
       <c r="G104" t="n">
-        <v>4010.866666666667</v>
+        <v>-52.68817204301075</v>
       </c>
       <c r="H104" t="n">
-        <v>3904.833333333333</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>3865</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,42 +4830,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4027</v>
+        <v>3863</v>
       </c>
       <c r="C105" t="n">
-        <v>4050</v>
+        <v>3863</v>
       </c>
       <c r="D105" t="n">
-        <v>4050</v>
+        <v>3863</v>
       </c>
       <c r="E105" t="n">
-        <v>4027</v>
+        <v>3863</v>
       </c>
       <c r="F105" t="n">
-        <v>193.0085</v>
+        <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>4016.666666666667</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="H105" t="n">
-        <v>3908.083333333333</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>3845</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,42 +4873,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4027</v>
+        <v>3863</v>
       </c>
       <c r="C106" t="n">
-        <v>4026</v>
+        <v>3865</v>
       </c>
       <c r="D106" t="n">
-        <v>4027</v>
+        <v>3865</v>
       </c>
       <c r="E106" t="n">
-        <v>4026</v>
+        <v>3863</v>
       </c>
       <c r="F106" t="n">
-        <v>295.93</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>4025.333333333333</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="H106" t="n">
-        <v>3910.883333333333</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>3863</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,42 +4916,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4027</v>
+        <v>3845</v>
       </c>
       <c r="C107" t="n">
-        <v>4027</v>
+        <v>3844</v>
       </c>
       <c r="D107" t="n">
-        <v>4047</v>
+        <v>3845</v>
       </c>
       <c r="E107" t="n">
-        <v>4027</v>
+        <v>3844</v>
       </c>
       <c r="F107" t="n">
-        <v>59.0434</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>4029.2</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="H107" t="n">
-        <v>3913.7</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>3865</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,42 +4959,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4046</v>
+        <v>3844</v>
       </c>
       <c r="C108" t="n">
-        <v>4055</v>
+        <v>3844</v>
       </c>
       <c r="D108" t="n">
-        <v>4055</v>
+        <v>3844</v>
       </c>
       <c r="E108" t="n">
-        <v>4046</v>
+        <v>3844</v>
       </c>
       <c r="F108" t="n">
-        <v>39.8736</v>
+        <v>10.7505</v>
       </c>
       <c r="G108" t="n">
-        <v>4032.866666666667</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="H108" t="n">
-        <v>3916.65</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>3844</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,42 +5002,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4055</v>
+        <v>3852</v>
       </c>
       <c r="C109" t="n">
-        <v>4060</v>
+        <v>3843</v>
       </c>
       <c r="D109" t="n">
-        <v>4060</v>
+        <v>3853</v>
       </c>
       <c r="E109" t="n">
-        <v>4055</v>
+        <v>3843</v>
       </c>
       <c r="F109" t="n">
-        <v>419.4817</v>
+        <v>95.9639</v>
       </c>
       <c r="G109" t="n">
-        <v>4036.666666666667</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>3919.916666666667</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>3844</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +5045,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4080</v>
+        <v>3843</v>
       </c>
       <c r="C110" t="n">
-        <v>4080</v>
+        <v>3843</v>
       </c>
       <c r="D110" t="n">
-        <v>4080</v>
+        <v>3843</v>
       </c>
       <c r="E110" t="n">
-        <v>4080</v>
+        <v>3843</v>
       </c>
       <c r="F110" t="n">
-        <v>98.2</v>
+        <v>8.011200000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>4038</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="H110" t="n">
-        <v>3923.266666666667</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>3843</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +5088,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4080</v>
+        <v>3813</v>
       </c>
       <c r="C111" t="n">
-        <v>4042</v>
+        <v>3857</v>
       </c>
       <c r="D111" t="n">
-        <v>4080</v>
+        <v>3857</v>
       </c>
       <c r="E111" t="n">
-        <v>4036</v>
+        <v>3813</v>
       </c>
       <c r="F111" t="n">
-        <v>539.8313000000001</v>
+        <v>69.756</v>
       </c>
       <c r="G111" t="n">
-        <v>4039.466666666667</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="H111" t="n">
-        <v>3926.05</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>3843</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +5131,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4068</v>
+        <v>3866</v>
       </c>
       <c r="C112" t="n">
-        <v>4047</v>
+        <v>3866</v>
       </c>
       <c r="D112" t="n">
-        <v>4106</v>
+        <v>3866</v>
       </c>
       <c r="E112" t="n">
-        <v>4047</v>
+        <v>3866</v>
       </c>
       <c r="F112" t="n">
-        <v>768.6543</v>
+        <v>42.1</v>
       </c>
       <c r="G112" t="n">
-        <v>4039.666666666667</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="H112" t="n">
-        <v>3928.916666666667</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>3857</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +5174,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4139</v>
+        <v>3866</v>
       </c>
       <c r="C113" t="n">
-        <v>4100</v>
+        <v>3866</v>
       </c>
       <c r="D113" t="n">
-        <v>4139</v>
+        <v>3866</v>
       </c>
       <c r="E113" t="n">
-        <v>4099</v>
+        <v>3866</v>
       </c>
       <c r="F113" t="n">
-        <v>402.5452</v>
+        <v>21</v>
       </c>
       <c r="G113" t="n">
-        <v>4042.4</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="H113" t="n">
-        <v>3932.733333333333</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,42 +5217,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4099</v>
+        <v>3820</v>
       </c>
       <c r="C114" t="n">
-        <v>4092</v>
+        <v>3866</v>
       </c>
       <c r="D114" t="n">
-        <v>4099</v>
+        <v>3866</v>
       </c>
       <c r="E114" t="n">
-        <v>4092</v>
+        <v>3820</v>
       </c>
       <c r="F114" t="n">
-        <v>11.0347</v>
+        <v>26.6</v>
       </c>
       <c r="G114" t="n">
-        <v>4047.266666666667</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="H114" t="n">
-        <v>3936.45</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,43 +5260,42 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4070</v>
+        <v>3866</v>
       </c>
       <c r="C115" t="n">
-        <v>4091</v>
+        <v>3868</v>
       </c>
       <c r="D115" t="n">
-        <v>4091</v>
+        <v>3868</v>
       </c>
       <c r="E115" t="n">
-        <v>4070</v>
+        <v>3866</v>
       </c>
       <c r="F115" t="n">
-        <v>13.8828</v>
+        <v>175</v>
       </c>
       <c r="G115" t="n">
-        <v>4051.733333333333</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="H115" t="n">
-        <v>3940.1</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>1</v>
+        <v>3866</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3865</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0.9957761966364812</v>
       </c>
     </row>
     <row r="116">
@@ -5474,43 +5303,42 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4091</v>
+        <v>3867</v>
       </c>
       <c r="C116" t="n">
-        <v>4140</v>
+        <v>3868</v>
       </c>
       <c r="D116" t="n">
-        <v>4140</v>
+        <v>3868</v>
       </c>
       <c r="E116" t="n">
-        <v>4091</v>
+        <v>3867</v>
       </c>
       <c r="F116" t="n">
-        <v>1576.8927</v>
+        <v>49.2091</v>
       </c>
       <c r="G116" t="n">
-        <v>4059.333333333333</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="H116" t="n">
-        <v>3944.433333333333</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>3776</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>1.091398305084746</v>
+        <v>3868</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5518,36 +5346,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4101</v>
+        <v>3889</v>
       </c>
       <c r="C117" t="n">
-        <v>4141</v>
+        <v>3892</v>
       </c>
       <c r="D117" t="n">
-        <v>4141</v>
+        <v>3892</v>
       </c>
       <c r="E117" t="n">
-        <v>4100</v>
+        <v>3889</v>
       </c>
       <c r="F117" t="n">
-        <v>186.9135</v>
+        <v>562.5029</v>
       </c>
       <c r="G117" t="n">
-        <v>4066.933333333333</v>
+        <v>96</v>
       </c>
       <c r="H117" t="n">
-        <v>3948.366666666667</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>3868</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,36 +5389,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4141</v>
+        <v>3892</v>
       </c>
       <c r="C118" t="n">
-        <v>4159</v>
+        <v>3962</v>
       </c>
       <c r="D118" t="n">
-        <v>4159</v>
+        <v>3962</v>
       </c>
       <c r="E118" t="n">
-        <v>4101</v>
+        <v>3892</v>
       </c>
       <c r="F118" t="n">
-        <v>57.5134</v>
+        <v>2136.7184</v>
       </c>
       <c r="G118" t="n">
-        <v>4075.733333333333</v>
+        <v>100</v>
       </c>
       <c r="H118" t="n">
-        <v>3953.116666666667</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>3892</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,36 +5432,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4159</v>
+        <v>3962</v>
       </c>
       <c r="C119" t="n">
-        <v>4168</v>
+        <v>3963</v>
       </c>
       <c r="D119" t="n">
-        <v>4168</v>
+        <v>3963</v>
       </c>
       <c r="E119" t="n">
-        <v>4157</v>
+        <v>3962</v>
       </c>
       <c r="F119" t="n">
-        <v>1047.7342</v>
+        <v>486</v>
       </c>
       <c r="G119" t="n">
-        <v>4085.2</v>
+        <v>100</v>
       </c>
       <c r="H119" t="n">
-        <v>3957.433333333333</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+        <v>3962</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5632,36 +5475,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4173</v>
+        <v>3962</v>
       </c>
       <c r="C120" t="n">
-        <v>4181</v>
+        <v>3896</v>
       </c>
       <c r="D120" t="n">
-        <v>4181</v>
+        <v>3962</v>
       </c>
       <c r="E120" t="n">
-        <v>4123</v>
+        <v>3896</v>
       </c>
       <c r="F120" t="n">
-        <v>499.6397</v>
+        <v>121.3</v>
       </c>
       <c r="G120" t="n">
-        <v>4093.933333333333</v>
+        <v>22.54335260115607</v>
       </c>
       <c r="H120" t="n">
-        <v>3962.566666666667</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+        <v>3963</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,36 +5518,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4181</v>
+        <v>3961</v>
       </c>
       <c r="C121" t="n">
-        <v>4176</v>
+        <v>3969</v>
       </c>
       <c r="D121" t="n">
-        <v>4181</v>
+        <v>3969</v>
       </c>
       <c r="E121" t="n">
-        <v>4139</v>
+        <v>3961</v>
       </c>
       <c r="F121" t="n">
-        <v>1483.0744</v>
+        <v>1068.1496</v>
       </c>
       <c r="G121" t="n">
-        <v>4103.933333333333</v>
+        <v>43.45991561181435</v>
       </c>
       <c r="H121" t="n">
-        <v>3967.95</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+        <v>3896</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,36 +5561,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4179</v>
+        <v>3969</v>
       </c>
       <c r="C122" t="n">
-        <v>4185</v>
+        <v>4000</v>
       </c>
       <c r="D122" t="n">
-        <v>4185</v>
+        <v>4000</v>
       </c>
       <c r="E122" t="n">
-        <v>4179</v>
+        <v>3969</v>
       </c>
       <c r="F122" t="n">
-        <v>13.3215</v>
+        <v>3100.4944</v>
       </c>
       <c r="G122" t="n">
-        <v>4114.466666666666</v>
+        <v>50</v>
       </c>
       <c r="H122" t="n">
-        <v>3973.5</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+        <v>3969</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,36 +5604,1288 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4041</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1544.0513</v>
+      </c>
+      <c r="G123" t="n">
+        <v>50.55350553505535</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4060</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4062</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4003</v>
+      </c>
+      <c r="F124" t="n">
+        <v>571.6998</v>
+      </c>
+      <c r="G124" t="n">
+        <v>58.89570552147239</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4003</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4020</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4077</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4015</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2349.1368</v>
+      </c>
+      <c r="G125" t="n">
+        <v>41.53005464480874</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4060</v>
+      </c>
+      <c r="K125" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4021</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4044</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4049</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4021</v>
+      </c>
+      <c r="F126" t="n">
+        <v>146.6389</v>
+      </c>
+      <c r="G126" t="n">
+        <v>41.53005464480874</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4020</v>
+      </c>
+      <c r="K126" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4044</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4059</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4044</v>
+      </c>
+      <c r="F127" t="n">
+        <v>312.3795</v>
+      </c>
+      <c r="G127" t="n">
+        <v>31.18971061093248</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4044</v>
+      </c>
+      <c r="K127" t="n">
+        <v>3857</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1.047372310085559</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4019</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4019</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="n">
+        <v>16</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4059</v>
+      </c>
+      <c r="K128" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4024</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4024</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4024</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4024</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4019</v>
+      </c>
+      <c r="K129" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F130" t="n">
+        <v>82.3107</v>
+      </c>
+      <c r="G130" t="n">
+        <v>26.26728110599078</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F131" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="G131" t="n">
+        <v>14.43850267379679</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4026</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F132" t="n">
+        <v>964.3812</v>
+      </c>
+      <c r="G132" t="n">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4027</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4026</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4026</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F133" t="n">
+        <v>474.7361</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-26.5625</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4027</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F134" t="n">
+        <v>193.0085</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4026</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F135" t="n">
+        <v>295.93</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-16.07142857142857</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4050</v>
+      </c>
+      <c r="K135" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4047</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F136" t="n">
+        <v>59.0434</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-32.6530612244898</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4026</v>
+      </c>
+      <c r="K136" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4046</v>
+      </c>
+      <c r="F137" t="n">
+        <v>39.8736</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41.86046511627907</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4027</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4055</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4060</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4060</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F138" t="n">
+        <v>419.4817</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41.86046511627907</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4055</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4080</v>
+      </c>
+      <c r="F139" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>51.92307692307693</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4060</v>
+      </c>
+      <c r="K139" t="n">
+        <v>4020</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1.009925373134329</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4042</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4036</v>
+      </c>
+      <c r="F140" t="n">
+        <v>539.8313000000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>10.63829787234043</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4080</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4047</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4106</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4047</v>
+      </c>
+      <c r="F141" t="n">
+        <v>768.6543</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13.6986301369863</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4042</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4099</v>
+      </c>
+      <c r="F142" t="n">
+        <v>402.5452</v>
+      </c>
+      <c r="G142" t="n">
+        <v>37.37373737373738</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4047</v>
+      </c>
+      <c r="K142" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4099</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4092</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4092</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.0347</v>
+      </c>
+      <c r="G143" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4070</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4091</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4091</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4070</v>
+      </c>
+      <c r="F144" t="n">
+        <v>13.8828</v>
+      </c>
+      <c r="G144" t="n">
+        <v>40.88050314465409</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>4092</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4091</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4140</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4091</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1576.8927</v>
+      </c>
+      <c r="G145" t="n">
+        <v>54.58937198067633</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4091</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4141</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F146" t="n">
+        <v>186.9135</v>
+      </c>
+      <c r="G146" t="n">
+        <v>47.77777777777778</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4140</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4159</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4159</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4101</v>
+      </c>
+      <c r="F147" t="n">
+        <v>57.5134</v>
+      </c>
+      <c r="G147" t="n">
+        <v>51.29533678756477</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4141</v>
+      </c>
+      <c r="K147" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4159</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4168</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1047.7342</v>
+      </c>
+      <c r="G148" t="n">
+        <v>48.35164835164835</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4159</v>
+      </c>
+      <c r="K148" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4173</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4181</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4123</v>
+      </c>
+      <c r="F149" t="n">
+        <v>499.6397</v>
+      </c>
+      <c r="G149" t="n">
+        <v>88.53503184713377</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4168</v>
+      </c>
+      <c r="K149" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4181</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4176</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4139</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1483.0744</v>
+      </c>
+      <c r="G150" t="n">
+        <v>82.16560509554141</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4181</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4179</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4185</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4179</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13.3215</v>
+      </c>
+      <c r="G151" t="n">
+        <v>75.22123893805309</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4176</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4060</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1.025788177339902</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>4182</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C152" t="n">
         <v>4184</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D152" t="n">
         <v>4185</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E152" t="n">
         <v>4182</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F152" t="n">
         <v>228.3784</v>
       </c>
-      <c r="G123" t="n">
-        <v>4123.066666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>3978.166666666667</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="G152" t="n">
+        <v>86.79245283018868</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4185</v>
+      </c>
+      <c r="K152" t="n">
+        <v>4176</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -433,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="C2" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="D2" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="E2" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="F2" t="n">
-        <v>11.92</v>
+        <v>9.5999</v>
       </c>
       <c r="G2" t="n">
-        <v>84.61538461538461</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,79 +467,81 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="C3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="D3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="E3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="F3" t="n">
         <v>15.1</v>
       </c>
       <c r="G3" t="n">
-        <v>84.61538461538461</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="K3" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3708</v>
+        <v>3779</v>
       </c>
       <c r="C4" t="n">
-        <v>3708</v>
+        <v>3779</v>
       </c>
       <c r="D4" t="n">
-        <v>3708</v>
+        <v>3779</v>
       </c>
       <c r="E4" t="n">
-        <v>3708</v>
+        <v>3779</v>
       </c>
       <c r="F4" t="n">
-        <v>31.8</v>
+        <v>56.3299</v>
       </c>
       <c r="G4" t="n">
-        <v>6.666666666666667</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="K4" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -544,208 +551,217 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="C5" t="n">
-        <v>3726</v>
+        <v>3780</v>
       </c>
       <c r="D5" t="n">
-        <v>3726</v>
+        <v>3780</v>
       </c>
       <c r="E5" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="F5" t="n">
-        <v>8.9</v>
+        <v>99.4546</v>
       </c>
       <c r="G5" t="n">
-        <v>12.5</v>
+        <v>4396.70281862</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3708</v>
+        <v>3779</v>
       </c>
       <c r="K5" t="n">
-        <v>3727</v>
+        <v>3779</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3726</v>
+        <v>3789</v>
       </c>
       <c r="C6" t="n">
-        <v>3726</v>
+        <v>3789</v>
       </c>
       <c r="D6" t="n">
-        <v>3726</v>
+        <v>3789</v>
       </c>
       <c r="E6" t="n">
-        <v>3726</v>
+        <v>3789</v>
       </c>
       <c r="F6" t="n">
-        <v>22.9</v>
+        <v>11.7316</v>
       </c>
       <c r="G6" t="n">
-        <v>-5</v>
+        <v>4408.434418620001</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3726</v>
+        <v>3780</v>
       </c>
       <c r="K6" t="n">
-        <v>3726</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>3779</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3727</v>
+        <v>3766</v>
       </c>
       <c r="C7" t="n">
-        <v>3727</v>
+        <v>3766</v>
       </c>
       <c r="D7" t="n">
-        <v>3727</v>
+        <v>3766</v>
       </c>
       <c r="E7" t="n">
-        <v>3727</v>
+        <v>3766</v>
       </c>
       <c r="F7" t="n">
-        <v>25.0611</v>
+        <v>5.2153</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4403.219118620001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3726</v>
+        <v>3789</v>
       </c>
       <c r="K7" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3709</v>
+        <v>3794</v>
       </c>
       <c r="C8" t="n">
-        <v>3727</v>
+        <v>3794</v>
       </c>
       <c r="D8" t="n">
-        <v>3727</v>
+        <v>3794</v>
       </c>
       <c r="E8" t="n">
-        <v>3709</v>
+        <v>3794</v>
       </c>
       <c r="F8" t="n">
-        <v>22.5858</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.564102564102564</v>
+        <v>4403.319118620001</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3727</v>
+        <v>3766</v>
       </c>
       <c r="K8" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3727</v>
+        <v>3794</v>
       </c>
       <c r="C9" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="D9" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="E9" t="n">
-        <v>3727</v>
+        <v>3794</v>
       </c>
       <c r="F9" t="n">
-        <v>59.87</v>
+        <v>22.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.564102564102564</v>
+        <v>4426.219118620001</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3727</v>
+        <v>3794</v>
       </c>
       <c r="K9" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -755,40 +771,41 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="C10" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="D10" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="E10" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>59.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4426.219118620001</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="K10" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -798,40 +815,41 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="C11" t="n">
-        <v>3728</v>
+        <v>3809</v>
       </c>
       <c r="D11" t="n">
-        <v>3728</v>
+        <v>3809</v>
       </c>
       <c r="E11" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="F11" t="n">
-        <v>377.4651</v>
+        <v>348.0656</v>
       </c>
       <c r="G11" t="n">
-        <v>2.564102564102564</v>
+        <v>4774.284718620001</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3727</v>
+        <v>3797</v>
       </c>
       <c r="K11" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -841,40 +859,41 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3728</v>
+        <v>3809</v>
       </c>
       <c r="C12" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="D12" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="E12" t="n">
-        <v>3728</v>
+        <v>3809</v>
       </c>
       <c r="F12" t="n">
-        <v>47.5</v>
+        <v>12.6813</v>
       </c>
       <c r="G12" t="n">
-        <v>2.564102564102564</v>
+        <v>4786.966018620001</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3728</v>
+        <v>3809</v>
       </c>
       <c r="K12" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -884,40 +903,41 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="C13" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="D13" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="E13" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="F13" t="n">
-        <v>60.36</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>4786.966018620001</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="K13" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -927,40 +947,41 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="C14" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="D14" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="E14" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="F14" t="n">
-        <v>157.6982</v>
+        <v>41.3006</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>4828.26661862</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3728</v>
+        <v>3815</v>
       </c>
       <c r="K14" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -970,40 +991,41 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="C15" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="D15" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="E15" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="F15" t="n">
-        <v>1173.2699</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>4828.26661862</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="K15" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1013,40 +1035,41 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3729</v>
+        <v>3801</v>
       </c>
       <c r="C16" t="n">
-        <v>3729</v>
+        <v>3836</v>
       </c>
       <c r="D16" t="n">
-        <v>3729</v>
+        <v>3836</v>
       </c>
       <c r="E16" t="n">
-        <v>3729</v>
+        <v>3801</v>
       </c>
       <c r="F16" t="n">
-        <v>150.73</v>
+        <v>5.9018</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>4822.364818620001</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3729</v>
+        <v>3839</v>
       </c>
       <c r="K16" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1056,40 +1079,41 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3729</v>
+        <v>3840</v>
       </c>
       <c r="C17" t="n">
-        <v>3729</v>
+        <v>3840</v>
       </c>
       <c r="D17" t="n">
-        <v>3729</v>
+        <v>3840</v>
       </c>
       <c r="E17" t="n">
-        <v>3729</v>
+        <v>3840</v>
       </c>
       <c r="F17" t="n">
-        <v>99.2403</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>4822.464818620001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3729</v>
+        <v>3836</v>
       </c>
       <c r="K17" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1099,40 +1123,41 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3725</v>
+        <v>3840</v>
       </c>
       <c r="C18" t="n">
-        <v>3730</v>
+        <v>3800</v>
       </c>
       <c r="D18" t="n">
-        <v>3730</v>
+        <v>3870</v>
       </c>
       <c r="E18" t="n">
-        <v>3725</v>
+        <v>3768</v>
       </c>
       <c r="F18" t="n">
-        <v>139.7129</v>
+        <v>1304.595</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>3517.869818620001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3729</v>
+        <v>3840</v>
       </c>
       <c r="K18" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1142,126 +1167,129 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3729</v>
+        <v>3870</v>
       </c>
       <c r="C19" t="n">
-        <v>3730</v>
+        <v>3796</v>
       </c>
       <c r="D19" t="n">
-        <v>3730</v>
+        <v>3870</v>
       </c>
       <c r="E19" t="n">
-        <v>3729</v>
+        <v>3796</v>
       </c>
       <c r="F19" t="n">
-        <v>57.65</v>
+        <v>871.2791999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>2646.590618620001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3730</v>
+        <v>3800</v>
       </c>
       <c r="K19" t="n">
-        <v>3726</v>
+        <v>3779</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0.9960735373054214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3729</v>
+        <v>3804</v>
       </c>
       <c r="C20" t="n">
-        <v>3730</v>
+        <v>3804</v>
       </c>
       <c r="D20" t="n">
-        <v>3730</v>
+        <v>3804</v>
       </c>
       <c r="E20" t="n">
-        <v>3729</v>
+        <v>3804</v>
       </c>
       <c r="F20" t="n">
-        <v>60.11</v>
+        <v>7.54</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>2654.130618620001</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3730</v>
+        <v>3796</v>
       </c>
       <c r="K20" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3729</v>
+        <v>3870</v>
       </c>
       <c r="C21" t="n">
-        <v>3729</v>
+        <v>3870</v>
       </c>
       <c r="D21" t="n">
-        <v>3729</v>
+        <v>3870</v>
       </c>
       <c r="E21" t="n">
-        <v>3729</v>
+        <v>3870</v>
       </c>
       <c r="F21" t="n">
-        <v>59.25</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>33.33333333333333</v>
+        <v>2654.230618620001</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3730</v>
+        <v>3804</v>
       </c>
       <c r="K21" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1271,40 +1299,39 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="C22" t="n">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="D22" t="n">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="E22" t="n">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="F22" t="n">
-        <v>61.0143</v>
+        <v>28.4276</v>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>2625.803018620001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1314,40 +1341,39 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3730</v>
+        <v>3862</v>
       </c>
       <c r="C23" t="n">
-        <v>3730</v>
+        <v>3862</v>
       </c>
       <c r="D23" t="n">
-        <v>3730</v>
+        <v>3862</v>
       </c>
       <c r="E23" t="n">
-        <v>3730</v>
+        <v>3862</v>
       </c>
       <c r="F23" t="n">
-        <v>494.1718</v>
+        <v>30.8</v>
       </c>
       <c r="G23" t="n">
-        <v>33.33333333333333</v>
+        <v>2595.003018620001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1357,40 +1383,39 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3735</v>
+        <v>3862</v>
       </c>
       <c r="C24" t="n">
-        <v>3735</v>
+        <v>3870</v>
       </c>
       <c r="D24" t="n">
-        <v>3735</v>
+        <v>3870</v>
       </c>
       <c r="E24" t="n">
-        <v>3735</v>
+        <v>3862</v>
       </c>
       <c r="F24" t="n">
-        <v>11.93</v>
+        <v>11.3</v>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>2606.303018620001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1400,40 +1425,39 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3735</v>
+        <v>3870</v>
       </c>
       <c r="C25" t="n">
-        <v>3735</v>
+        <v>3873</v>
       </c>
       <c r="D25" t="n">
-        <v>3735</v>
+        <v>3873</v>
       </c>
       <c r="E25" t="n">
-        <v>3735</v>
+        <v>3870</v>
       </c>
       <c r="F25" t="n">
-        <v>88.7</v>
+        <v>349.5172</v>
       </c>
       <c r="G25" t="n">
-        <v>75</v>
+        <v>2955.820218620001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1443,40 +1467,39 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3735</v>
+        <v>3873</v>
       </c>
       <c r="C26" t="n">
-        <v>3735</v>
+        <v>3875</v>
       </c>
       <c r="D26" t="n">
-        <v>3735</v>
+        <v>3875</v>
       </c>
       <c r="E26" t="n">
-        <v>3735</v>
+        <v>3873</v>
       </c>
       <c r="F26" t="n">
-        <v>87.1598</v>
+        <v>43.8191</v>
       </c>
       <c r="G26" t="n">
-        <v>75</v>
+        <v>2999.639318620001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1486,40 +1509,39 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3735</v>
+        <v>3875</v>
       </c>
       <c r="C27" t="n">
-        <v>3769</v>
+        <v>3875</v>
       </c>
       <c r="D27" t="n">
-        <v>3769</v>
+        <v>3875</v>
       </c>
       <c r="E27" t="n">
-        <v>3735</v>
+        <v>3875</v>
       </c>
       <c r="F27" t="n">
-        <v>28.54</v>
+        <v>0.1</v>
       </c>
       <c r="G27" t="n">
-        <v>95.1219512195122</v>
+        <v>2999.639318620001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1529,40 +1551,39 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3769</v>
+        <v>3875</v>
       </c>
       <c r="C28" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="D28" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="E28" t="n">
-        <v>3769</v>
+        <v>3875</v>
       </c>
       <c r="F28" t="n">
-        <v>117.7079</v>
+        <v>12.1963</v>
       </c>
       <c r="G28" t="n">
-        <v>95.1219512195122</v>
+        <v>3011.835618620001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,40 +1593,39 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="C29" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="D29" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="E29" t="n">
-        <v>3769</v>
+        <v>3914</v>
       </c>
       <c r="F29" t="n">
-        <v>45.9799</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>95.1219512195122</v>
+        <v>3011.835618620001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1615,40 +1635,39 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3744</v>
+        <v>3861</v>
       </c>
       <c r="C30" t="n">
-        <v>3744</v>
+        <v>3911</v>
       </c>
       <c r="D30" t="n">
-        <v>3744</v>
+        <v>3911</v>
       </c>
       <c r="E30" t="n">
-        <v>3744</v>
+        <v>3861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3668</v>
+        <v>211.1705</v>
       </c>
       <c r="G30" t="n">
-        <v>23.07692307692308</v>
+        <v>2800.665118620001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1658,294 +1677,291 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3776</v>
+        <v>3863</v>
       </c>
       <c r="C31" t="n">
-        <v>3776</v>
+        <v>3863</v>
       </c>
       <c r="D31" t="n">
-        <v>3776</v>
+        <v>3863</v>
       </c>
       <c r="E31" t="n">
-        <v>3776</v>
+        <v>3863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3807</v>
+        <v>0.2895</v>
       </c>
       <c r="G31" t="n">
-        <v>47.91666666666667</v>
+        <v>2800.375618620001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>3729</v>
+        <v>3779</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1.007603915258783</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3775</v>
+        <v>3856</v>
       </c>
       <c r="C32" t="n">
-        <v>3775</v>
+        <v>3855</v>
       </c>
       <c r="D32" t="n">
-        <v>3775</v>
+        <v>3856</v>
       </c>
       <c r="E32" t="n">
-        <v>3775</v>
+        <v>3855</v>
       </c>
       <c r="F32" t="n">
-        <v>15.1</v>
+        <v>82</v>
       </c>
       <c r="G32" t="n">
-        <v>46.39175257731959</v>
+        <v>2718.375618620001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>3744</v>
+        <v>3779</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3775</v>
+        <v>3858</v>
       </c>
       <c r="C33" t="n">
-        <v>3775</v>
+        <v>3858</v>
       </c>
       <c r="D33" t="n">
-        <v>3775</v>
+        <v>3858</v>
       </c>
       <c r="E33" t="n">
-        <v>3775</v>
+        <v>3858</v>
       </c>
       <c r="F33" t="n">
-        <v>125.4541</v>
+        <v>12.3136</v>
       </c>
       <c r="G33" t="n">
-        <v>43.47826086956522</v>
+        <v>2730.689218620001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>3744</v>
+        <v>3779</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3776</v>
+        <v>3858</v>
       </c>
       <c r="C34" t="n">
-        <v>3776</v>
+        <v>3858</v>
       </c>
       <c r="D34" t="n">
-        <v>3776</v>
+        <v>3858</v>
       </c>
       <c r="E34" t="n">
-        <v>3776</v>
+        <v>3857</v>
       </c>
       <c r="F34" t="n">
-        <v>80.1079</v>
+        <v>17.0029</v>
       </c>
       <c r="G34" t="n">
-        <v>44.08602150537634</v>
+        <v>2730.689218620001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>3775</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>3779</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3732</v>
+        <v>3878</v>
       </c>
       <c r="C35" t="n">
-        <v>3732</v>
+        <v>3878</v>
       </c>
       <c r="D35" t="n">
-        <v>3732</v>
+        <v>3878</v>
       </c>
       <c r="E35" t="n">
-        <v>3732</v>
+        <v>3878</v>
       </c>
       <c r="F35" t="n">
-        <v>2.2297</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.18978102189781</v>
+        <v>2734.689218620001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3747</v>
+        <v>3863</v>
       </c>
       <c r="C36" t="n">
-        <v>3701</v>
+        <v>3864</v>
       </c>
       <c r="D36" t="n">
-        <v>3747</v>
+        <v>3864</v>
       </c>
       <c r="E36" t="n">
-        <v>3701</v>
+        <v>3863</v>
       </c>
       <c r="F36" t="n">
-        <v>1059.7987</v>
+        <v>39.487</v>
       </c>
       <c r="G36" t="n">
-        <v>-50.74626865671642</v>
+        <v>2695.202218620001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3771</v>
+        <v>3830</v>
       </c>
       <c r="C37" t="n">
-        <v>3767</v>
+        <v>3879</v>
       </c>
       <c r="D37" t="n">
-        <v>3771</v>
+        <v>3879</v>
       </c>
       <c r="E37" t="n">
-        <v>3767</v>
+        <v>3827</v>
       </c>
       <c r="F37" t="n">
-        <v>99.0085</v>
+        <v>590.2285000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-1</v>
+        <v>3285.430718620001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1955,40 +1971,39 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3776</v>
+        <v>3875</v>
       </c>
       <c r="C38" t="n">
-        <v>3776</v>
+        <v>3875</v>
       </c>
       <c r="D38" t="n">
-        <v>3776</v>
+        <v>3875</v>
       </c>
       <c r="E38" t="n">
-        <v>3776</v>
+        <v>3875</v>
       </c>
       <c r="F38" t="n">
-        <v>18</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>3.349282296650718</v>
+        <v>3207.860718620001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1998,40 +2013,39 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3776</v>
+        <v>3844</v>
       </c>
       <c r="C39" t="n">
-        <v>3777</v>
+        <v>3875</v>
       </c>
       <c r="D39" t="n">
-        <v>3777</v>
+        <v>3875</v>
       </c>
       <c r="E39" t="n">
-        <v>3776</v>
+        <v>3844</v>
       </c>
       <c r="F39" t="n">
-        <v>45.5799</v>
+        <v>168.8159</v>
       </c>
       <c r="G39" t="n">
-        <v>17.83783783783784</v>
+        <v>3207.860718620001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2041,40 +2055,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3777</v>
+        <v>3871</v>
       </c>
       <c r="C40" t="n">
-        <v>3777</v>
+        <v>3871</v>
       </c>
       <c r="D40" t="n">
-        <v>3777</v>
+        <v>3871</v>
       </c>
       <c r="E40" t="n">
-        <v>3777</v>
+        <v>3871</v>
       </c>
       <c r="F40" t="n">
-        <v>68.48</v>
+        <v>10.92</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6535947712418301</v>
+        <v>3196.940718620001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2084,40 +2097,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3777</v>
+        <v>3869</v>
       </c>
       <c r="C41" t="n">
-        <v>3777</v>
+        <v>3869</v>
       </c>
       <c r="D41" t="n">
-        <v>3777</v>
+        <v>3869</v>
       </c>
       <c r="E41" t="n">
-        <v>3777</v>
+        <v>3869</v>
       </c>
       <c r="F41" t="n">
-        <v>15.1</v>
+        <v>77.92</v>
       </c>
       <c r="G41" t="n">
-        <v>1.31578947368421</v>
+        <v>3119.02071862</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2127,40 +2139,39 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3777</v>
+        <v>3872</v>
       </c>
       <c r="C42" t="n">
-        <v>3778</v>
+        <v>3872</v>
       </c>
       <c r="D42" t="n">
-        <v>3778</v>
+        <v>3872</v>
       </c>
       <c r="E42" t="n">
-        <v>3777</v>
+        <v>3872</v>
       </c>
       <c r="F42" t="n">
-        <v>296.6735</v>
+        <v>8.1906</v>
       </c>
       <c r="G42" t="n">
-        <v>1.96078431372549</v>
+        <v>3127.21131862</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2170,40 +2181,39 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3778</v>
+        <v>3880</v>
       </c>
       <c r="C43" t="n">
-        <v>3779</v>
+        <v>3880</v>
       </c>
       <c r="D43" t="n">
-        <v>3779</v>
+        <v>3880</v>
       </c>
       <c r="E43" t="n">
-        <v>3778</v>
+        <v>3880</v>
       </c>
       <c r="F43" t="n">
-        <v>72.8899</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>1.96078431372549</v>
+        <v>3137.21131862</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2213,40 +2223,39 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3779</v>
+        <v>3906</v>
       </c>
       <c r="C44" t="n">
-        <v>3779</v>
+        <v>3905</v>
       </c>
       <c r="D44" t="n">
-        <v>3779</v>
+        <v>3906</v>
       </c>
       <c r="E44" t="n">
-        <v>3779</v>
+        <v>3905</v>
       </c>
       <c r="F44" t="n">
-        <v>9.5999</v>
+        <v>4.31522432</v>
       </c>
       <c r="G44" t="n">
-        <v>43.11926605504588</v>
+        <v>3141.526542940001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2256,40 +2265,39 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="C45" t="n">
-        <v>3779</v>
+        <v>3874</v>
       </c>
       <c r="D45" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="E45" t="n">
-        <v>3779</v>
+        <v>3874</v>
       </c>
       <c r="F45" t="n">
-        <v>15.1</v>
+        <v>58.3106</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>3083.215942940001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2299,40 +2307,39 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="C46" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="D46" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="E46" t="n">
-        <v>3779</v>
+        <v>3909</v>
       </c>
       <c r="F46" t="n">
-        <v>56.3299</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>3083.315942940001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2342,251 +2349,249 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3779</v>
+        <v>3873</v>
       </c>
       <c r="C47" t="n">
-        <v>3780</v>
+        <v>3873</v>
       </c>
       <c r="D47" t="n">
-        <v>3780</v>
+        <v>3873</v>
       </c>
       <c r="E47" t="n">
-        <v>3779</v>
+        <v>3873</v>
       </c>
       <c r="F47" t="n">
-        <v>99.4546</v>
+        <v>0.8094</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>3082.506542940001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.9963245033112583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3789</v>
+        <v>3853</v>
       </c>
       <c r="C48" t="n">
-        <v>3789</v>
+        <v>3853</v>
       </c>
       <c r="D48" t="n">
-        <v>3789</v>
+        <v>3853</v>
       </c>
       <c r="E48" t="n">
-        <v>3789</v>
+        <v>3852</v>
       </c>
       <c r="F48" t="n">
-        <v>11.7316</v>
+        <v>111.6502</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>2970.856342940001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>3780</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+        <v>3779</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3766</v>
+        <v>3852</v>
       </c>
       <c r="C49" t="n">
-        <v>3766</v>
+        <v>3852</v>
       </c>
       <c r="D49" t="n">
-        <v>3766</v>
+        <v>3852</v>
       </c>
       <c r="E49" t="n">
-        <v>3766</v>
+        <v>3852</v>
       </c>
       <c r="F49" t="n">
-        <v>5.2153</v>
+        <v>5.37</v>
       </c>
       <c r="G49" t="n">
-        <v>-31.42857142857143</v>
+        <v>2965.486342940001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3794</v>
+        <v>3904</v>
       </c>
       <c r="C50" t="n">
-        <v>3794</v>
+        <v>3904</v>
       </c>
       <c r="D50" t="n">
-        <v>3794</v>
+        <v>3904</v>
       </c>
       <c r="E50" t="n">
-        <v>3794</v>
+        <v>3904</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>26.98412698412698</v>
+        <v>2969.486342940001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3794</v>
+        <v>3883</v>
       </c>
       <c r="C51" t="n">
-        <v>3797</v>
+        <v>3883</v>
       </c>
       <c r="D51" t="n">
-        <v>3797</v>
+        <v>3883</v>
       </c>
       <c r="E51" t="n">
-        <v>3794</v>
+        <v>3883</v>
       </c>
       <c r="F51" t="n">
-        <v>22.9</v>
+        <v>4.00206026</v>
       </c>
       <c r="G51" t="n">
-        <v>29.23076923076923</v>
+        <v>2965.484282680001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3797</v>
+        <v>3897</v>
       </c>
       <c r="C52" t="n">
-        <v>3797</v>
+        <v>3897</v>
       </c>
       <c r="D52" t="n">
-        <v>3797</v>
+        <v>3897</v>
       </c>
       <c r="E52" t="n">
-        <v>3797</v>
+        <v>3897</v>
       </c>
       <c r="F52" t="n">
-        <v>59.08</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>28.125</v>
+        <v>2969.484282680001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2596,40 +2601,39 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3797</v>
+        <v>3894</v>
       </c>
       <c r="C53" t="n">
-        <v>3809</v>
+        <v>3894</v>
       </c>
       <c r="D53" t="n">
-        <v>3809</v>
+        <v>3894</v>
       </c>
       <c r="E53" t="n">
-        <v>3797</v>
+        <v>3894</v>
       </c>
       <c r="F53" t="n">
-        <v>348.0656</v>
+        <v>4.00102722</v>
       </c>
       <c r="G53" t="n">
-        <v>39.47368421052632</v>
+        <v>2965.483255460001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2639,40 +2643,39 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3809</v>
+        <v>3867</v>
       </c>
       <c r="C54" t="n">
-        <v>3815</v>
+        <v>3866</v>
       </c>
       <c r="D54" t="n">
-        <v>3815</v>
+        <v>3867</v>
       </c>
       <c r="E54" t="n">
-        <v>3809</v>
+        <v>3866</v>
       </c>
       <c r="F54" t="n">
-        <v>12.6813</v>
+        <v>87.3219</v>
       </c>
       <c r="G54" t="n">
-        <v>43.90243902439025</v>
+        <v>2878.161355460001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2682,40 +2685,39 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3815</v>
+        <v>3866</v>
       </c>
       <c r="C55" t="n">
-        <v>3815</v>
+        <v>3866</v>
       </c>
       <c r="D55" t="n">
-        <v>3815</v>
+        <v>3866</v>
       </c>
       <c r="E55" t="n">
-        <v>3815</v>
+        <v>3866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>167.2461</v>
       </c>
       <c r="G55" t="n">
-        <v>43.90243902439025</v>
+        <v>2878.161355460001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2725,40 +2727,39 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3815</v>
+        <v>3864</v>
       </c>
       <c r="C56" t="n">
-        <v>3839</v>
+        <v>3864</v>
       </c>
       <c r="D56" t="n">
-        <v>3839</v>
+        <v>3864</v>
       </c>
       <c r="E56" t="n">
-        <v>3815</v>
+        <v>3864</v>
       </c>
       <c r="F56" t="n">
-        <v>41.3006</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>56.19047619047619</v>
+        <v>2874.161355460001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2768,40 +2769,39 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="C57" t="n">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="D57" t="n">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="E57" t="n">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1</v>
+        <v>54.7068</v>
       </c>
       <c r="G57" t="n">
-        <v>52.08333333333334</v>
+        <v>2819.454555460001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2811,40 +2811,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3801</v>
+        <v>3843</v>
       </c>
       <c r="C58" t="n">
-        <v>3836</v>
+        <v>3843</v>
       </c>
       <c r="D58" t="n">
-        <v>3836</v>
+        <v>3843</v>
       </c>
       <c r="E58" t="n">
-        <v>3801</v>
+        <v>3843</v>
       </c>
       <c r="F58" t="n">
-        <v>5.9018</v>
+        <v>39.2052</v>
       </c>
       <c r="G58" t="n">
-        <v>92.10526315789474</v>
+        <v>2819.454555460001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2854,40 +2853,39 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3840</v>
+        <v>3845</v>
       </c>
       <c r="C59" t="n">
-        <v>3840</v>
+        <v>3845</v>
       </c>
       <c r="D59" t="n">
-        <v>3840</v>
+        <v>3845</v>
       </c>
       <c r="E59" t="n">
-        <v>3840</v>
+        <v>3845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1</v>
+        <v>2.5377</v>
       </c>
       <c r="G59" t="n">
-        <v>88.46153846153845</v>
+        <v>2821.992255460001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2897,40 +2895,39 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3840</v>
+        <v>3865</v>
       </c>
       <c r="C60" t="n">
-        <v>3800</v>
+        <v>3865</v>
       </c>
       <c r="D60" t="n">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="E60" t="n">
-        <v>3768</v>
+        <v>3865</v>
       </c>
       <c r="F60" t="n">
-        <v>1304.595</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>3.370786516853932</v>
+        <v>2825.992255460001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2940,40 +2937,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="C61" t="n">
-        <v>3796</v>
+        <v>3865</v>
       </c>
       <c r="D61" t="n">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="E61" t="n">
-        <v>3796</v>
+        <v>3865</v>
       </c>
       <c r="F61" t="n">
-        <v>871.2791999999999</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.075268817204301</v>
+        <v>2825.992255460001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2983,251 +2979,249 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3804</v>
+        <v>3846</v>
       </c>
       <c r="C62" t="n">
-        <v>3804</v>
+        <v>3845</v>
       </c>
       <c r="D62" t="n">
-        <v>3804</v>
+        <v>3846</v>
       </c>
       <c r="E62" t="n">
-        <v>3804</v>
+        <v>3845</v>
       </c>
       <c r="F62" t="n">
-        <v>7.54</v>
+        <v>22.5925</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.617977528089887</v>
+        <v>2803.399755460001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1.001349206349206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3870</v>
+        <v>3863</v>
       </c>
       <c r="C63" t="n">
-        <v>3870</v>
+        <v>3863</v>
       </c>
       <c r="D63" t="n">
-        <v>3870</v>
+        <v>3863</v>
       </c>
       <c r="E63" t="n">
-        <v>3870</v>
+        <v>3863</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>36.91275167785235</v>
+        <v>2843.399755460001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3804</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>3796</v>
+        <v>3779</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="C64" t="n">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="D64" t="n">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="E64" t="n">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="F64" t="n">
-        <v>28.4276</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>34.21052631578947</v>
+        <v>2883.399755460001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>3796</v>
+        <v>3779</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3862</v>
+        <v>3845</v>
       </c>
       <c r="C65" t="n">
-        <v>3862</v>
+        <v>3844</v>
       </c>
       <c r="D65" t="n">
-        <v>3862</v>
+        <v>3845</v>
       </c>
       <c r="E65" t="n">
-        <v>3862</v>
+        <v>3844</v>
       </c>
       <c r="F65" t="n">
-        <v>30.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>17.29323308270677</v>
+        <v>2819.299755460001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>3867</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
+        <v>3779</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3862</v>
+        <v>3844</v>
       </c>
       <c r="C66" t="n">
-        <v>3870</v>
+        <v>3844</v>
       </c>
       <c r="D66" t="n">
-        <v>3870</v>
+        <v>3844</v>
       </c>
       <c r="E66" t="n">
-        <v>3862</v>
+        <v>3844</v>
       </c>
       <c r="F66" t="n">
-        <v>11.3</v>
+        <v>10.7505</v>
       </c>
       <c r="G66" t="n">
-        <v>21.98581560283688</v>
+        <v>2819.299755460001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3870</v>
+        <v>3852</v>
       </c>
       <c r="C67" t="n">
-        <v>3873</v>
+        <v>3843</v>
       </c>
       <c r="D67" t="n">
-        <v>3873</v>
+        <v>3853</v>
       </c>
       <c r="E67" t="n">
-        <v>3870</v>
+        <v>3843</v>
       </c>
       <c r="F67" t="n">
-        <v>349.5172</v>
+        <v>95.9639</v>
       </c>
       <c r="G67" t="n">
-        <v>26.24113475177305</v>
+        <v>2723.33585546</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3237,40 +3231,39 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3873</v>
+        <v>3843</v>
       </c>
       <c r="C68" t="n">
-        <v>3875</v>
+        <v>3843</v>
       </c>
       <c r="D68" t="n">
-        <v>3875</v>
+        <v>3843</v>
       </c>
       <c r="E68" t="n">
-        <v>3873</v>
+        <v>3843</v>
       </c>
       <c r="F68" t="n">
-        <v>43.8191</v>
+        <v>8.011200000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>25.17985611510791</v>
+        <v>2723.33585546</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3280,40 +3273,39 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3875</v>
+        <v>3813</v>
       </c>
       <c r="C69" t="n">
-        <v>3875</v>
+        <v>3857</v>
       </c>
       <c r="D69" t="n">
-        <v>3875</v>
+        <v>3857</v>
       </c>
       <c r="E69" t="n">
-        <v>3875</v>
+        <v>3813</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1</v>
+        <v>69.756</v>
       </c>
       <c r="G69" t="n">
-        <v>75.75757575757575</v>
+        <v>2793.09185546</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3323,40 +3315,39 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3875</v>
+        <v>3866</v>
       </c>
       <c r="C70" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="D70" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="E70" t="n">
-        <v>3875</v>
+        <v>3866</v>
       </c>
       <c r="F70" t="n">
-        <v>12.1963</v>
+        <v>42.1</v>
       </c>
       <c r="G70" t="n">
-        <v>88.05970149253731</v>
+        <v>2835.19185546</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3366,40 +3357,39 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="C71" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="D71" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="E71" t="n">
-        <v>3914</v>
+        <v>3866</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>87.3015873015873</v>
+        <v>2835.19185546</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3409,40 +3399,39 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3861</v>
+        <v>3820</v>
       </c>
       <c r="C72" t="n">
-        <v>3911</v>
+        <v>3866</v>
       </c>
       <c r="D72" t="n">
-        <v>3911</v>
+        <v>3866</v>
       </c>
       <c r="E72" t="n">
-        <v>3861</v>
+        <v>3820</v>
       </c>
       <c r="F72" t="n">
-        <v>211.1705</v>
+        <v>26.6</v>
       </c>
       <c r="G72" t="n">
-        <v>65.07936507936508</v>
+        <v>2835.19185546</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3452,40 +3441,39 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C73" t="n">
-        <v>3863</v>
+        <v>3868</v>
       </c>
       <c r="D73" t="n">
-        <v>3863</v>
+        <v>3868</v>
       </c>
       <c r="E73" t="n">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2895</v>
+        <v>175</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.703703703703703</v>
+        <v>3010.19185546</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3495,40 +3483,39 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3856</v>
+        <v>3867</v>
       </c>
       <c r="C74" t="n">
-        <v>3855</v>
+        <v>3868</v>
       </c>
       <c r="D74" t="n">
-        <v>3856</v>
+        <v>3868</v>
       </c>
       <c r="E74" t="n">
-        <v>3855</v>
+        <v>3867</v>
       </c>
       <c r="F74" t="n">
-        <v>82</v>
+        <v>49.2091</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.306306306306306</v>
+        <v>3010.19185546</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3538,40 +3525,39 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3858</v>
+        <v>3889</v>
       </c>
       <c r="C75" t="n">
-        <v>3858</v>
+        <v>3892</v>
       </c>
       <c r="D75" t="n">
-        <v>3858</v>
+        <v>3892</v>
       </c>
       <c r="E75" t="n">
-        <v>3858</v>
+        <v>3889</v>
       </c>
       <c r="F75" t="n">
-        <v>12.3136</v>
+        <v>562.5029</v>
       </c>
       <c r="G75" t="n">
-        <v>-11.32075471698113</v>
+        <v>3572.69475546</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3581,40 +3567,39 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3858</v>
+        <v>3892</v>
       </c>
       <c r="C76" t="n">
-        <v>3858</v>
+        <v>3962</v>
       </c>
       <c r="D76" t="n">
-        <v>3858</v>
+        <v>3962</v>
       </c>
       <c r="E76" t="n">
-        <v>3857</v>
+        <v>3892</v>
       </c>
       <c r="F76" t="n">
-        <v>17.0029</v>
+        <v>2136.7184</v>
       </c>
       <c r="G76" t="n">
-        <v>-14.5631067961165</v>
+        <v>5709.413155460001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3624,126 +3609,123 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3878</v>
+        <v>3962</v>
       </c>
       <c r="C77" t="n">
-        <v>3878</v>
+        <v>3963</v>
       </c>
       <c r="D77" t="n">
-        <v>3878</v>
+        <v>3963</v>
       </c>
       <c r="E77" t="n">
-        <v>3878</v>
+        <v>3962</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="G77" t="n">
-        <v>2.479338842975207</v>
+        <v>6195.413155460001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>0.9978445823635894</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3863</v>
+        <v>3962</v>
       </c>
       <c r="C78" t="n">
-        <v>3864</v>
+        <v>3896</v>
       </c>
       <c r="D78" t="n">
-        <v>3864</v>
+        <v>3962</v>
       </c>
       <c r="E78" t="n">
-        <v>3863</v>
+        <v>3896</v>
       </c>
       <c r="F78" t="n">
-        <v>39.487</v>
+        <v>121.3</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.148148148148149</v>
+        <v>6074.113155460001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3830</v>
+        <v>3961</v>
       </c>
       <c r="C79" t="n">
-        <v>3879</v>
+        <v>3969</v>
       </c>
       <c r="D79" t="n">
-        <v>3879</v>
+        <v>3969</v>
       </c>
       <c r="E79" t="n">
-        <v>3827</v>
+        <v>3961</v>
       </c>
       <c r="F79" t="n">
-        <v>590.2285000000001</v>
+        <v>1068.1496</v>
       </c>
       <c r="G79" t="n">
-        <v>-31.53153153153153</v>
+        <v>7142.26275546</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3753,40 +3735,39 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3875</v>
+        <v>3969</v>
       </c>
       <c r="C80" t="n">
-        <v>3875</v>
+        <v>4000</v>
       </c>
       <c r="D80" t="n">
-        <v>3875</v>
+        <v>4000</v>
       </c>
       <c r="E80" t="n">
-        <v>3875</v>
+        <v>3969</v>
       </c>
       <c r="F80" t="n">
-        <v>77.56999999999999</v>
+        <v>3100.4944</v>
       </c>
       <c r="G80" t="n">
-        <v>-33.91304347826087</v>
+        <v>10242.75715546</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3796,40 +3777,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3844</v>
+        <v>4000</v>
       </c>
       <c r="C81" t="n">
-        <v>3875</v>
+        <v>4003</v>
       </c>
       <c r="D81" t="n">
-        <v>3875</v>
+        <v>4041</v>
       </c>
       <c r="E81" t="n">
-        <v>3844</v>
+        <v>3999</v>
       </c>
       <c r="F81" t="n">
-        <v>168.8159</v>
+        <v>1544.0513</v>
       </c>
       <c r="G81" t="n">
-        <v>-32.14285714285715</v>
+        <v>11786.80845546</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3839,40 +3819,39 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3871</v>
+        <v>4003</v>
       </c>
       <c r="C82" t="n">
-        <v>3871</v>
+        <v>4060</v>
       </c>
       <c r="D82" t="n">
-        <v>3871</v>
+        <v>4062</v>
       </c>
       <c r="E82" t="n">
-        <v>3871</v>
+        <v>4003</v>
       </c>
       <c r="F82" t="n">
-        <v>10.92</v>
+        <v>571.6998</v>
       </c>
       <c r="G82" t="n">
-        <v>11.76470588235294</v>
+        <v>12358.50825546</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3882,40 +3861,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3869</v>
+        <v>4060</v>
       </c>
       <c r="C83" t="n">
-        <v>3869</v>
+        <v>4020</v>
       </c>
       <c r="D83" t="n">
-        <v>3869</v>
+        <v>4077</v>
       </c>
       <c r="E83" t="n">
-        <v>3869</v>
+        <v>4015</v>
       </c>
       <c r="F83" t="n">
-        <v>77.92</v>
+        <v>2349.1368</v>
       </c>
       <c r="G83" t="n">
-        <v>22.58064516129032</v>
+        <v>10009.37145546</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3925,40 +3903,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3872</v>
+        <v>4021</v>
       </c>
       <c r="C84" t="n">
-        <v>3872</v>
+        <v>4044</v>
       </c>
       <c r="D84" t="n">
-        <v>3872</v>
+        <v>4049</v>
       </c>
       <c r="E84" t="n">
-        <v>3872</v>
+        <v>4021</v>
       </c>
       <c r="F84" t="n">
-        <v>8.1906</v>
+        <v>146.6389</v>
       </c>
       <c r="G84" t="n">
-        <v>22.58064516129032</v>
+        <v>10156.01035546</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3968,40 +3945,39 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3880</v>
+        <v>4044</v>
       </c>
       <c r="C85" t="n">
-        <v>3880</v>
+        <v>4059</v>
       </c>
       <c r="D85" t="n">
-        <v>3880</v>
+        <v>4059</v>
       </c>
       <c r="E85" t="n">
-        <v>3880</v>
+        <v>4044</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>312.3795</v>
       </c>
       <c r="G85" t="n">
-        <v>31.42857142857143</v>
+        <v>10468.38985546</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4011,40 +3987,39 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3906</v>
+        <v>4045</v>
       </c>
       <c r="C86" t="n">
-        <v>3905</v>
+        <v>4019</v>
       </c>
       <c r="D86" t="n">
-        <v>3906</v>
+        <v>4045</v>
       </c>
       <c r="E86" t="n">
-        <v>3905</v>
+        <v>4019</v>
       </c>
       <c r="F86" t="n">
-        <v>4.31522432</v>
+        <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>36</v>
+        <v>10453.38985546</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4054,40 +4029,39 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3909</v>
+        <v>4024</v>
       </c>
       <c r="C87" t="n">
-        <v>3874</v>
+        <v>4024</v>
       </c>
       <c r="D87" t="n">
-        <v>3909</v>
+        <v>4024</v>
       </c>
       <c r="E87" t="n">
-        <v>3874</v>
+        <v>4024</v>
       </c>
       <c r="F87" t="n">
-        <v>58.3106</v>
+        <v>8.4</v>
       </c>
       <c r="G87" t="n">
-        <v>10.8695652173913</v>
+        <v>10461.78985546</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4097,40 +4071,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3909</v>
+        <v>4027</v>
       </c>
       <c r="C88" t="n">
-        <v>3909</v>
+        <v>4026</v>
       </c>
       <c r="D88" t="n">
-        <v>3909</v>
+        <v>4027</v>
       </c>
       <c r="E88" t="n">
-        <v>3909</v>
+        <v>4026</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1</v>
+        <v>82.3107</v>
       </c>
       <c r="G88" t="n">
-        <v>26.78571428571428</v>
+        <v>10544.10055546</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4140,126 +4113,123 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3873</v>
+        <v>4027</v>
       </c>
       <c r="C89" t="n">
-        <v>3873</v>
+        <v>4027</v>
       </c>
       <c r="D89" t="n">
-        <v>3873</v>
+        <v>4027</v>
       </c>
       <c r="E89" t="n">
-        <v>3873</v>
+        <v>4027</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8094</v>
+        <v>40.3411</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.388888888888889</v>
+        <v>10584.44165546</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>3855</v>
+        <v>3779</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>0.9996692607003891</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3853</v>
+        <v>4027</v>
       </c>
       <c r="C90" t="n">
-        <v>3853</v>
+        <v>4027</v>
       </c>
       <c r="D90" t="n">
-        <v>3853</v>
+        <v>4027</v>
       </c>
       <c r="E90" t="n">
-        <v>3852</v>
+        <v>4027</v>
       </c>
       <c r="F90" t="n">
-        <v>111.6502</v>
+        <v>964.3812</v>
       </c>
       <c r="G90" t="n">
-        <v>-13.41463414634146</v>
+        <v>10584.44165546</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3852</v>
+        <v>4026</v>
       </c>
       <c r="C91" t="n">
-        <v>3852</v>
+        <v>4026</v>
       </c>
       <c r="D91" t="n">
-        <v>3852</v>
+        <v>4026</v>
       </c>
       <c r="E91" t="n">
-        <v>3852</v>
+        <v>4026</v>
       </c>
       <c r="F91" t="n">
-        <v>5.37</v>
+        <v>474.7361</v>
       </c>
       <c r="G91" t="n">
-        <v>-11.80124223602484</v>
+        <v>10109.70555546</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4269,40 +4239,39 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3904</v>
+        <v>4027</v>
       </c>
       <c r="C92" t="n">
-        <v>3904</v>
+        <v>4050</v>
       </c>
       <c r="D92" t="n">
-        <v>3904</v>
+        <v>4050</v>
       </c>
       <c r="E92" t="n">
-        <v>3904</v>
+        <v>4027</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>193.0085</v>
       </c>
       <c r="G92" t="n">
-        <v>16.58767772511848</v>
+        <v>10302.71405546</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4312,40 +4281,39 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3883</v>
+        <v>4027</v>
       </c>
       <c r="C93" t="n">
-        <v>3883</v>
+        <v>4026</v>
       </c>
       <c r="D93" t="n">
-        <v>3883</v>
+        <v>4027</v>
       </c>
       <c r="E93" t="n">
-        <v>3883</v>
+        <v>4026</v>
       </c>
       <c r="F93" t="n">
-        <v>4.00206026</v>
+        <v>295.93</v>
       </c>
       <c r="G93" t="n">
-        <v>4.803493449781659</v>
+        <v>10006.78405546</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4355,40 +4323,39 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3897</v>
+        <v>4027</v>
       </c>
       <c r="C94" t="n">
-        <v>3897</v>
+        <v>4027</v>
       </c>
       <c r="D94" t="n">
-        <v>3897</v>
+        <v>4047</v>
       </c>
       <c r="E94" t="n">
-        <v>3897</v>
+        <v>4027</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>59.0434</v>
       </c>
       <c r="G94" t="n">
-        <v>7.234042553191489</v>
+        <v>10065.82745546</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4398,40 +4365,39 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3894</v>
+        <v>4046</v>
       </c>
       <c r="C95" t="n">
-        <v>3894</v>
+        <v>4055</v>
       </c>
       <c r="D95" t="n">
-        <v>3894</v>
+        <v>4055</v>
       </c>
       <c r="E95" t="n">
-        <v>3894</v>
+        <v>4046</v>
       </c>
       <c r="F95" t="n">
-        <v>4.00102722</v>
+        <v>39.8736</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.164319248826291</v>
+        <v>10105.70105546</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4441,40 +4407,39 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3867</v>
+        <v>4055</v>
       </c>
       <c r="C96" t="n">
-        <v>3866</v>
+        <v>4060</v>
       </c>
       <c r="D96" t="n">
-        <v>3867</v>
+        <v>4060</v>
       </c>
       <c r="E96" t="n">
-        <v>3866</v>
+        <v>4055</v>
       </c>
       <c r="F96" t="n">
-        <v>87.3219</v>
+        <v>419.4817</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.80952380952381</v>
+        <v>10525.18275546</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4484,40 +4449,39 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3866</v>
+        <v>4080</v>
       </c>
       <c r="C97" t="n">
-        <v>3866</v>
+        <v>4080</v>
       </c>
       <c r="D97" t="n">
-        <v>3866</v>
+        <v>4080</v>
       </c>
       <c r="E97" t="n">
-        <v>3866</v>
+        <v>4080</v>
       </c>
       <c r="F97" t="n">
-        <v>167.2461</v>
+        <v>98.2</v>
       </c>
       <c r="G97" t="n">
-        <v>-24.57142857142857</v>
+        <v>10623.38275546</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4527,40 +4491,39 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3864</v>
+        <v>4080</v>
       </c>
       <c r="C98" t="n">
-        <v>3864</v>
+        <v>4042</v>
       </c>
       <c r="D98" t="n">
-        <v>3864</v>
+        <v>4080</v>
       </c>
       <c r="E98" t="n">
-        <v>3864</v>
+        <v>4036</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>539.8313000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.382978723404255</v>
+        <v>10083.55145546</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4570,40 +4533,39 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3843</v>
+        <v>4068</v>
       </c>
       <c r="C99" t="n">
-        <v>3843</v>
+        <v>4047</v>
       </c>
       <c r="D99" t="n">
-        <v>3843</v>
+        <v>4106</v>
       </c>
       <c r="E99" t="n">
-        <v>3843</v>
+        <v>4047</v>
       </c>
       <c r="F99" t="n">
-        <v>54.7068</v>
+        <v>768.6543</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.042253521126761</v>
+        <v>10852.20575546</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4613,40 +4575,39 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3843</v>
+        <v>4139</v>
       </c>
       <c r="C100" t="n">
-        <v>3843</v>
+        <v>4100</v>
       </c>
       <c r="D100" t="n">
-        <v>3843</v>
+        <v>4139</v>
       </c>
       <c r="E100" t="n">
-        <v>3843</v>
+        <v>4099</v>
       </c>
       <c r="F100" t="n">
-        <v>39.2052</v>
+        <v>402.5452</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.382978723404255</v>
+        <v>11254.75095546</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4656,208 +4617,207 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3845</v>
+        <v>4099</v>
       </c>
       <c r="C101" t="n">
-        <v>3845</v>
+        <v>4092</v>
       </c>
       <c r="D101" t="n">
-        <v>3845</v>
+        <v>4099</v>
       </c>
       <c r="E101" t="n">
-        <v>3845</v>
+        <v>4092</v>
       </c>
       <c r="F101" t="n">
-        <v>2.5377</v>
+        <v>11.0347</v>
       </c>
       <c r="G101" t="n">
-        <v>-64.83516483516483</v>
+        <v>11243.71625546</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3874</v>
+        <v>3779</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>0.9875141972121838</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3865</v>
+        <v>4070</v>
       </c>
       <c r="C102" t="n">
-        <v>3865</v>
+        <v>4091</v>
       </c>
       <c r="D102" t="n">
-        <v>3865</v>
+        <v>4091</v>
       </c>
       <c r="E102" t="n">
-        <v>3865</v>
+        <v>4070</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>13.8828</v>
       </c>
       <c r="G102" t="n">
-        <v>-20</v>
+        <v>11229.83345546</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3843</v>
+        <v>3779</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3865</v>
+        <v>4091</v>
       </c>
       <c r="C103" t="n">
-        <v>3865</v>
+        <v>4140</v>
       </c>
       <c r="D103" t="n">
-        <v>3865</v>
+        <v>4140</v>
       </c>
       <c r="E103" t="n">
-        <v>3865</v>
+        <v>4091</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1576.8927</v>
       </c>
       <c r="G103" t="n">
-        <v>-42.10526315789473</v>
+        <v>12806.72615546</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
+        <v>3779</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3846</v>
+        <v>4101</v>
       </c>
       <c r="C104" t="n">
-        <v>3845</v>
+        <v>4141</v>
       </c>
       <c r="D104" t="n">
-        <v>3846</v>
+        <v>4141</v>
       </c>
       <c r="E104" t="n">
-        <v>3845</v>
+        <v>4100</v>
       </c>
       <c r="F104" t="n">
-        <v>22.5925</v>
+        <v>186.9135</v>
       </c>
       <c r="G104" t="n">
-        <v>-52.68817204301075</v>
+        <v>12993.63965546</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3865</v>
+        <v>3779</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3863</v>
+        <v>4141</v>
       </c>
       <c r="C105" t="n">
-        <v>3863</v>
+        <v>4159</v>
       </c>
       <c r="D105" t="n">
-        <v>3863</v>
+        <v>4159</v>
       </c>
       <c r="E105" t="n">
-        <v>3863</v>
+        <v>4101</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>57.5134</v>
       </c>
       <c r="G105" t="n">
-        <v>-3.614457831325301</v>
+        <v>13051.15305546</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3865</v>
+        <v>3779</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4867,40 +4827,39 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3863</v>
+        <v>4159</v>
       </c>
       <c r="C106" t="n">
-        <v>3865</v>
+        <v>4168</v>
       </c>
       <c r="D106" t="n">
-        <v>3865</v>
+        <v>4168</v>
       </c>
       <c r="E106" t="n">
-        <v>3863</v>
+        <v>4157</v>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
+        <v>1047.7342</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.176470588235294</v>
+        <v>14098.88725546</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3865</v>
+        <v>3779</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4910,47 +4869,49 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3845</v>
+        <v>4173</v>
       </c>
       <c r="C107" t="n">
-        <v>3844</v>
+        <v>4181</v>
       </c>
       <c r="D107" t="n">
-        <v>3845</v>
+        <v>4181</v>
       </c>
       <c r="E107" t="n">
-        <v>3844</v>
+        <v>4123</v>
       </c>
       <c r="F107" t="n">
-        <v>64.09999999999999</v>
+        <v>499.6397</v>
       </c>
       <c r="G107" t="n">
-        <v>-19.23076923076923</v>
+        <v>14598.52695546</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="J107" t="n">
-        <v>3865</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3865</v>
+        <v>3779</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M107" t="n">
+        <v>1.101377348504896</v>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,1935 +4920,108 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3844</v>
+        <v>4181</v>
       </c>
       <c r="C108" t="n">
-        <v>3844</v>
+        <v>4176</v>
       </c>
       <c r="D108" t="n">
-        <v>3844</v>
+        <v>4181</v>
       </c>
       <c r="E108" t="n">
-        <v>3844</v>
+        <v>4139</v>
       </c>
       <c r="F108" t="n">
-        <v>10.7505</v>
+        <v>1483.0744</v>
       </c>
       <c r="G108" t="n">
-        <v>1.204819277108434</v>
+        <v>13115.45255546</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
-      <c r="J108" t="n">
-        <v>3844</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3852</v>
+        <v>4179</v>
       </c>
       <c r="C109" t="n">
-        <v>3843</v>
+        <v>4185</v>
       </c>
       <c r="D109" t="n">
-        <v>3853</v>
+        <v>4185</v>
       </c>
       <c r="E109" t="n">
-        <v>3843</v>
+        <v>4179</v>
       </c>
       <c r="F109" t="n">
-        <v>95.9639</v>
+        <v>13.3215</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>13128.77405546</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
-      <c r="J109" t="n">
-        <v>3844</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3843</v>
+        <v>4182</v>
       </c>
       <c r="C110" t="n">
-        <v>3843</v>
+        <v>4184</v>
       </c>
       <c r="D110" t="n">
-        <v>3843</v>
+        <v>4185</v>
       </c>
       <c r="E110" t="n">
-        <v>3843</v>
+        <v>4182</v>
       </c>
       <c r="F110" t="n">
-        <v>8.011200000000001</v>
+        <v>228.3784</v>
       </c>
       <c r="G110" t="n">
-        <v>-2.439024390243902</v>
+        <v>12900.39565546</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="J110" t="n">
-        <v>3843</v>
-      </c>
-      <c r="K110" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3813</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3857</v>
-      </c>
-      <c r="D111" t="n">
-        <v>3857</v>
-      </c>
-      <c r="E111" t="n">
-        <v>3813</v>
-      </c>
-      <c r="F111" t="n">
-        <v>69.756</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3843</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3866</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3866</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3866</v>
-      </c>
-      <c r="F112" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3857</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3866</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D113" t="n">
-        <v>3866</v>
-      </c>
-      <c r="E113" t="n">
-        <v>3866</v>
-      </c>
-      <c r="F113" t="n">
-        <v>21</v>
-      </c>
-      <c r="G113" t="n">
-        <v>32.30769230769231</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3866</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3820</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3866</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3820</v>
-      </c>
-      <c r="F114" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3866</v>
-      </c>
-      <c r="K114" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3866</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3868</v>
-      </c>
-      <c r="D115" t="n">
-        <v>3868</v>
-      </c>
-      <c r="E115" t="n">
-        <v>3866</v>
-      </c>
-      <c r="F115" t="n">
-        <v>175</v>
-      </c>
-      <c r="G115" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3866</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3865</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>0.9957761966364812</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3867</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3868</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3868</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3867</v>
-      </c>
-      <c r="F116" t="n">
-        <v>49.2091</v>
-      </c>
-      <c r="G116" t="n">
-        <v>92.30769230769231</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3868</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3889</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3892</v>
-      </c>
-      <c r="D117" t="n">
-        <v>3892</v>
-      </c>
-      <c r="E117" t="n">
-        <v>3889</v>
-      </c>
-      <c r="F117" t="n">
-        <v>562.5029</v>
-      </c>
-      <c r="G117" t="n">
-        <v>96</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3868</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3892</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3962</v>
-      </c>
-      <c r="D118" t="n">
-        <v>3962</v>
-      </c>
-      <c r="E118" t="n">
-        <v>3892</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2136.7184</v>
-      </c>
-      <c r="G118" t="n">
-        <v>100</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3892</v>
-      </c>
-      <c r="K118" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3962</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3963</v>
-      </c>
-      <c r="D119" t="n">
-        <v>3963</v>
-      </c>
-      <c r="E119" t="n">
-        <v>3962</v>
-      </c>
-      <c r="F119" t="n">
-        <v>486</v>
-      </c>
-      <c r="G119" t="n">
-        <v>100</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3962</v>
-      </c>
-      <c r="K119" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3962</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3896</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3962</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3896</v>
-      </c>
-      <c r="F120" t="n">
-        <v>121.3</v>
-      </c>
-      <c r="G120" t="n">
-        <v>22.54335260115607</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3963</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3961</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3969</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3969</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3961</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1068.1496</v>
-      </c>
-      <c r="G121" t="n">
-        <v>43.45991561181435</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3896</v>
-      </c>
-      <c r="K121" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3969</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E122" t="n">
-        <v>3969</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3100.4944</v>
-      </c>
-      <c r="G122" t="n">
-        <v>50</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3969</v>
-      </c>
-      <c r="K122" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4003</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4041</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3999</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1544.0513</v>
-      </c>
-      <c r="G123" t="n">
-        <v>50.55350553505535</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4000</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4003</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4060</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4062</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4003</v>
-      </c>
-      <c r="F124" t="n">
-        <v>571.6998</v>
-      </c>
-      <c r="G124" t="n">
-        <v>58.89570552147239</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4060</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4020</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4077</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4015</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2349.1368</v>
-      </c>
-      <c r="G125" t="n">
-        <v>41.53005464480874</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4060</v>
-      </c>
-      <c r="K125" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4021</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4044</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4049</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4021</v>
-      </c>
-      <c r="F126" t="n">
-        <v>146.6389</v>
-      </c>
-      <c r="G126" t="n">
-        <v>41.53005464480874</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4020</v>
-      </c>
-      <c r="K126" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4044</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4059</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4059</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4044</v>
-      </c>
-      <c r="F127" t="n">
-        <v>312.3795</v>
-      </c>
-      <c r="G127" t="n">
-        <v>31.18971061093248</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4044</v>
-      </c>
-      <c r="K127" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1.047372310085559</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4045</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4019</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4045</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4019</v>
-      </c>
-      <c r="F128" t="n">
-        <v>15</v>
-      </c>
-      <c r="G128" t="n">
-        <v>16</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4059</v>
-      </c>
-      <c r="K128" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4024</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4024</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4024</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4024</v>
-      </c>
-      <c r="F129" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G129" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>4019</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4026</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4027</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4026</v>
-      </c>
-      <c r="F130" t="n">
-        <v>82.3107</v>
-      </c>
-      <c r="G130" t="n">
-        <v>26.26728110599078</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4024</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4027</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4027</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4027</v>
-      </c>
-      <c r="F131" t="n">
-        <v>40.3411</v>
-      </c>
-      <c r="G131" t="n">
-        <v>14.43850267379679</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4026</v>
-      </c>
-      <c r="K131" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4027</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4027</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4027</v>
-      </c>
-      <c r="F132" t="n">
-        <v>964.3812</v>
-      </c>
-      <c r="G132" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4027</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4026</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4026</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4026</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4026</v>
-      </c>
-      <c r="F133" t="n">
-        <v>474.7361</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-26.5625</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4027</v>
-      </c>
-      <c r="K133" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4050</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4050</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4027</v>
-      </c>
-      <c r="F134" t="n">
-        <v>193.0085</v>
-      </c>
-      <c r="G134" t="n">
-        <v>26.78571428571428</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4026</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4026</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4027</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4026</v>
-      </c>
-      <c r="F135" t="n">
-        <v>295.93</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-16.07142857142857</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4050</v>
-      </c>
-      <c r="K135" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4027</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4027</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4047</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4027</v>
-      </c>
-      <c r="F136" t="n">
-        <v>59.0434</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-32.6530612244898</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4026</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4046</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4055</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4055</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4046</v>
-      </c>
-      <c r="F137" t="n">
-        <v>39.8736</v>
-      </c>
-      <c r="G137" t="n">
-        <v>41.86046511627907</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4027</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4055</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4060</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4060</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F138" t="n">
-        <v>419.4817</v>
-      </c>
-      <c r="G138" t="n">
-        <v>41.86046511627907</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4055</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4080</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4080</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4080</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4080</v>
-      </c>
-      <c r="F139" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G139" t="n">
-        <v>51.92307692307693</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4060</v>
-      </c>
-      <c r="K139" t="n">
-        <v>4020</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1.009925373134329</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4080</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4042</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4080</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4036</v>
-      </c>
-      <c r="F140" t="n">
-        <v>539.8313000000001</v>
-      </c>
-      <c r="G140" t="n">
-        <v>10.63829787234043</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4080</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4068</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4047</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4106</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4047</v>
-      </c>
-      <c r="F141" t="n">
-        <v>768.6543</v>
-      </c>
-      <c r="G141" t="n">
-        <v>13.6986301369863</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4042</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4100</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4139</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4099</v>
-      </c>
-      <c r="F142" t="n">
-        <v>402.5452</v>
-      </c>
-      <c r="G142" t="n">
-        <v>37.37373737373738</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4047</v>
-      </c>
-      <c r="K142" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4099</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4092</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4099</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4092</v>
-      </c>
-      <c r="F143" t="n">
-        <v>11.0347</v>
-      </c>
-      <c r="G143" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4100</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4070</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4091</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4091</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4070</v>
-      </c>
-      <c r="F144" t="n">
-        <v>13.8828</v>
-      </c>
-      <c r="G144" t="n">
-        <v>40.88050314465409</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4092</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4091</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4140</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4140</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4091</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1576.8927</v>
-      </c>
-      <c r="G145" t="n">
-        <v>54.58937198067633</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4091</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4101</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4141</v>
-      </c>
-      <c r="D146" t="n">
-        <v>4141</v>
-      </c>
-      <c r="E146" t="n">
-        <v>4100</v>
-      </c>
-      <c r="F146" t="n">
-        <v>186.9135</v>
-      </c>
-      <c r="G146" t="n">
-        <v>47.77777777777778</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4140</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C147" t="n">
-        <v>4159</v>
-      </c>
-      <c r="D147" t="n">
-        <v>4159</v>
-      </c>
-      <c r="E147" t="n">
-        <v>4101</v>
-      </c>
-      <c r="F147" t="n">
-        <v>57.5134</v>
-      </c>
-      <c r="G147" t="n">
-        <v>51.29533678756477</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4141</v>
-      </c>
-      <c r="K147" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4168</v>
-      </c>
-      <c r="D148" t="n">
-        <v>4168</v>
-      </c>
-      <c r="E148" t="n">
-        <v>4157</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1047.7342</v>
-      </c>
-      <c r="G148" t="n">
-        <v>48.35164835164835</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4159</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4173</v>
-      </c>
-      <c r="C149" t="n">
-        <v>4181</v>
-      </c>
-      <c r="D149" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E149" t="n">
-        <v>4123</v>
-      </c>
-      <c r="F149" t="n">
-        <v>499.6397</v>
-      </c>
-      <c r="G149" t="n">
-        <v>88.53503184713377</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4168</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>4181</v>
-      </c>
-      <c r="C150" t="n">
-        <v>4176</v>
-      </c>
-      <c r="D150" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E150" t="n">
-        <v>4139</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1483.0744</v>
-      </c>
-      <c r="G150" t="n">
-        <v>82.16560509554141</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4181</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>4179</v>
-      </c>
-      <c r="C151" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D151" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E151" t="n">
-        <v>4179</v>
-      </c>
-      <c r="F151" t="n">
-        <v>13.3215</v>
-      </c>
-      <c r="G151" t="n">
-        <v>75.22123893805309</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4176</v>
-      </c>
-      <c r="K151" t="n">
-        <v>4060</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1.025788177339902</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>4182</v>
-      </c>
-      <c r="C152" t="n">
-        <v>4184</v>
-      </c>
-      <c r="D152" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E152" t="n">
-        <v>4182</v>
-      </c>
-      <c r="F152" t="n">
-        <v>228.3784</v>
-      </c>
-      <c r="G152" t="n">
-        <v>86.79245283018868</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4185</v>
-      </c>
-      <c r="K152" t="n">
-        <v>4176</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="C2" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="D2" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="E2" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="F2" t="n">
-        <v>9.5999</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>4297.24821862</v>
+        <v>3548.62581862</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="C3" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="D3" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="E3" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="F3" t="n">
-        <v>15.1</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>4297.24821862</v>
+        <v>3548.32581862</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="K3" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="C4" t="n">
-        <v>3779</v>
+        <v>3710</v>
       </c>
       <c r="D4" t="n">
-        <v>3779</v>
+        <v>3710</v>
       </c>
       <c r="E4" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="F4" t="n">
-        <v>56.3299</v>
+        <v>211.3499</v>
       </c>
       <c r="G4" t="n">
-        <v>4297.24821862</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3779</v>
+        <v>3709</v>
       </c>
       <c r="K4" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3779</v>
+        <v>3710</v>
       </c>
       <c r="C5" t="n">
-        <v>3780</v>
+        <v>3710</v>
       </c>
       <c r="D5" t="n">
-        <v>3780</v>
+        <v>3710</v>
       </c>
       <c r="E5" t="n">
-        <v>3779</v>
+        <v>3710</v>
       </c>
       <c r="F5" t="n">
-        <v>99.4546</v>
+        <v>32.6975</v>
       </c>
       <c r="G5" t="n">
-        <v>4396.70281862</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3779</v>
+        <v>3710</v>
       </c>
       <c r="K5" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3789</v>
+        <v>3710</v>
       </c>
       <c r="C6" t="n">
-        <v>3789</v>
+        <v>3710</v>
       </c>
       <c r="D6" t="n">
-        <v>3789</v>
+        <v>3710</v>
       </c>
       <c r="E6" t="n">
-        <v>3789</v>
+        <v>3710</v>
       </c>
       <c r="F6" t="n">
-        <v>11.7316</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>4408.434418620001</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3780</v>
+        <v>3710</v>
       </c>
       <c r="K6" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -646,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="C7" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="D7" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="E7" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="F7" t="n">
-        <v>5.2153</v>
+        <v>31.8899</v>
       </c>
       <c r="G7" t="n">
-        <v>4403.219118620001</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3789</v>
+        <v>3710</v>
       </c>
       <c r="K7" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -690,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="C8" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="D8" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="E8" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>4403.319118620001</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="K8" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -734,22 +734,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="C9" t="n">
-        <v>3797</v>
+        <v>3710</v>
       </c>
       <c r="D9" t="n">
-        <v>3797</v>
+        <v>3710</v>
       </c>
       <c r="E9" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="F9" t="n">
-        <v>22.9</v>
+        <v>160.19</v>
       </c>
       <c r="G9" t="n">
-        <v>4426.219118620001</v>
+        <v>3759.67571862</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3794</v>
+        <v>3710</v>
       </c>
       <c r="K9" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3797</v>
+        <v>3709</v>
       </c>
       <c r="C10" t="n">
-        <v>3797</v>
+        <v>3677</v>
       </c>
       <c r="D10" t="n">
-        <v>3797</v>
+        <v>3710</v>
       </c>
       <c r="E10" t="n">
-        <v>3797</v>
+        <v>3677</v>
       </c>
       <c r="F10" t="n">
-        <v>59.08</v>
+        <v>161.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4426.219118620001</v>
+        <v>3598.17571862</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3797</v>
+        <v>3710</v>
       </c>
       <c r="K10" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3797</v>
+        <v>3699</v>
       </c>
       <c r="C11" t="n">
-        <v>3809</v>
+        <v>3699</v>
       </c>
       <c r="D11" t="n">
-        <v>3809</v>
+        <v>3699</v>
       </c>
       <c r="E11" t="n">
-        <v>3797</v>
+        <v>3699</v>
       </c>
       <c r="F11" t="n">
-        <v>348.0656</v>
+        <v>3.26</v>
       </c>
       <c r="G11" t="n">
-        <v>4774.284718620001</v>
+        <v>3601.43571862</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3797</v>
+        <v>3677</v>
       </c>
       <c r="K11" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -866,22 +866,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3809</v>
+        <v>3699</v>
       </c>
       <c r="C12" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="D12" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="E12" t="n">
-        <v>3809</v>
+        <v>3699</v>
       </c>
       <c r="F12" t="n">
-        <v>12.6813</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>4786.966018620001</v>
+        <v>3601.43571862</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3809</v>
+        <v>3699</v>
       </c>
       <c r="K12" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -910,22 +910,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="C13" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="D13" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="E13" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>4786.966018620001</v>
+        <v>3601.43571862</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="K13" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -954,22 +954,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="C14" t="n">
-        <v>3839</v>
+        <v>3699</v>
       </c>
       <c r="D14" t="n">
-        <v>3839</v>
+        <v>3700</v>
       </c>
       <c r="E14" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="F14" t="n">
-        <v>41.3006</v>
+        <v>68.89</v>
       </c>
       <c r="G14" t="n">
-        <v>4828.26661862</v>
+        <v>3601.43571862</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3815</v>
+        <v>3699</v>
       </c>
       <c r="K14" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -998,22 +998,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3839</v>
+        <v>3689</v>
       </c>
       <c r="C15" t="n">
-        <v>3839</v>
+        <v>3690</v>
       </c>
       <c r="D15" t="n">
-        <v>3839</v>
+        <v>3690</v>
       </c>
       <c r="E15" t="n">
-        <v>3839</v>
+        <v>3689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>108.6899</v>
       </c>
       <c r="G15" t="n">
-        <v>4828.26661862</v>
+        <v>3492.745818620001</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3839</v>
+        <v>3699</v>
       </c>
       <c r="K15" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1042,22 +1042,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3801</v>
+        <v>3689</v>
       </c>
       <c r="C16" t="n">
-        <v>3836</v>
+        <v>3690</v>
       </c>
       <c r="D16" t="n">
-        <v>3836</v>
+        <v>3690</v>
       </c>
       <c r="E16" t="n">
-        <v>3801</v>
+        <v>3689</v>
       </c>
       <c r="F16" t="n">
-        <v>5.9018</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>4822.364818620001</v>
+        <v>3492.745818620001</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3839</v>
+        <v>3690</v>
       </c>
       <c r="K16" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1086,22 +1086,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="C17" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="D17" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="E17" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>550.6582</v>
       </c>
       <c r="G17" t="n">
-        <v>4822.464818620001</v>
+        <v>3492.745818620001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3836</v>
+        <v>3690</v>
       </c>
       <c r="K17" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="C18" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="D18" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="E18" t="n">
-        <v>3768</v>
+        <v>3690</v>
       </c>
       <c r="F18" t="n">
-        <v>1304.595</v>
+        <v>23.2899</v>
       </c>
       <c r="G18" t="n">
-        <v>3517.869818620001</v>
+        <v>3516.035718620001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3840</v>
+        <v>3690</v>
       </c>
       <c r="K18" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1174,22 +1174,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="C19" t="n">
-        <v>3796</v>
+        <v>3700</v>
       </c>
       <c r="D19" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="E19" t="n">
-        <v>3796</v>
+        <v>3700</v>
       </c>
       <c r="F19" t="n">
-        <v>871.2791999999999</v>
+        <v>15.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2646.590618620001</v>
+        <v>3516.035718620001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K19" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1218,22 +1218,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3804</v>
+        <v>3700</v>
       </c>
       <c r="C20" t="n">
-        <v>3804</v>
+        <v>3700</v>
       </c>
       <c r="D20" t="n">
-        <v>3804</v>
+        <v>3700</v>
       </c>
       <c r="E20" t="n">
-        <v>3804</v>
+        <v>3700</v>
       </c>
       <c r="F20" t="n">
-        <v>7.54</v>
+        <v>106.0951</v>
       </c>
       <c r="G20" t="n">
-        <v>2654.130618620001</v>
+        <v>3516.035718620001</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3796</v>
+        <v>3700</v>
       </c>
       <c r="K20" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1262,22 +1262,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="C21" t="n">
-        <v>3870</v>
+        <v>3705</v>
       </c>
       <c r="D21" t="n">
-        <v>3870</v>
+        <v>3705</v>
       </c>
       <c r="E21" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>362.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2654.230618620001</v>
+        <v>3878.535718620001</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3804</v>
+        <v>3700</v>
       </c>
       <c r="K21" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1306,32 +1306,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3867</v>
+        <v>3705</v>
       </c>
       <c r="C22" t="n">
-        <v>3867</v>
+        <v>3705</v>
       </c>
       <c r="D22" t="n">
-        <v>3867</v>
+        <v>3705</v>
       </c>
       <c r="E22" t="n">
-        <v>3867</v>
+        <v>3705</v>
       </c>
       <c r="F22" t="n">
-        <v>28.4276</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>2625.803018620001</v>
+        <v>3878.535718620001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3705</v>
+      </c>
       <c r="K22" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1348,32 +1350,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="C23" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="D23" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="E23" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="F23" t="n">
-        <v>30.8</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>2595.003018620001</v>
+        <v>3878.535718620001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3705</v>
+      </c>
       <c r="K23" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1390,22 +1394,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="C24" t="n">
-        <v>3870</v>
+        <v>3705</v>
       </c>
       <c r="D24" t="n">
-        <v>3870</v>
+        <v>3705</v>
       </c>
       <c r="E24" t="n">
-        <v>3862</v>
+        <v>3705</v>
       </c>
       <c r="F24" t="n">
-        <v>11.3</v>
+        <v>398.6257</v>
       </c>
       <c r="G24" t="n">
-        <v>2606.303018620001</v>
+        <v>3878.535718620001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1415,7 +1419,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1432,22 +1436,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3870</v>
+        <v>3720</v>
       </c>
       <c r="C25" t="n">
-        <v>3873</v>
+        <v>3720</v>
       </c>
       <c r="D25" t="n">
-        <v>3873</v>
+        <v>3720</v>
       </c>
       <c r="E25" t="n">
-        <v>3870</v>
+        <v>3720</v>
       </c>
       <c r="F25" t="n">
-        <v>349.5172</v>
+        <v>139.9757</v>
       </c>
       <c r="G25" t="n">
-        <v>2955.820218620001</v>
+        <v>4018.511418620001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1474,22 +1478,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3873</v>
+        <v>3728</v>
       </c>
       <c r="C26" t="n">
-        <v>3875</v>
+        <v>3728</v>
       </c>
       <c r="D26" t="n">
-        <v>3875</v>
+        <v>3728</v>
       </c>
       <c r="E26" t="n">
-        <v>3873</v>
+        <v>3728</v>
       </c>
       <c r="F26" t="n">
-        <v>43.8191</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2999.639318620001</v>
+        <v>4022.511418620001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1516,22 +1520,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="C27" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="D27" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="E27" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>57.77</v>
       </c>
       <c r="G27" t="n">
-        <v>2999.639318620001</v>
+        <v>3964.741418620001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1541,7 +1545,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1558,22 +1562,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3875</v>
+        <v>3726</v>
       </c>
       <c r="C28" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="D28" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="E28" t="n">
-        <v>3875</v>
+        <v>3726</v>
       </c>
       <c r="F28" t="n">
-        <v>12.1963</v>
+        <v>15.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3011.835618620001</v>
+        <v>3949.641418620001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1583,7 +1587,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1600,22 +1604,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="C29" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="D29" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="E29" t="n">
-        <v>3914</v>
+        <v>3726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>95</v>
       </c>
       <c r="G29" t="n">
-        <v>3011.835618620001</v>
+        <v>3949.641418620001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1625,7 +1629,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1642,22 +1646,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3861</v>
+        <v>3726</v>
       </c>
       <c r="C30" t="n">
-        <v>3911</v>
+        <v>3727</v>
       </c>
       <c r="D30" t="n">
-        <v>3911</v>
+        <v>3727</v>
       </c>
       <c r="E30" t="n">
-        <v>3861</v>
+        <v>3726</v>
       </c>
       <c r="F30" t="n">
-        <v>211.1705</v>
+        <v>93.19</v>
       </c>
       <c r="G30" t="n">
-        <v>2800.665118620001</v>
+        <v>4042.831418620001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1684,22 +1688,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="C31" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="D31" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="E31" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2895</v>
+        <v>11.92</v>
       </c>
       <c r="G31" t="n">
-        <v>2800.375618620001</v>
+        <v>4042.831418620001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1709,7 +1713,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1726,22 +1730,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3856</v>
+        <v>3727</v>
       </c>
       <c r="C32" t="n">
-        <v>3855</v>
+        <v>3727</v>
       </c>
       <c r="D32" t="n">
-        <v>3856</v>
+        <v>3727</v>
       </c>
       <c r="E32" t="n">
-        <v>3855</v>
+        <v>3727</v>
       </c>
       <c r="F32" t="n">
-        <v>82</v>
+        <v>15.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2718.375618620001</v>
+        <v>4042.831418620001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1751,7 +1755,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1768,22 +1772,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3858</v>
+        <v>3708</v>
       </c>
       <c r="C33" t="n">
-        <v>3858</v>
+        <v>3708</v>
       </c>
       <c r="D33" t="n">
-        <v>3858</v>
+        <v>3708</v>
       </c>
       <c r="E33" t="n">
-        <v>3858</v>
+        <v>3708</v>
       </c>
       <c r="F33" t="n">
-        <v>12.3136</v>
+        <v>31.8</v>
       </c>
       <c r="G33" t="n">
-        <v>2730.689218620001</v>
+        <v>4011.031418620001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1810,22 +1814,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3858</v>
+        <v>3726</v>
       </c>
       <c r="C34" t="n">
-        <v>3858</v>
+        <v>3726</v>
       </c>
       <c r="D34" t="n">
-        <v>3858</v>
+        <v>3726</v>
       </c>
       <c r="E34" t="n">
-        <v>3857</v>
+        <v>3726</v>
       </c>
       <c r="F34" t="n">
-        <v>17.0029</v>
+        <v>8.9</v>
       </c>
       <c r="G34" t="n">
-        <v>2730.689218620001</v>
+        <v>4019.931418620001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1835,7 +1839,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1852,22 +1856,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3878</v>
+        <v>3726</v>
       </c>
       <c r="C35" t="n">
-        <v>3878</v>
+        <v>3726</v>
       </c>
       <c r="D35" t="n">
-        <v>3878</v>
+        <v>3726</v>
       </c>
       <c r="E35" t="n">
-        <v>3878</v>
+        <v>3726</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>22.9</v>
       </c>
       <c r="G35" t="n">
-        <v>2734.689218620001</v>
+        <v>4019.931418620001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1877,7 +1881,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1894,22 +1898,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="C36" t="n">
-        <v>3864</v>
+        <v>3727</v>
       </c>
       <c r="D36" t="n">
-        <v>3864</v>
+        <v>3727</v>
       </c>
       <c r="E36" t="n">
-        <v>3863</v>
+        <v>3727</v>
       </c>
       <c r="F36" t="n">
-        <v>39.487</v>
+        <v>25.0611</v>
       </c>
       <c r="G36" t="n">
-        <v>2695.202218620001</v>
+        <v>4044.992518620001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1936,22 +1940,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3830</v>
+        <v>3709</v>
       </c>
       <c r="C37" t="n">
-        <v>3879</v>
+        <v>3727</v>
       </c>
       <c r="D37" t="n">
-        <v>3879</v>
+        <v>3727</v>
       </c>
       <c r="E37" t="n">
-        <v>3827</v>
+        <v>3709</v>
       </c>
       <c r="F37" t="n">
-        <v>590.2285000000001</v>
+        <v>22.5858</v>
       </c>
       <c r="G37" t="n">
-        <v>3285.430718620001</v>
+        <v>4044.992518620001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1961,7 +1965,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1978,22 +1982,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="C38" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="D38" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="E38" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="F38" t="n">
-        <v>77.56999999999999</v>
+        <v>59.87</v>
       </c>
       <c r="G38" t="n">
-        <v>3207.860718620001</v>
+        <v>4044.992518620001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2003,7 +2007,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2020,22 +2024,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3844</v>
+        <v>3727</v>
       </c>
       <c r="C39" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="D39" t="n">
-        <v>3875</v>
+        <v>3727</v>
       </c>
       <c r="E39" t="n">
-        <v>3844</v>
+        <v>3727</v>
       </c>
       <c r="F39" t="n">
-        <v>168.8159</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>3207.860718620001</v>
+        <v>4044.992518620001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2045,7 +2049,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2062,22 +2066,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3871</v>
+        <v>3727</v>
       </c>
       <c r="C40" t="n">
-        <v>3871</v>
+        <v>3728</v>
       </c>
       <c r="D40" t="n">
-        <v>3871</v>
+        <v>3728</v>
       </c>
       <c r="E40" t="n">
-        <v>3871</v>
+        <v>3727</v>
       </c>
       <c r="F40" t="n">
-        <v>10.92</v>
+        <v>377.4651</v>
       </c>
       <c r="G40" t="n">
-        <v>3196.940718620001</v>
+        <v>4422.457618620001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2087,7 +2091,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2104,22 +2108,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3869</v>
+        <v>3728</v>
       </c>
       <c r="C41" t="n">
-        <v>3869</v>
+        <v>3728</v>
       </c>
       <c r="D41" t="n">
-        <v>3869</v>
+        <v>3728</v>
       </c>
       <c r="E41" t="n">
-        <v>3869</v>
+        <v>3728</v>
       </c>
       <c r="F41" t="n">
-        <v>77.92</v>
+        <v>47.5</v>
       </c>
       <c r="G41" t="n">
-        <v>3119.02071862</v>
+        <v>4422.457618620001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2129,7 +2133,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2146,22 +2150,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3872</v>
+        <v>3728</v>
       </c>
       <c r="C42" t="n">
-        <v>3872</v>
+        <v>3728</v>
       </c>
       <c r="D42" t="n">
-        <v>3872</v>
+        <v>3728</v>
       </c>
       <c r="E42" t="n">
-        <v>3872</v>
+        <v>3728</v>
       </c>
       <c r="F42" t="n">
-        <v>8.1906</v>
+        <v>60.36</v>
       </c>
       <c r="G42" t="n">
-        <v>3127.21131862</v>
+        <v>4422.457618620001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2171,7 +2175,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2188,22 +2192,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3880</v>
+        <v>3728</v>
       </c>
       <c r="C43" t="n">
-        <v>3880</v>
+        <v>3729</v>
       </c>
       <c r="D43" t="n">
-        <v>3880</v>
+        <v>3729</v>
       </c>
       <c r="E43" t="n">
-        <v>3880</v>
+        <v>3728</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>157.6982</v>
       </c>
       <c r="G43" t="n">
-        <v>3137.21131862</v>
+        <v>4580.155818620001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2213,7 +2217,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2230,22 +2234,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3906</v>
+        <v>3729</v>
       </c>
       <c r="C44" t="n">
-        <v>3905</v>
+        <v>3729</v>
       </c>
       <c r="D44" t="n">
-        <v>3906</v>
+        <v>3729</v>
       </c>
       <c r="E44" t="n">
-        <v>3905</v>
+        <v>3729</v>
       </c>
       <c r="F44" t="n">
-        <v>4.31522432</v>
+        <v>1173.2699</v>
       </c>
       <c r="G44" t="n">
-        <v>3141.526542940001</v>
+        <v>4580.155818620001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2255,7 +2259,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2272,22 +2276,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="C45" t="n">
-        <v>3874</v>
+        <v>3729</v>
       </c>
       <c r="D45" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="E45" t="n">
-        <v>3874</v>
+        <v>3729</v>
       </c>
       <c r="F45" t="n">
-        <v>58.3106</v>
+        <v>150.73</v>
       </c>
       <c r="G45" t="n">
-        <v>3083.215942940001</v>
+        <v>4580.155818620001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2297,7 +2301,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2314,22 +2318,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="C46" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="D46" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="E46" t="n">
-        <v>3909</v>
+        <v>3729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>99.2403</v>
       </c>
       <c r="G46" t="n">
-        <v>3083.315942940001</v>
+        <v>4580.155818620001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2339,7 +2343,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2356,22 +2360,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3873</v>
+        <v>3725</v>
       </c>
       <c r="C47" t="n">
-        <v>3873</v>
+        <v>3730</v>
       </c>
       <c r="D47" t="n">
-        <v>3873</v>
+        <v>3730</v>
       </c>
       <c r="E47" t="n">
-        <v>3873</v>
+        <v>3725</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8094</v>
+        <v>139.7129</v>
       </c>
       <c r="G47" t="n">
-        <v>3082.506542940001</v>
+        <v>4719.86871862</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2381,7 +2385,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2398,22 +2402,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3853</v>
+        <v>3729</v>
       </c>
       <c r="C48" t="n">
-        <v>3853</v>
+        <v>3730</v>
       </c>
       <c r="D48" t="n">
-        <v>3853</v>
+        <v>3730</v>
       </c>
       <c r="E48" t="n">
-        <v>3852</v>
+        <v>3729</v>
       </c>
       <c r="F48" t="n">
-        <v>111.6502</v>
+        <v>57.65</v>
       </c>
       <c r="G48" t="n">
-        <v>2970.856342940001</v>
+        <v>4719.86871862</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2423,7 +2427,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2440,22 +2444,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3852</v>
+        <v>3729</v>
       </c>
       <c r="C49" t="n">
-        <v>3852</v>
+        <v>3730</v>
       </c>
       <c r="D49" t="n">
-        <v>3852</v>
+        <v>3730</v>
       </c>
       <c r="E49" t="n">
-        <v>3852</v>
+        <v>3729</v>
       </c>
       <c r="F49" t="n">
-        <v>5.37</v>
+        <v>60.11</v>
       </c>
       <c r="G49" t="n">
-        <v>2965.486342940001</v>
+        <v>4719.86871862</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2465,7 +2469,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2482,22 +2486,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3904</v>
+        <v>3729</v>
       </c>
       <c r="C50" t="n">
-        <v>3904</v>
+        <v>3729</v>
       </c>
       <c r="D50" t="n">
-        <v>3904</v>
+        <v>3729</v>
       </c>
       <c r="E50" t="n">
-        <v>3904</v>
+        <v>3729</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>59.25</v>
       </c>
       <c r="G50" t="n">
-        <v>2969.486342940001</v>
+        <v>4660.61871862</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2507,7 +2511,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2524,22 +2528,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3883</v>
+        <v>3730</v>
       </c>
       <c r="C51" t="n">
-        <v>3883</v>
+        <v>3730</v>
       </c>
       <c r="D51" t="n">
-        <v>3883</v>
+        <v>3730</v>
       </c>
       <c r="E51" t="n">
-        <v>3883</v>
+        <v>3730</v>
       </c>
       <c r="F51" t="n">
-        <v>4.00206026</v>
+        <v>61.0143</v>
       </c>
       <c r="G51" t="n">
-        <v>2965.484282680001</v>
+        <v>4721.63301862</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2549,7 +2553,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2566,22 +2570,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3897</v>
+        <v>3730</v>
       </c>
       <c r="C52" t="n">
-        <v>3897</v>
+        <v>3730</v>
       </c>
       <c r="D52" t="n">
-        <v>3897</v>
+        <v>3730</v>
       </c>
       <c r="E52" t="n">
-        <v>3897</v>
+        <v>3730</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>494.1718</v>
       </c>
       <c r="G52" t="n">
-        <v>2969.484282680001</v>
+        <v>4721.63301862</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2591,7 +2595,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2608,22 +2612,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3894</v>
+        <v>3735</v>
       </c>
       <c r="C53" t="n">
-        <v>3894</v>
+        <v>3735</v>
       </c>
       <c r="D53" t="n">
-        <v>3894</v>
+        <v>3735</v>
       </c>
       <c r="E53" t="n">
-        <v>3894</v>
+        <v>3735</v>
       </c>
       <c r="F53" t="n">
-        <v>4.00102722</v>
+        <v>11.93</v>
       </c>
       <c r="G53" t="n">
-        <v>2965.483255460001</v>
+        <v>4733.563018620001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2633,7 +2637,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2650,22 +2654,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3867</v>
+        <v>3735</v>
       </c>
       <c r="C54" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="D54" t="n">
-        <v>3867</v>
+        <v>3735</v>
       </c>
       <c r="E54" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="F54" t="n">
-        <v>87.3219</v>
+        <v>88.7</v>
       </c>
       <c r="G54" t="n">
-        <v>2878.161355460001</v>
+        <v>4733.563018620001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2675,7 +2679,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2692,22 +2696,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="C55" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="D55" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="E55" t="n">
-        <v>3866</v>
+        <v>3735</v>
       </c>
       <c r="F55" t="n">
-        <v>167.2461</v>
+        <v>87.1598</v>
       </c>
       <c r="G55" t="n">
-        <v>2878.161355460001</v>
+        <v>4733.563018620001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2717,7 +2721,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2734,22 +2738,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3864</v>
+        <v>3735</v>
       </c>
       <c r="C56" t="n">
-        <v>3864</v>
+        <v>3769</v>
       </c>
       <c r="D56" t="n">
-        <v>3864</v>
+        <v>3769</v>
       </c>
       <c r="E56" t="n">
-        <v>3864</v>
+        <v>3735</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>28.54</v>
       </c>
       <c r="G56" t="n">
-        <v>2874.161355460001</v>
+        <v>4762.103018620001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2759,7 +2763,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2776,22 +2780,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="C57" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="D57" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="E57" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="F57" t="n">
-        <v>54.7068</v>
+        <v>117.7079</v>
       </c>
       <c r="G57" t="n">
-        <v>2819.454555460001</v>
+        <v>4762.103018620001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2801,7 +2805,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2818,22 +2822,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="C58" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="D58" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="E58" t="n">
-        <v>3843</v>
+        <v>3769</v>
       </c>
       <c r="F58" t="n">
-        <v>39.2052</v>
+        <v>45.9799</v>
       </c>
       <c r="G58" t="n">
-        <v>2819.454555460001</v>
+        <v>4762.103018620001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2843,7 +2847,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2860,22 +2864,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3845</v>
+        <v>3744</v>
       </c>
       <c r="C59" t="n">
-        <v>3845</v>
+        <v>3744</v>
       </c>
       <c r="D59" t="n">
-        <v>3845</v>
+        <v>3744</v>
       </c>
       <c r="E59" t="n">
-        <v>3845</v>
+        <v>3744</v>
       </c>
       <c r="F59" t="n">
-        <v>2.5377</v>
+        <v>0.3668</v>
       </c>
       <c r="G59" t="n">
-        <v>2821.992255460001</v>
+        <v>4761.736218620001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2885,7 +2889,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2902,22 +2906,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3865</v>
+        <v>3776</v>
       </c>
       <c r="C60" t="n">
-        <v>3865</v>
+        <v>3776</v>
       </c>
       <c r="D60" t="n">
-        <v>3865</v>
+        <v>3776</v>
       </c>
       <c r="E60" t="n">
-        <v>3865</v>
+        <v>3776</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>0.3807</v>
       </c>
       <c r="G60" t="n">
-        <v>2825.992255460001</v>
+        <v>4762.11691862</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2927,7 +2931,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2944,22 +2948,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3865</v>
+        <v>3775</v>
       </c>
       <c r="C61" t="n">
-        <v>3865</v>
+        <v>3775</v>
       </c>
       <c r="D61" t="n">
-        <v>3865</v>
+        <v>3775</v>
       </c>
       <c r="E61" t="n">
-        <v>3865</v>
+        <v>3775</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>15.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2825.992255460001</v>
+        <v>4747.01691862</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2969,7 +2973,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2986,22 +2990,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3846</v>
+        <v>3775</v>
       </c>
       <c r="C62" t="n">
-        <v>3845</v>
+        <v>3775</v>
       </c>
       <c r="D62" t="n">
-        <v>3846</v>
+        <v>3775</v>
       </c>
       <c r="E62" t="n">
-        <v>3845</v>
+        <v>3775</v>
       </c>
       <c r="F62" t="n">
-        <v>22.5925</v>
+        <v>125.4541</v>
       </c>
       <c r="G62" t="n">
-        <v>2803.399755460001</v>
+        <v>4747.01691862</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3011,7 +3015,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3028,22 +3032,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3863</v>
+        <v>3776</v>
       </c>
       <c r="C63" t="n">
-        <v>3863</v>
+        <v>3776</v>
       </c>
       <c r="D63" t="n">
-        <v>3863</v>
+        <v>3776</v>
       </c>
       <c r="E63" t="n">
-        <v>3863</v>
+        <v>3776</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>80.1079</v>
       </c>
       <c r="G63" t="n">
-        <v>2843.399755460001</v>
+        <v>4827.12481862</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3053,7 +3057,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3070,22 +3074,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3863</v>
+        <v>3732</v>
       </c>
       <c r="C64" t="n">
-        <v>3865</v>
+        <v>3732</v>
       </c>
       <c r="D64" t="n">
-        <v>3865</v>
+        <v>3732</v>
       </c>
       <c r="E64" t="n">
-        <v>3863</v>
+        <v>3732</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>2.2297</v>
       </c>
       <c r="G64" t="n">
-        <v>2883.399755460001</v>
+        <v>4824.89511862</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3095,7 +3099,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3112,22 +3116,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3845</v>
+        <v>3747</v>
       </c>
       <c r="C65" t="n">
-        <v>3844</v>
+        <v>3701</v>
       </c>
       <c r="D65" t="n">
-        <v>3845</v>
+        <v>3747</v>
       </c>
       <c r="E65" t="n">
-        <v>3844</v>
+        <v>3701</v>
       </c>
       <c r="F65" t="n">
-        <v>64.09999999999999</v>
+        <v>1059.7987</v>
       </c>
       <c r="G65" t="n">
-        <v>2819.299755460001</v>
+        <v>3765.09641862</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3137,7 +3141,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3154,22 +3158,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3844</v>
+        <v>3771</v>
       </c>
       <c r="C66" t="n">
-        <v>3844</v>
+        <v>3767</v>
       </c>
       <c r="D66" t="n">
-        <v>3844</v>
+        <v>3771</v>
       </c>
       <c r="E66" t="n">
-        <v>3844</v>
+        <v>3767</v>
       </c>
       <c r="F66" t="n">
-        <v>10.7505</v>
+        <v>99.0085</v>
       </c>
       <c r="G66" t="n">
-        <v>2819.299755460001</v>
+        <v>3864.10491862</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3179,7 +3183,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3196,22 +3200,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3852</v>
+        <v>3776</v>
       </c>
       <c r="C67" t="n">
-        <v>3843</v>
+        <v>3776</v>
       </c>
       <c r="D67" t="n">
-        <v>3853</v>
+        <v>3776</v>
       </c>
       <c r="E67" t="n">
-        <v>3843</v>
+        <v>3776</v>
       </c>
       <c r="F67" t="n">
-        <v>95.9639</v>
+        <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>2723.33585546</v>
+        <v>3882.10491862</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3238,22 +3242,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3843</v>
+        <v>3776</v>
       </c>
       <c r="C68" t="n">
-        <v>3843</v>
+        <v>3777</v>
       </c>
       <c r="D68" t="n">
-        <v>3843</v>
+        <v>3777</v>
       </c>
       <c r="E68" t="n">
-        <v>3843</v>
+        <v>3776</v>
       </c>
       <c r="F68" t="n">
-        <v>8.011200000000001</v>
+        <v>45.5799</v>
       </c>
       <c r="G68" t="n">
-        <v>2723.33585546</v>
+        <v>3927.68481862</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3263,7 +3267,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3280,22 +3284,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3813</v>
+        <v>3777</v>
       </c>
       <c r="C69" t="n">
-        <v>3857</v>
+        <v>3777</v>
       </c>
       <c r="D69" t="n">
-        <v>3857</v>
+        <v>3777</v>
       </c>
       <c r="E69" t="n">
-        <v>3813</v>
+        <v>3777</v>
       </c>
       <c r="F69" t="n">
-        <v>69.756</v>
+        <v>68.48</v>
       </c>
       <c r="G69" t="n">
-        <v>2793.09185546</v>
+        <v>3927.68481862</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3305,7 +3309,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3322,22 +3326,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="C70" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="D70" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="E70" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="F70" t="n">
-        <v>42.1</v>
+        <v>15.1</v>
       </c>
       <c r="G70" t="n">
-        <v>2835.19185546</v>
+        <v>3927.68481862</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3347,7 +3351,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3364,22 +3368,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="C71" t="n">
-        <v>3866</v>
+        <v>3778</v>
       </c>
       <c r="D71" t="n">
-        <v>3866</v>
+        <v>3778</v>
       </c>
       <c r="E71" t="n">
-        <v>3866</v>
+        <v>3777</v>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>296.6735</v>
       </c>
       <c r="G71" t="n">
-        <v>2835.19185546</v>
+        <v>4224.35831862</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3389,7 +3393,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3406,22 +3410,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3820</v>
+        <v>3778</v>
       </c>
       <c r="C72" t="n">
-        <v>3866</v>
+        <v>3779</v>
       </c>
       <c r="D72" t="n">
-        <v>3866</v>
+        <v>3779</v>
       </c>
       <c r="E72" t="n">
-        <v>3820</v>
+        <v>3778</v>
       </c>
       <c r="F72" t="n">
-        <v>26.6</v>
+        <v>72.8899</v>
       </c>
       <c r="G72" t="n">
-        <v>2835.19185546</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3431,7 +3435,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3448,22 +3452,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3866</v>
+        <v>3779</v>
       </c>
       <c r="C73" t="n">
-        <v>3868</v>
+        <v>3779</v>
       </c>
       <c r="D73" t="n">
-        <v>3868</v>
+        <v>3779</v>
       </c>
       <c r="E73" t="n">
-        <v>3866</v>
+        <v>3779</v>
       </c>
       <c r="F73" t="n">
-        <v>175</v>
+        <v>9.5999</v>
       </c>
       <c r="G73" t="n">
-        <v>3010.19185546</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3473,7 +3477,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3490,22 +3494,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="C74" t="n">
-        <v>3868</v>
+        <v>3779</v>
       </c>
       <c r="D74" t="n">
-        <v>3868</v>
+        <v>3779</v>
       </c>
       <c r="E74" t="n">
-        <v>3867</v>
+        <v>3779</v>
       </c>
       <c r="F74" t="n">
-        <v>49.2091</v>
+        <v>15.1</v>
       </c>
       <c r="G74" t="n">
-        <v>3010.19185546</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3515,7 +3519,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3532,22 +3536,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3889</v>
+        <v>3779</v>
       </c>
       <c r="C75" t="n">
-        <v>3892</v>
+        <v>3779</v>
       </c>
       <c r="D75" t="n">
-        <v>3892</v>
+        <v>3779</v>
       </c>
       <c r="E75" t="n">
-        <v>3889</v>
+        <v>3779</v>
       </c>
       <c r="F75" t="n">
-        <v>562.5029</v>
+        <v>56.3299</v>
       </c>
       <c r="G75" t="n">
-        <v>3572.69475546</v>
+        <v>4297.24821862</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3557,7 +3561,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3574,22 +3578,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3892</v>
+        <v>3779</v>
       </c>
       <c r="C76" t="n">
-        <v>3962</v>
+        <v>3780</v>
       </c>
       <c r="D76" t="n">
-        <v>3962</v>
+        <v>3780</v>
       </c>
       <c r="E76" t="n">
-        <v>3892</v>
+        <v>3779</v>
       </c>
       <c r="F76" t="n">
-        <v>2136.7184</v>
+        <v>99.4546</v>
       </c>
       <c r="G76" t="n">
-        <v>5709.413155460001</v>
+        <v>4396.70281862</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3599,7 +3603,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3616,22 +3620,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3962</v>
+        <v>3789</v>
       </c>
       <c r="C77" t="n">
-        <v>3963</v>
+        <v>3789</v>
       </c>
       <c r="D77" t="n">
-        <v>3963</v>
+        <v>3789</v>
       </c>
       <c r="E77" t="n">
-        <v>3962</v>
+        <v>3789</v>
       </c>
       <c r="F77" t="n">
-        <v>486</v>
+        <v>11.7316</v>
       </c>
       <c r="G77" t="n">
-        <v>6195.413155460001</v>
+        <v>4408.434418620001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3641,7 +3645,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3658,22 +3662,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3962</v>
+        <v>3766</v>
       </c>
       <c r="C78" t="n">
-        <v>3896</v>
+        <v>3766</v>
       </c>
       <c r="D78" t="n">
-        <v>3962</v>
+        <v>3766</v>
       </c>
       <c r="E78" t="n">
-        <v>3896</v>
+        <v>3766</v>
       </c>
       <c r="F78" t="n">
-        <v>121.3</v>
+        <v>5.2153</v>
       </c>
       <c r="G78" t="n">
-        <v>6074.113155460001</v>
+        <v>4403.219118620001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3683,7 +3687,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3700,22 +3704,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3961</v>
+        <v>3794</v>
       </c>
       <c r="C79" t="n">
-        <v>3969</v>
+        <v>3794</v>
       </c>
       <c r="D79" t="n">
-        <v>3969</v>
+        <v>3794</v>
       </c>
       <c r="E79" t="n">
-        <v>3961</v>
+        <v>3794</v>
       </c>
       <c r="F79" t="n">
-        <v>1068.1496</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>7142.26275546</v>
+        <v>4403.319118620001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3725,7 +3729,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3742,22 +3746,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3969</v>
+        <v>3794</v>
       </c>
       <c r="C80" t="n">
-        <v>4000</v>
+        <v>3797</v>
       </c>
       <c r="D80" t="n">
-        <v>4000</v>
+        <v>3797</v>
       </c>
       <c r="E80" t="n">
-        <v>3969</v>
+        <v>3794</v>
       </c>
       <c r="F80" t="n">
-        <v>3100.4944</v>
+        <v>22.9</v>
       </c>
       <c r="G80" t="n">
-        <v>10242.75715546</v>
+        <v>4426.219118620001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3767,7 +3771,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3784,22 +3788,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4000</v>
+        <v>3797</v>
       </c>
       <c r="C81" t="n">
-        <v>4003</v>
+        <v>3797</v>
       </c>
       <c r="D81" t="n">
-        <v>4041</v>
+        <v>3797</v>
       </c>
       <c r="E81" t="n">
-        <v>3999</v>
+        <v>3797</v>
       </c>
       <c r="F81" t="n">
-        <v>1544.0513</v>
+        <v>59.08</v>
       </c>
       <c r="G81" t="n">
-        <v>11786.80845546</v>
+        <v>4426.219118620001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3809,7 +3813,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3826,22 +3830,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4003</v>
+        <v>3797</v>
       </c>
       <c r="C82" t="n">
-        <v>4060</v>
+        <v>3809</v>
       </c>
       <c r="D82" t="n">
-        <v>4062</v>
+        <v>3809</v>
       </c>
       <c r="E82" t="n">
-        <v>4003</v>
+        <v>3797</v>
       </c>
       <c r="F82" t="n">
-        <v>571.6998</v>
+        <v>348.0656</v>
       </c>
       <c r="G82" t="n">
-        <v>12358.50825546</v>
+        <v>4774.284718620001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3851,7 +3855,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3868,22 +3872,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4060</v>
+        <v>3809</v>
       </c>
       <c r="C83" t="n">
-        <v>4020</v>
+        <v>3815</v>
       </c>
       <c r="D83" t="n">
-        <v>4077</v>
+        <v>3815</v>
       </c>
       <c r="E83" t="n">
-        <v>4015</v>
+        <v>3809</v>
       </c>
       <c r="F83" t="n">
-        <v>2349.1368</v>
+        <v>12.6813</v>
       </c>
       <c r="G83" t="n">
-        <v>10009.37145546</v>
+        <v>4786.966018620001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3893,7 +3897,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3910,22 +3914,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4021</v>
+        <v>3815</v>
       </c>
       <c r="C84" t="n">
-        <v>4044</v>
+        <v>3815</v>
       </c>
       <c r="D84" t="n">
-        <v>4049</v>
+        <v>3815</v>
       </c>
       <c r="E84" t="n">
-        <v>4021</v>
+        <v>3815</v>
       </c>
       <c r="F84" t="n">
-        <v>146.6389</v>
+        <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>10156.01035546</v>
+        <v>4786.966018620001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3935,7 +3939,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3952,22 +3956,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4044</v>
+        <v>3815</v>
       </c>
       <c r="C85" t="n">
-        <v>4059</v>
+        <v>3839</v>
       </c>
       <c r="D85" t="n">
-        <v>4059</v>
+        <v>3839</v>
       </c>
       <c r="E85" t="n">
-        <v>4044</v>
+        <v>3815</v>
       </c>
       <c r="F85" t="n">
-        <v>312.3795</v>
+        <v>41.3006</v>
       </c>
       <c r="G85" t="n">
-        <v>10468.38985546</v>
+        <v>4828.26661862</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3977,7 +3981,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3994,22 +3998,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4045</v>
+        <v>3839</v>
       </c>
       <c r="C86" t="n">
-        <v>4019</v>
+        <v>3839</v>
       </c>
       <c r="D86" t="n">
-        <v>4045</v>
+        <v>3839</v>
       </c>
       <c r="E86" t="n">
-        <v>4019</v>
+        <v>3839</v>
       </c>
       <c r="F86" t="n">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>10453.38985546</v>
+        <v>4828.26661862</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4019,7 +4023,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4036,22 +4040,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4024</v>
+        <v>3801</v>
       </c>
       <c r="C87" t="n">
-        <v>4024</v>
+        <v>3836</v>
       </c>
       <c r="D87" t="n">
-        <v>4024</v>
+        <v>3836</v>
       </c>
       <c r="E87" t="n">
-        <v>4024</v>
+        <v>3801</v>
       </c>
       <c r="F87" t="n">
-        <v>8.4</v>
+        <v>5.9018</v>
       </c>
       <c r="G87" t="n">
-        <v>10461.78985546</v>
+        <v>4822.364818620001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4061,7 +4065,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4078,22 +4082,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4027</v>
+        <v>3840</v>
       </c>
       <c r="C88" t="n">
-        <v>4026</v>
+        <v>3840</v>
       </c>
       <c r="D88" t="n">
-        <v>4027</v>
+        <v>3840</v>
       </c>
       <c r="E88" t="n">
-        <v>4026</v>
+        <v>3840</v>
       </c>
       <c r="F88" t="n">
-        <v>82.3107</v>
+        <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>10544.10055546</v>
+        <v>4822.464818620001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4103,7 +4107,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4120,22 +4124,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4027</v>
+        <v>3840</v>
       </c>
       <c r="C89" t="n">
-        <v>4027</v>
+        <v>3800</v>
       </c>
       <c r="D89" t="n">
-        <v>4027</v>
+        <v>3870</v>
       </c>
       <c r="E89" t="n">
-        <v>4027</v>
+        <v>3768</v>
       </c>
       <c r="F89" t="n">
-        <v>40.3411</v>
+        <v>1304.595</v>
       </c>
       <c r="G89" t="n">
-        <v>10584.44165546</v>
+        <v>3517.869818620001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4145,7 +4149,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4162,22 +4166,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4027</v>
+        <v>3870</v>
       </c>
       <c r="C90" t="n">
-        <v>4027</v>
+        <v>3796</v>
       </c>
       <c r="D90" t="n">
-        <v>4027</v>
+        <v>3870</v>
       </c>
       <c r="E90" t="n">
-        <v>4027</v>
+        <v>3796</v>
       </c>
       <c r="F90" t="n">
-        <v>964.3812</v>
+        <v>871.2791999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>10584.44165546</v>
+        <v>2646.590618620001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4187,7 +4191,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4204,22 +4208,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4026</v>
+        <v>3804</v>
       </c>
       <c r="C91" t="n">
-        <v>4026</v>
+        <v>3804</v>
       </c>
       <c r="D91" t="n">
-        <v>4026</v>
+        <v>3804</v>
       </c>
       <c r="E91" t="n">
-        <v>4026</v>
+        <v>3804</v>
       </c>
       <c r="F91" t="n">
-        <v>474.7361</v>
+        <v>7.54</v>
       </c>
       <c r="G91" t="n">
-        <v>10109.70555546</v>
+        <v>2654.130618620001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4229,7 +4233,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4246,22 +4250,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4027</v>
+        <v>3870</v>
       </c>
       <c r="C92" t="n">
-        <v>4050</v>
+        <v>3870</v>
       </c>
       <c r="D92" t="n">
-        <v>4050</v>
+        <v>3870</v>
       </c>
       <c r="E92" t="n">
-        <v>4027</v>
+        <v>3870</v>
       </c>
       <c r="F92" t="n">
-        <v>193.0085</v>
+        <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>10302.71405546</v>
+        <v>2654.230618620001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4271,7 +4275,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4288,22 +4292,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4027</v>
+        <v>3867</v>
       </c>
       <c r="C93" t="n">
-        <v>4026</v>
+        <v>3867</v>
       </c>
       <c r="D93" t="n">
-        <v>4027</v>
+        <v>3867</v>
       </c>
       <c r="E93" t="n">
-        <v>4026</v>
+        <v>3867</v>
       </c>
       <c r="F93" t="n">
-        <v>295.93</v>
+        <v>28.4276</v>
       </c>
       <c r="G93" t="n">
-        <v>10006.78405546</v>
+        <v>2625.803018620001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4313,7 +4317,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4330,22 +4334,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4027</v>
+        <v>3862</v>
       </c>
       <c r="C94" t="n">
-        <v>4027</v>
+        <v>3862</v>
       </c>
       <c r="D94" t="n">
-        <v>4047</v>
+        <v>3862</v>
       </c>
       <c r="E94" t="n">
-        <v>4027</v>
+        <v>3862</v>
       </c>
       <c r="F94" t="n">
-        <v>59.0434</v>
+        <v>30.8</v>
       </c>
       <c r="G94" t="n">
-        <v>10065.82745546</v>
+        <v>2595.003018620001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4355,7 +4359,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4372,22 +4376,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4046</v>
+        <v>3862</v>
       </c>
       <c r="C95" t="n">
-        <v>4055</v>
+        <v>3870</v>
       </c>
       <c r="D95" t="n">
-        <v>4055</v>
+        <v>3870</v>
       </c>
       <c r="E95" t="n">
-        <v>4046</v>
+        <v>3862</v>
       </c>
       <c r="F95" t="n">
-        <v>39.8736</v>
+        <v>11.3</v>
       </c>
       <c r="G95" t="n">
-        <v>10105.70105546</v>
+        <v>2606.303018620001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4397,7 +4401,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4414,22 +4418,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4055</v>
+        <v>3870</v>
       </c>
       <c r="C96" t="n">
-        <v>4060</v>
+        <v>3873</v>
       </c>
       <c r="D96" t="n">
-        <v>4060</v>
+        <v>3873</v>
       </c>
       <c r="E96" t="n">
-        <v>4055</v>
+        <v>3870</v>
       </c>
       <c r="F96" t="n">
-        <v>419.4817</v>
+        <v>349.5172</v>
       </c>
       <c r="G96" t="n">
-        <v>10525.18275546</v>
+        <v>2955.820218620001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4439,7 +4443,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4456,22 +4460,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4080</v>
+        <v>3873</v>
       </c>
       <c r="C97" t="n">
-        <v>4080</v>
+        <v>3875</v>
       </c>
       <c r="D97" t="n">
-        <v>4080</v>
+        <v>3875</v>
       </c>
       <c r="E97" t="n">
-        <v>4080</v>
+        <v>3873</v>
       </c>
       <c r="F97" t="n">
-        <v>98.2</v>
+        <v>43.8191</v>
       </c>
       <c r="G97" t="n">
-        <v>10623.38275546</v>
+        <v>2999.639318620001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4481,7 +4485,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4498,22 +4502,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4080</v>
+        <v>3875</v>
       </c>
       <c r="C98" t="n">
-        <v>4042</v>
+        <v>3875</v>
       </c>
       <c r="D98" t="n">
-        <v>4080</v>
+        <v>3875</v>
       </c>
       <c r="E98" t="n">
-        <v>4036</v>
+        <v>3875</v>
       </c>
       <c r="F98" t="n">
-        <v>539.8313000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>10083.55145546</v>
+        <v>2999.639318620001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4523,7 +4527,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4540,22 +4544,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4068</v>
+        <v>3875</v>
       </c>
       <c r="C99" t="n">
-        <v>4047</v>
+        <v>3914</v>
       </c>
       <c r="D99" t="n">
-        <v>4106</v>
+        <v>3914</v>
       </c>
       <c r="E99" t="n">
-        <v>4047</v>
+        <v>3875</v>
       </c>
       <c r="F99" t="n">
-        <v>768.6543</v>
+        <v>12.1963</v>
       </c>
       <c r="G99" t="n">
-        <v>10852.20575546</v>
+        <v>3011.835618620001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4565,7 +4569,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4582,22 +4586,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4139</v>
+        <v>3914</v>
       </c>
       <c r="C100" t="n">
-        <v>4100</v>
+        <v>3914</v>
       </c>
       <c r="D100" t="n">
-        <v>4139</v>
+        <v>3914</v>
       </c>
       <c r="E100" t="n">
-        <v>4099</v>
+        <v>3914</v>
       </c>
       <c r="F100" t="n">
-        <v>402.5452</v>
+        <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>11254.75095546</v>
+        <v>3011.835618620001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4607,7 +4611,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4624,22 +4628,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4099</v>
+        <v>3861</v>
       </c>
       <c r="C101" t="n">
-        <v>4092</v>
+        <v>3911</v>
       </c>
       <c r="D101" t="n">
-        <v>4099</v>
+        <v>3911</v>
       </c>
       <c r="E101" t="n">
-        <v>4092</v>
+        <v>3861</v>
       </c>
       <c r="F101" t="n">
-        <v>11.0347</v>
+        <v>211.1705</v>
       </c>
       <c r="G101" t="n">
-        <v>11243.71625546</v>
+        <v>2800.665118620001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4649,7 +4653,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4666,22 +4670,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4070</v>
+        <v>3863</v>
       </c>
       <c r="C102" t="n">
-        <v>4091</v>
+        <v>3863</v>
       </c>
       <c r="D102" t="n">
-        <v>4091</v>
+        <v>3863</v>
       </c>
       <c r="E102" t="n">
-        <v>4070</v>
+        <v>3863</v>
       </c>
       <c r="F102" t="n">
-        <v>13.8828</v>
+        <v>0.2895</v>
       </c>
       <c r="G102" t="n">
-        <v>11229.83345546</v>
+        <v>2800.375618620001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4691,7 +4695,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4708,22 +4712,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4091</v>
+        <v>3856</v>
       </c>
       <c r="C103" t="n">
-        <v>4140</v>
+        <v>3855</v>
       </c>
       <c r="D103" t="n">
-        <v>4140</v>
+        <v>3856</v>
       </c>
       <c r="E103" t="n">
-        <v>4091</v>
+        <v>3855</v>
       </c>
       <c r="F103" t="n">
-        <v>1576.8927</v>
+        <v>82</v>
       </c>
       <c r="G103" t="n">
-        <v>12806.72615546</v>
+        <v>2718.375618620001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4733,7 +4737,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4750,22 +4754,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4101</v>
+        <v>3858</v>
       </c>
       <c r="C104" t="n">
-        <v>4141</v>
+        <v>3858</v>
       </c>
       <c r="D104" t="n">
-        <v>4141</v>
+        <v>3858</v>
       </c>
       <c r="E104" t="n">
-        <v>4100</v>
+        <v>3858</v>
       </c>
       <c r="F104" t="n">
-        <v>186.9135</v>
+        <v>12.3136</v>
       </c>
       <c r="G104" t="n">
-        <v>12993.63965546</v>
+        <v>2730.689218620001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4775,7 +4779,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4792,22 +4796,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4141</v>
+        <v>3858</v>
       </c>
       <c r="C105" t="n">
-        <v>4159</v>
+        <v>3858</v>
       </c>
       <c r="D105" t="n">
-        <v>4159</v>
+        <v>3858</v>
       </c>
       <c r="E105" t="n">
-        <v>4101</v>
+        <v>3857</v>
       </c>
       <c r="F105" t="n">
-        <v>57.5134</v>
+        <v>17.0029</v>
       </c>
       <c r="G105" t="n">
-        <v>13051.15305546</v>
+        <v>2730.689218620001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4817,7 +4821,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4834,22 +4838,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4159</v>
+        <v>3878</v>
       </c>
       <c r="C106" t="n">
-        <v>4168</v>
+        <v>3878</v>
       </c>
       <c r="D106" t="n">
-        <v>4168</v>
+        <v>3878</v>
       </c>
       <c r="E106" t="n">
-        <v>4157</v>
+        <v>3878</v>
       </c>
       <c r="F106" t="n">
-        <v>1047.7342</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>14098.88725546</v>
+        <v>2734.689218620001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4859,7 +4863,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4876,76 +4880,80 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4173</v>
+        <v>3863</v>
       </c>
       <c r="C107" t="n">
-        <v>4181</v>
+        <v>3864</v>
       </c>
       <c r="D107" t="n">
-        <v>4181</v>
+        <v>3864</v>
       </c>
       <c r="E107" t="n">
-        <v>4123</v>
+        <v>3863</v>
       </c>
       <c r="F107" t="n">
-        <v>499.6397</v>
+        <v>39.487</v>
       </c>
       <c r="G107" t="n">
-        <v>14598.52695546</v>
+        <v>2695.202218620001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3779</v>
+        <v>3720</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1.101377348504896</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4181</v>
+        <v>3830</v>
       </c>
       <c r="C108" t="n">
-        <v>4176</v>
+        <v>3879</v>
       </c>
       <c r="D108" t="n">
-        <v>4181</v>
+        <v>3879</v>
       </c>
       <c r="E108" t="n">
-        <v>4139</v>
+        <v>3827</v>
       </c>
       <c r="F108" t="n">
-        <v>1483.0744</v>
+        <v>590.2285000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>13115.45255546</v>
+        <v>3285.430718620001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4956,32 +4964,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4179</v>
+        <v>3875</v>
       </c>
       <c r="C109" t="n">
-        <v>4185</v>
+        <v>3875</v>
       </c>
       <c r="D109" t="n">
-        <v>4185</v>
+        <v>3875</v>
       </c>
       <c r="E109" t="n">
-        <v>4179</v>
+        <v>3875</v>
       </c>
       <c r="F109" t="n">
-        <v>13.3215</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>13128.77405546</v>
+        <v>3207.860718620001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4992,36 +5006,2990 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>3844</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3875</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3875</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3844</v>
+      </c>
+      <c r="F110" t="n">
+        <v>168.8159</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3207.860718620001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3871</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3871</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3871</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3871</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3196.940718620001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3869</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3869</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3869</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3869</v>
+      </c>
+      <c r="F112" t="n">
+        <v>77.92</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3119.02071862</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3872</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3872</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3872</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3872</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8.1906</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3127.21131862</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3880</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3880</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3880</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3880</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3137.21131862</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3906</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3905</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3906</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3905</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4.31522432</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3141.526542940001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3909</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3874</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3909</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3874</v>
+      </c>
+      <c r="F116" t="n">
+        <v>58.3106</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3083.215942940001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3909</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3909</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3909</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3909</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3083.315942940001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3873</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3873</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3873</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3873</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.8094</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3082.506542940001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3853</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3853</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3853</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3852</v>
+      </c>
+      <c r="F119" t="n">
+        <v>111.6502</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2970.856342940001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3852</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3852</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3852</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3852</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2965.486342940001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3904</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3904</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3904</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2969.486342940001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3883</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3883</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3883</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3883</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.00206026</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2965.484282680001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3897</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3897</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3897</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3897</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2969.484282680001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3894</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3894</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3894</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3894</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.00102722</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2965.483255460001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3867</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F125" t="n">
+        <v>87.3219</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2878.161355460001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3866</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3866</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F126" t="n">
+        <v>167.2461</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2878.161355460001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3864</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3864</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3864</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3864</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2874.161355460001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3843</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3843</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3843</v>
+      </c>
+      <c r="F128" t="n">
+        <v>54.7068</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2819.454555460001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3843</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3843</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3843</v>
+      </c>
+      <c r="F129" t="n">
+        <v>39.2052</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2819.454555460001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3845</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3845</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3845</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3845</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.5377</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2821.992255460001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3865</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3865</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3865</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3865</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2825.992255460001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3865</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3865</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3865</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3865</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2825.992255460001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3846</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3845</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3846</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3845</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22.5925</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2803.399755460001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3863</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3863</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3863</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3863</v>
+      </c>
+      <c r="F134" t="n">
+        <v>40</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2843.399755460001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3863</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3865</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3865</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3863</v>
+      </c>
+      <c r="F135" t="n">
+        <v>40</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2883.399755460001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3845</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3844</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3845</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3844</v>
+      </c>
+      <c r="F136" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2819.299755460001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3844</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3844</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3844</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3844</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10.7505</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2819.299755460001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3852</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3843</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3853</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3843</v>
+      </c>
+      <c r="F138" t="n">
+        <v>95.9639</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2723.33585546</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3843</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3843</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3843</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.011200000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2723.33585546</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3813</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3857</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3857</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3813</v>
+      </c>
+      <c r="F140" t="n">
+        <v>69.756</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2793.09185546</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3866</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3866</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F141" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2835.19185546</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3866</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3866</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2835.19185546</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3820</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3866</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3820</v>
+      </c>
+      <c r="F143" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2835.19185546</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3866</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3868</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3868</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F144" t="n">
+        <v>175</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3010.19185546</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3867</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3868</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3868</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3867</v>
+      </c>
+      <c r="F145" t="n">
+        <v>49.2091</v>
+      </c>
+      <c r="G145" t="n">
+        <v>3010.19185546</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3889</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3892</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3892</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3889</v>
+      </c>
+      <c r="F146" t="n">
+        <v>562.5029</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3572.69475546</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3892</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3962</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3962</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3892</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2136.7184</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5709.413155460001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3962</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3963</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3963</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3962</v>
+      </c>
+      <c r="F148" t="n">
+        <v>486</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6195.413155460001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3962</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3896</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3962</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3896</v>
+      </c>
+      <c r="F149" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6074.113155460001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3961</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3969</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3969</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3961</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1068.1496</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7142.26275546</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3969</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3969</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3100.4944</v>
+      </c>
+      <c r="G151" t="n">
+        <v>10242.75715546</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4041</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1544.0513</v>
+      </c>
+      <c r="G152" t="n">
+        <v>11786.80845546</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4060</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4062</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4003</v>
+      </c>
+      <c r="F153" t="n">
+        <v>571.6998</v>
+      </c>
+      <c r="G153" t="n">
+        <v>12358.50825546</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4020</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4077</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4015</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2349.1368</v>
+      </c>
+      <c r="G154" t="n">
+        <v>10009.37145546</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4021</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4044</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4049</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4021</v>
+      </c>
+      <c r="F155" t="n">
+        <v>146.6389</v>
+      </c>
+      <c r="G155" t="n">
+        <v>10156.01035546</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4044</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4059</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4044</v>
+      </c>
+      <c r="F156" t="n">
+        <v>312.3795</v>
+      </c>
+      <c r="G156" t="n">
+        <v>10468.38985546</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4019</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4019</v>
+      </c>
+      <c r="F157" t="n">
+        <v>15</v>
+      </c>
+      <c r="G157" t="n">
+        <v>10453.38985546</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4024</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4024</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4024</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4024</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G158" t="n">
+        <v>10461.78985546</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F159" t="n">
+        <v>82.3107</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10544.10055546</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F160" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="G160" t="n">
+        <v>10584.44165546</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F161" t="n">
+        <v>964.3812</v>
+      </c>
+      <c r="G161" t="n">
+        <v>10584.44165546</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4026</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4026</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F162" t="n">
+        <v>474.7361</v>
+      </c>
+      <c r="G162" t="n">
+        <v>10109.70555546</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F163" t="n">
+        <v>193.0085</v>
+      </c>
+      <c r="G163" t="n">
+        <v>10302.71405546</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4027</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4026</v>
+      </c>
+      <c r="F164" t="n">
+        <v>295.93</v>
+      </c>
+      <c r="G164" t="n">
+        <v>10006.78405546</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4027</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4027</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4047</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F165" t="n">
+        <v>59.0434</v>
+      </c>
+      <c r="G165" t="n">
+        <v>10065.82745546</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4046</v>
+      </c>
+      <c r="F166" t="n">
+        <v>39.8736</v>
+      </c>
+      <c r="G166" t="n">
+        <v>10105.70105546</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4055</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4060</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4060</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F167" t="n">
+        <v>419.4817</v>
+      </c>
+      <c r="G167" t="n">
+        <v>10525.18275546</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4080</v>
+      </c>
+      <c r="F168" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>10623.38275546</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4042</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4036</v>
+      </c>
+      <c r="F169" t="n">
+        <v>539.8313000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>10083.55145546</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4047</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4106</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4047</v>
+      </c>
+      <c r="F170" t="n">
+        <v>768.6543</v>
+      </c>
+      <c r="G170" t="n">
+        <v>10852.20575546</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4099</v>
+      </c>
+      <c r="F171" t="n">
+        <v>402.5452</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11254.75095546</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4099</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4092</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4092</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11.0347</v>
+      </c>
+      <c r="G172" t="n">
+        <v>11243.71625546</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4070</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4091</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4091</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4070</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13.8828</v>
+      </c>
+      <c r="G173" t="n">
+        <v>11229.83345546</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4091</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4140</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4091</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1576.8927</v>
+      </c>
+      <c r="G174" t="n">
+        <v>12806.72615546</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4141</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F175" t="n">
+        <v>186.9135</v>
+      </c>
+      <c r="G175" t="n">
+        <v>12993.63965546</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1.108172043010753</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.002965758964681</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4159</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4159</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4101</v>
+      </c>
+      <c r="F176" t="n">
+        <v>57.5134</v>
+      </c>
+      <c r="G176" t="n">
+        <v>13051.15305546</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4159</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4168</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1047.7342</v>
+      </c>
+      <c r="G177" t="n">
+        <v>14098.88725546</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4173</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4181</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4123</v>
+      </c>
+      <c r="F178" t="n">
+        <v>499.6397</v>
+      </c>
+      <c r="G178" t="n">
+        <v>14598.52695546</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4181</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4176</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4181</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4139</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1483.0744</v>
+      </c>
+      <c r="G179" t="n">
+        <v>13115.45255546</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4179</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4185</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4179</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13.3215</v>
+      </c>
+      <c r="G180" t="n">
+        <v>13128.77405546</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>4182</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C181" t="n">
         <v>4184</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D181" t="n">
         <v>4185</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E181" t="n">
         <v>4182</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F181" t="n">
         <v>228.3784</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G181" t="n">
         <v>12900.39565546</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>3548.62581862</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>3548.32581862</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="J3" t="n">
         <v>3720</v>
       </c>
-      <c r="K3" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3709</v>
       </c>
       <c r="J4" t="n">
-        <v>3709</v>
-      </c>
-      <c r="K4" t="n">
         <v>3720</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J5" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K5" t="n">
         <v>3720</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J6" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K6" t="n">
         <v>3720</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J7" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K7" t="n">
         <v>3720</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J8" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K8" t="n">
         <v>3720</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J9" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K9" t="n">
         <v>3720</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>3598.17571862</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="J10" t="n">
-        <v>3710</v>
-      </c>
-      <c r="K10" t="n">
         <v>3720</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="J11" t="n">
-        <v>3677</v>
-      </c>
-      <c r="K11" t="n">
         <v>3720</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>3601.43571862</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3699</v>
       </c>
       <c r="J12" t="n">
-        <v>3699</v>
-      </c>
-      <c r="K12" t="n">
         <v>3720</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3699</v>
       </c>
       <c r="J13" t="n">
-        <v>3699</v>
-      </c>
-      <c r="K13" t="n">
         <v>3720</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>3601.43571862</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3699</v>
       </c>
       <c r="J14" t="n">
-        <v>3699</v>
-      </c>
-      <c r="K14" t="n">
         <v>3720</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3699</v>
       </c>
       <c r="J15" t="n">
-        <v>3699</v>
-      </c>
-      <c r="K15" t="n">
         <v>3720</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1013,23 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="J16" t="n">
-        <v>3690</v>
-      </c>
-      <c r="K16" t="n">
         <v>3720</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1054,23 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="J17" t="n">
-        <v>3690</v>
-      </c>
-      <c r="K17" t="n">
         <v>3720</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1095,23 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="J18" t="n">
-        <v>3690</v>
-      </c>
-      <c r="K18" t="n">
         <v>3720</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1136,23 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="J19" t="n">
-        <v>3700</v>
-      </c>
-      <c r="K19" t="n">
         <v>3720</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1177,23 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="J20" t="n">
-        <v>3700</v>
-      </c>
-      <c r="K20" t="n">
         <v>3720</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1218,21 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>3700</v>
-      </c>
-      <c r="K21" t="n">
         <v>3720</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,26 +1257,21 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>3705</v>
-      </c>
-      <c r="K22" t="n">
         <v>3720</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,26 +1296,21 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>3705</v>
-      </c>
-      <c r="K23" t="n">
         <v>3720</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1414,22 +1337,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>3720</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1456,22 +1376,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>3720</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1498,22 +1415,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>3720</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1540,22 +1454,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>3720</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1582,22 +1493,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>3720</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1624,22 +1532,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>3720</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1666,22 +1571,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>3720</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1708,22 +1610,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>3720</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1750,22 +1649,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>3720</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,22 +1688,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>3720</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1834,22 +1727,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>3720</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1874,24 +1764,21 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>3720</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.9966129032258065</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,24 +1803,15 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1958,24 +1836,15 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,24 +1869,15 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2042,24 +1902,15 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2084,24 +1935,15 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2128,22 +1970,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2170,22 +2003,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,24 +2034,15 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2254,22 +2069,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,24 +2100,15 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2338,22 +2135,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,24 +2166,15 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,24 +2199,15 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,24 +2232,15 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2504,24 +2265,15 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,24 +2298,15 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2590,22 +2333,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2632,22 +2366,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2674,22 +2399,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,24 +2430,15 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2758,22 +2465,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2798,24 +2496,15 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,24 +2529,15 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2882,24 +2562,15 @@
         <v>4761.736218620001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2924,24 +2595,15 @@
         <v>4762.11691862</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2966,24 +2628,15 @@
         <v>4747.01691862</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3008,24 +2661,15 @@
         <v>4747.01691862</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3050,24 +2694,15 @@
         <v>4827.12481862</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3092,24 +2727,15 @@
         <v>4824.89511862</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3134,24 +2760,15 @@
         <v>3765.09641862</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3178,22 +2795,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3218,24 +2826,15 @@
         <v>3882.10491862</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3260,24 +2859,15 @@
         <v>3927.68481862</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3302,24 +2892,15 @@
         <v>3927.68481862</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3344,24 +2925,15 @@
         <v>3927.68481862</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3386,24 +2958,15 @@
         <v>4224.35831862</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3428,24 +2991,15 @@
         <v>4297.24821862</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3470,24 +3024,15 @@
         <v>4297.24821862</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3512,24 +3057,15 @@
         <v>4297.24821862</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3554,24 +3090,15 @@
         <v>4297.24821862</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3596,24 +3123,15 @@
         <v>4396.70281862</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3638,24 +3156,15 @@
         <v>4408.434418620001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3680,24 +3189,15 @@
         <v>4403.219118620001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3722,24 +3222,15 @@
         <v>4403.319118620001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3764,24 +3255,15 @@
         <v>4426.219118620001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,24 +3288,15 @@
         <v>4426.219118620001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,24 +3321,15 @@
         <v>4774.284718620001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,24 +3354,15 @@
         <v>4786.966018620001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,24 +3387,15 @@
         <v>4786.966018620001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,24 +3420,15 @@
         <v>4828.26661862</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,24 +3453,15 @@
         <v>4828.26661862</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,24 +3486,15 @@
         <v>4822.364818620001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,24 +3519,15 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,24 +3552,15 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4184,24 +3585,15 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4226,24 +3618,15 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,24 +3651,15 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4310,24 +3684,15 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4352,24 +3717,15 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4394,24 +3750,15 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,24 +3783,15 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4478,24 +3816,15 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4520,24 +3849,15 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4562,24 +3882,15 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4604,24 +3915,15 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4646,24 +3948,15 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4688,24 +3981,15 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4730,24 +4014,15 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4772,24 +4047,15 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4814,24 +4080,15 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4856,24 +4113,15 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4900,22 +4148,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4942,22 +4181,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4984,22 +4214,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5024,24 +4245,15 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5066,24 +4278,15 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5110,22 +4313,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5150,24 +4344,15 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5192,24 +4377,15 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5236,22 +4412,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5278,22 +4445,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5320,22 +4478,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5362,22 +4511,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5402,24 +4542,15 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5446,22 +4577,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5488,22 +4610,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5530,22 +4643,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5572,22 +4676,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5614,22 +4709,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5656,22 +4742,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5698,22 +4775,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5740,22 +4808,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5782,22 +4841,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5824,22 +4874,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5866,22 +4907,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5908,22 +4940,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5950,22 +4973,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5992,22 +5006,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6034,22 +5039,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6076,22 +5072,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6116,24 +5103,15 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6160,22 +5138,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6202,22 +5171,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6244,22 +5204,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6284,24 +5235,15 @@
         <v>2793.09185546</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6326,24 +5268,15 @@
         <v>2835.19185546</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6370,22 +5303,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6410,24 +5334,15 @@
         <v>2835.19185546</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6452,24 +5367,15 @@
         <v>3010.19185546</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6494,24 +5400,15 @@
         <v>3010.19185546</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6538,22 +5435,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6578,24 +5466,15 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6620,24 +5499,15 @@
         <v>6195.413155460001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6662,24 +5532,15 @@
         <v>6074.113155460001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6706,22 +5567,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6746,24 +5598,15 @@
         <v>10242.75715546</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6788,24 +5631,15 @@
         <v>11786.80845546</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6832,22 +5666,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6874,22 +5699,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6916,22 +5732,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6956,24 +5763,15 @@
         <v>10468.38985546</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7000,22 +5798,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7042,22 +5831,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7084,22 +5864,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7126,22 +5897,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7168,22 +5930,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7210,22 +5963,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7252,22 +5996,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7294,22 +6029,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7336,22 +6062,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7376,24 +6093,15 @@
         <v>10105.70105546</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7420,22 +6128,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7460,24 +6159,15 @@
         <v>10623.38275546</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7502,24 +6192,15 @@
         <v>10083.55145546</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7544,24 +6225,15 @@
         <v>10852.20575546</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7586,24 +6258,15 @@
         <v>11254.75095546</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7628,24 +6291,15 @@
         <v>11243.71625546</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7670,24 +6324,15 @@
         <v>11229.83345546</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7712,24 +6357,15 @@
         <v>12806.72615546</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7754,26 +6390,15 @@
         <v>12993.63965546</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3720</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1.108172043010753</v>
-      </c>
-      <c r="N175" t="n">
-        <v>1.002965758964681</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7798,18 +6423,15 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7834,18 +6456,15 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7870,18 +6489,15 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7906,18 +6522,15 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7942,18 +6555,15 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7978,20 +6588,17 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3548.62581862</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3548.32581862</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3720</v>
@@ -521,7 +521,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3709</v>
@@ -562,7 +562,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3710</v>
@@ -603,7 +603,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3710</v>
@@ -644,7 +644,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3710</v>
@@ -685,7 +685,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3710</v>
@@ -726,7 +726,7 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3710</v>
@@ -767,7 +767,7 @@
         <v>3598.17571862</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3710</v>
@@ -808,7 +808,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3677</v>
@@ -849,7 +849,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3699</v>
@@ -890,7 +890,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3699</v>
@@ -931,7 +931,7 @@
         <v>3601.43571862</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3699</v>
@@ -972,7 +972,7 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3699</v>
@@ -1013,7 +1013,7 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3690</v>
@@ -1054,7 +1054,7 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3690</v>
@@ -1095,7 +1095,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3690</v>
@@ -1136,7 +1136,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3700</v>
@@ -1177,7 +1177,7 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3700</v>
@@ -1218,9 +1218,11 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3700</v>
+      </c>
       <c r="J21" t="n">
         <v>3720</v>
       </c>
@@ -1257,9 +1259,11 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3705</v>
+      </c>
       <c r="J22" t="n">
         <v>3720</v>
       </c>
@@ -1296,9 +1300,11 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3705</v>
+      </c>
       <c r="J23" t="n">
         <v>3720</v>
       </c>
@@ -1335,9 +1341,11 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3705</v>
+      </c>
       <c r="J24" t="n">
         <v>3720</v>
       </c>
@@ -1413,9 +1421,11 @@
         <v>4022.511418620001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3720</v>
+      </c>
       <c r="J26" t="n">
         <v>3720</v>
       </c>
@@ -1725,9 +1735,11 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3708</v>
+      </c>
       <c r="J34" t="n">
         <v>3720</v>
       </c>
@@ -1764,19 +1776,21 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3726</v>
+      </c>
       <c r="J35" t="n">
         <v>3720</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.9966129032258065</v>
+        <v>1</v>
       </c>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1803,11 +1817,19 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3726</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1836,11 +1858,19 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1869,11 +1899,19 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1902,11 +1940,19 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1981,19 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1971,8 +2025,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2004,8 +2064,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2034,11 +2100,17 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2070,8 +2142,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2100,11 +2178,17 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2136,8 +2220,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +2256,17 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2199,11 +2295,17 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2232,11 +2334,17 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2265,11 +2373,17 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2298,11 +2412,17 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2334,8 +2454,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2367,8 +2493,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2400,8 +2532,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2430,11 +2568,17 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2466,8 +2610,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2646,17 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2685,17 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2724,17 @@
         <v>4761.736218620001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2763,17 @@
         <v>4762.11691862</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2628,11 +2802,17 @@
         <v>4747.01691862</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2661,11 +2841,17 @@
         <v>4747.01691862</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2694,11 +2880,17 @@
         <v>4827.12481862</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2727,11 +2919,17 @@
         <v>4824.89511862</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2958,17 @@
         <v>3765.09641862</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2796,8 +3000,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2826,11 +3036,17 @@
         <v>3882.10491862</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2859,11 +3075,17 @@
         <v>3927.68481862</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2892,11 +3114,17 @@
         <v>3927.68481862</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2925,11 +3153,17 @@
         <v>3927.68481862</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2958,11 +3192,17 @@
         <v>4224.35831862</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2991,11 +3231,17 @@
         <v>4297.24821862</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +3270,17 @@
         <v>4297.24821862</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +3309,17 @@
         <v>4297.24821862</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +3348,17 @@
         <v>4297.24821862</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3123,11 +3387,17 @@
         <v>4396.70281862</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3156,11 +3426,17 @@
         <v>4408.434418620001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3189,11 +3465,17 @@
         <v>4403.219118620001</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3222,11 +3504,17 @@
         <v>4403.319118620001</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3255,11 +3543,17 @@
         <v>4426.219118620001</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3288,11 +3582,17 @@
         <v>4426.219118620001</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +3621,17 @@
         <v>4774.284718620001</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3660,17 @@
         <v>4786.966018620001</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3699,17 @@
         <v>4786.966018620001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3738,17 @@
         <v>4828.26661862</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3777,17 @@
         <v>4828.26661862</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3816,17 @@
         <v>4822.364818620001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3855,17 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3894,17 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +3933,17 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3972,17 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +4011,17 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +4050,17 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +4089,17 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +4128,17 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +4167,17 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +4206,17 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +4245,17 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3882,11 +4284,17 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3915,11 +4323,17 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3948,11 +4362,17 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +4401,17 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4014,11 +4440,17 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +4479,19 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3855</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4080,11 +4520,17 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4113,11 +4559,17 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4149,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4182,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4215,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +4715,17 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4754,17 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4793,19 @@
         <v>3119.02071862</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3871</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4344,11 +4834,17 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4873,17 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4413,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4446,8 +4954,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4479,8 +4993,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4512,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +5068,17 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +5107,19 @@
         <v>2965.486342940001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3853</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +5148,19 @@
         <v>2969.486342940001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3852</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +5306,19 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3894</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4773,11 +5347,19 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3866</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4806,11 +5388,19 @@
         <v>2874.161355460001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3866</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +5429,19 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3864</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +5470,19 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3843</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +5511,19 @@
         <v>2821.992255460001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3843</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +5552,19 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3845</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4971,11 +5593,19 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3865</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5634,19 @@
         <v>2803.399755460001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3865</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +5675,19 @@
         <v>2843.399755460001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3845</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +5716,19 @@
         <v>2883.399755460001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3863</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5105,9 +5759,17 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>3865</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5798,19 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3844</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5839,19 @@
         <v>2723.33585546</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3844</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5880,19 @@
         <v>2723.33585546</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3843</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5237,9 +5923,17 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>3843</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5270,9 +5964,17 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>3857</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +6003,19 @@
         <v>2835.19185546</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3866</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5336,9 +6046,17 @@
       <c r="H143" t="n">
         <v>1</v>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>3866</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5369,9 +6087,17 @@
       <c r="H144" t="n">
         <v>1</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>3866</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5402,9 +6128,17 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>3868</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +6167,19 @@
         <v>3572.69475546</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3868</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +6208,17 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +6247,17 @@
         <v>6195.413155460001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +6286,17 @@
         <v>6074.113155460001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +6364,17 @@
         <v>10242.75715546</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +6403,17 @@
         <v>11786.80845546</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5667,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +6559,17 @@
         <v>10468.38985546</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5799,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +6949,17 @@
         <v>10105.70105546</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +7027,17 @@
         <v>10623.38275546</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +7066,17 @@
         <v>10083.55145546</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +7105,17 @@
         <v>10852.20575546</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6258,11 +7144,17 @@
         <v>11254.75095546</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6291,15 +7183,23 @@
         <v>11243.71625546</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>1.095</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.002965758964681</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6324,7 +7224,7 @@
         <v>11229.83345546</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6357,7 +7257,7 @@
         <v>12806.72615546</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6390,7 +7290,7 @@
         <v>12993.63965546</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6423,7 +7323,7 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6456,7 +7356,7 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6489,7 +7389,7 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6522,7 +7422,7 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6555,7 +7455,7 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6588,7 +7488,7 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6599,6 +7499,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3710</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>3720</v>
       </c>
@@ -726,11 +724,9 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3710</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>3720</v>
       </c>
@@ -808,11 +804,9 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3677</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>3720</v>
       </c>
@@ -890,11 +884,9 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3699</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>3720</v>
       </c>
@@ -972,21 +964,19 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3699</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>3720</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9869354838709677</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -1018,12 +1008,10 @@
       <c r="I16" t="n">
         <v>3690</v>
       </c>
-      <c r="J16" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1059,9 +1047,7 @@
       <c r="I17" t="n">
         <v>3690</v>
       </c>
-      <c r="J17" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1100,9 +1086,7 @@
       <c r="I18" t="n">
         <v>3690</v>
       </c>
-      <c r="J18" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1136,14 +1120,10 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3700</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3720</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1182,9 +1162,7 @@
       <c r="I20" t="n">
         <v>3700</v>
       </c>
-      <c r="J20" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1218,14 +1196,10 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3700</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,14 +1233,10 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3705</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,14 +1270,10 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3705</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,9 +1312,7 @@
       <c r="I24" t="n">
         <v>3705</v>
       </c>
-      <c r="J24" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1385,9 +1349,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,14 +1383,10 @@
         <v>4022.511418620001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3720</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,12 +1420,12 @@
         <v>3964.741418620001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3728</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1501,12 +1459,12 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1540,12 +1498,12 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3726</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1579,12 +1537,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3726</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,12 +1576,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,12 +1615,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1696,12 +1654,12 @@
         <v>4011.031418620001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,9 +1698,7 @@
       <c r="I34" t="n">
         <v>3708</v>
       </c>
-      <c r="J34" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1781,9 +1737,7 @@
       <c r="I35" t="n">
         <v>3726</v>
       </c>
-      <c r="J35" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,9 +1776,7 @@
       <c r="I36" t="n">
         <v>3726</v>
       </c>
-      <c r="J36" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1863,9 +1815,7 @@
       <c r="I37" t="n">
         <v>3727</v>
       </c>
-      <c r="J37" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1904,9 +1854,7 @@
       <c r="I38" t="n">
         <v>3727</v>
       </c>
-      <c r="J38" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1945,9 +1893,7 @@
       <c r="I39" t="n">
         <v>3727</v>
       </c>
-      <c r="J39" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,9 +1932,7 @@
       <c r="I40" t="n">
         <v>3727</v>
       </c>
-      <c r="J40" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,12 +1966,12 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3728</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2061,12 +2005,12 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3728</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2100,12 +2044,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3728</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,12 +2083,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,12 +2122,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2217,12 +2161,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2256,12 +2200,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2295,12 +2239,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,12 +2278,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,12 +2317,12 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,12 +2356,12 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3729</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,12 +2395,12 @@
         <v>4721.63301862</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,12 +2434,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,12 +2473,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3735</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,12 +2512,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3735</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,12 +2551,12 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3735</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,9 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,9 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,9 +2667,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,9 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,9 +2741,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,9 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,9 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,9 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,9 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,9 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,9 +2963,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3078,9 +3000,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,9 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,9 +3074,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,9 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,9 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,9 +3185,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,9 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,9 +3259,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,9 +3296,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,9 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,9 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,9 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3663,9 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,9 +3592,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,9 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,9 +3666,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,9 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,20 +3737,16 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3720</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3894,17 +3772,11 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3933,17 +3805,11 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3972,17 +3838,11 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4011,17 +3871,11 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4050,17 +3904,11 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4089,17 +3937,11 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4128,17 +3970,11 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4167,17 +4003,11 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4206,17 +4036,11 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4245,17 +4069,11 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4284,17 +4102,11 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4323,17 +4135,11 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4362,17 +4168,11 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4401,17 +4201,11 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4440,17 +4234,11 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4479,19 +4267,11 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3855</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4520,17 +4300,11 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4559,17 +4333,11 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4598,17 +4366,11 @@
         <v>2695.202218620001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4637,17 +4399,11 @@
         <v>3285.430718620001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4676,17 +4432,11 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4715,17 +4465,11 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4754,17 +4498,11 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4793,19 +4531,11 @@
         <v>3119.02071862</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3871</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4834,17 +4564,11 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4873,17 +4597,11 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4912,17 +4630,11 @@
         <v>3141.526542940001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4951,17 +4663,11 @@
         <v>3083.215942940001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4990,17 +4696,11 @@
         <v>3083.315942940001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5029,17 +4729,11 @@
         <v>3082.506542940001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5068,17 +4762,11 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5107,19 +4795,11 @@
         <v>2965.486342940001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3853</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5148,19 +4828,11 @@
         <v>2969.486342940001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3852</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5189,17 +4861,11 @@
         <v>2965.484282680001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5228,17 +4894,11 @@
         <v>2969.484282680001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5267,17 +4927,11 @@
         <v>2965.483255460001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5306,19 +4960,11 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3894</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5347,19 +4993,11 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5388,19 +5026,11 @@
         <v>2874.161355460001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5429,19 +5059,11 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3864</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5470,19 +5092,11 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3843</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5511,19 +5125,11 @@
         <v>2821.992255460001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3843</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5552,19 +5158,11 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3845</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5593,19 +5191,11 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3865</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5634,19 +5224,11 @@
         <v>2803.399755460001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3865</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5675,19 +5257,11 @@
         <v>2843.399755460001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3845</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5716,19 +5290,11 @@
         <v>2883.399755460001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3863</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5757,19 +5323,11 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3865</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5798,19 +5356,11 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3844</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5839,19 +5389,11 @@
         <v>2723.33585546</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3844</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5880,19 +5422,11 @@
         <v>2723.33585546</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3843</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5921,19 +5455,11 @@
         <v>2793.09185546</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3843</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5962,19 +5488,11 @@
         <v>2835.19185546</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3857</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6003,19 +5521,11 @@
         <v>2835.19185546</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6044,19 +5554,11 @@
         <v>2835.19185546</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6085,19 +5587,11 @@
         <v>3010.19185546</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3866</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6126,19 +5620,11 @@
         <v>3010.19185546</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3868</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6167,19 +5653,11 @@
         <v>3572.69475546</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3868</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6208,17 +5686,11 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5722,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5755,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6328,14 +5788,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5821,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +5854,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +5887,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6484,14 +5920,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +5953,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6562,14 +5986,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6601,14 +6019,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6640,14 +6052,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6679,14 +6085,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6718,14 +6118,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6757,14 +6151,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6796,14 +6184,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6835,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6874,14 +6250,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6952,14 +6316,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +6349,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6382,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +6415,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6448,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +6481,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7183,23 +6511,15 @@
         <v>11243.71625546</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>1.095</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.002965758964681</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7224,7 +6544,7 @@
         <v>11229.83345546</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7257,7 +6577,7 @@
         <v>12806.72615546</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7323,7 +6643,7 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7356,7 +6676,7 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7389,7 +6709,7 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7422,7 +6742,7 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7455,7 +6775,7 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7488,7 +6808,7 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7499,6 +6819,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -644,9 +644,11 @@
         <v>3759.67571862</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3710</v>
+      </c>
       <c r="J7" t="n">
         <v>3720</v>
       </c>
@@ -724,9 +726,11 @@
         <v>3759.67571862</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3710</v>
+      </c>
       <c r="J9" t="n">
         <v>3720</v>
       </c>
@@ -804,9 +808,11 @@
         <v>3601.43571862</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3677</v>
+      </c>
       <c r="J11" t="n">
         <v>3720</v>
       </c>
@@ -884,9 +890,11 @@
         <v>3601.43571862</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3699</v>
+      </c>
       <c r="J13" t="n">
         <v>3720</v>
       </c>
@@ -964,19 +972,21 @@
         <v>3492.745818620001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3699</v>
+      </c>
       <c r="J15" t="n">
         <v>3720</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.9869354838709677</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -1008,10 +1018,12 @@
       <c r="I16" t="n">
         <v>3690</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3720</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1047,7 +1059,9 @@
       <c r="I17" t="n">
         <v>3690</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3720</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1081,12 +1095,12 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3690</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3720</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,10 +1134,12 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3720</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,12 +1173,12 @@
         <v>3516.035718620001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3700</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3720</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1199,7 +1215,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3720</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1236,7 +1254,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3720</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1273,7 +1293,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3720</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1307,12 +1329,12 @@
         <v>3878.535718620001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3705</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3720</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1349,7 +1371,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3720</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1386,7 +1410,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3720</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,12 +1446,12 @@
         <v>3964.741418620001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3728</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3720</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,12 +1485,12 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3720</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,12 +1524,12 @@
         <v>3949.641418620001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3726</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3720</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1537,12 +1563,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3726</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3720</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,12 +1602,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3720</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,12 +1641,12 @@
         <v>4042.831418620001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3720</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1654,12 +1680,12 @@
         <v>4011.031418620001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3720</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1693,12 +1719,12 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3708</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3720</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,12 +1758,12 @@
         <v>4019.931418620001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3726</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3720</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,12 +1797,12 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3726</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3720</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,12 +1836,12 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3720</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,12 +1875,12 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3720</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,12 +1914,12 @@
         <v>4044.992518620001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3720</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,12 +1953,12 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3727</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3720</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,12 +1992,12 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3728</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3720</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,12 +2031,12 @@
         <v>4422.457618620001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3728</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3720</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,12 +2070,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3728</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3720</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,12 +2109,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3720</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,12 +2148,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3720</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,12 +2187,12 @@
         <v>4580.155818620001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3720</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,12 +2226,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3720</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,12 +2265,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3730</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3720</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,12 +2304,12 @@
         <v>4719.86871862</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3730</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3720</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,12 +2343,12 @@
         <v>4660.61871862</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3730</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3720</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,12 +2382,12 @@
         <v>4721.63301862</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3729</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3720</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2395,12 +2421,12 @@
         <v>4721.63301862</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3730</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3720</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,12 +2460,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3730</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3720</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,12 +2499,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3735</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3720</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,12 +2538,12 @@
         <v>4733.563018620001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3735</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3720</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,12 +2577,12 @@
         <v>4762.103018620001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3735</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3720</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,7 +2619,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3720</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,7 +2658,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3720</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,7 +2697,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3720</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,7 +2736,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3720</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2741,7 +2775,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3720</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,7 +2814,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3720</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2815,7 +2853,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3720</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,7 +2892,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3720</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2889,7 +2931,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3720</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,7 +2970,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3720</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,7 +3009,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3720</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,7 +3048,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3720</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,7 +3087,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3720</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,7 +3126,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3720</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,7 +3165,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3720</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,7 +3204,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3720</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,7 +3243,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3720</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,7 +3282,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3720</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,7 +3321,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3720</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,7 +3360,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3720</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,7 +3399,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3720</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,7 +3438,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3720</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,7 +3477,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3720</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,7 +3516,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3720</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3481,7 +3555,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3720</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,7 +3594,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3720</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,7 +3633,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3720</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,7 +3672,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3720</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,7 +3711,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3720</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,7 +3750,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3720</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,7 +3789,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3720</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,16 +3825,20 @@
         <v>4822.464818620001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3720</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3772,11 +3864,17 @@
         <v>3517.869818620001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3903,17 @@
         <v>2646.590618620001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3942,17 @@
         <v>2654.130618620001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3981,17 @@
         <v>2654.230618620001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3904,11 +4020,17 @@
         <v>2625.803018620001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3937,11 +4059,17 @@
         <v>2595.003018620001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +4098,17 @@
         <v>2606.303018620001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +4137,17 @@
         <v>2955.820218620001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +4176,17 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +4215,17 @@
         <v>2999.639318620001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4102,11 +4254,17 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4135,11 +4293,17 @@
         <v>3011.835618620001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +4332,17 @@
         <v>2800.665118620001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4201,11 +4371,17 @@
         <v>2800.375618620001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4234,11 +4410,17 @@
         <v>2718.375618620001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +4449,17 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +4488,17 @@
         <v>2730.689218620001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +4527,17 @@
         <v>2734.689218620001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +4566,17 @@
         <v>2695.202218620001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +4605,17 @@
         <v>3285.430718620001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4644,17 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4683,17 @@
         <v>3207.860718620001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4498,11 +4722,17 @@
         <v>3196.940718620001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4761,17 @@
         <v>3119.02071862</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4564,11 +4800,17 @@
         <v>3127.21131862</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4839,17 @@
         <v>3137.21131862</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +4878,17 @@
         <v>3141.526542940001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4917,17 @@
         <v>3083.215942940001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4696,11 +4956,17 @@
         <v>3083.315942940001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4729,11 +4995,17 @@
         <v>3082.506542940001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +5034,17 @@
         <v>2970.856342940001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +5073,17 @@
         <v>2965.486342940001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +5112,17 @@
         <v>2969.486342940001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +5151,17 @@
         <v>2965.484282680001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +5190,17 @@
         <v>2969.484282680001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4927,11 +5229,17 @@
         <v>2965.483255460001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +5268,17 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +5307,17 @@
         <v>2878.161355460001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +5346,17 @@
         <v>2874.161355460001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +5385,17 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +5424,17 @@
         <v>2819.454555460001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +5463,17 @@
         <v>2821.992255460001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +5502,17 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +5541,17 @@
         <v>2825.992255460001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5580,17 @@
         <v>2803.399755460001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5619,17 @@
         <v>2843.399755460001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5658,17 @@
         <v>2883.399755460001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +5697,17 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +5736,17 @@
         <v>2819.299755460001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +5775,17 @@
         <v>2723.33585546</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5814,17 @@
         <v>2723.33585546</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5853,17 @@
         <v>2793.09185546</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +5892,17 @@
         <v>2835.19185546</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +5931,17 @@
         <v>2835.19185546</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +5970,17 @@
         <v>2835.19185546</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +6009,17 @@
         <v>3010.19185546</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5620,11 +6048,17 @@
         <v>3010.19185546</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +6087,17 @@
         <v>3572.69475546</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +6126,17 @@
         <v>5709.413155460001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5722,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5755,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5788,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5821,8 +6285,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5854,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +6363,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5920,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6441,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5986,8 +6480,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6019,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6052,8 +6558,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6085,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6118,8 +6636,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6151,8 +6675,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6184,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6217,8 +6753,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6250,8 +6792,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6283,8 +6831,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6316,8 +6870,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6349,8 +6909,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6382,8 +6948,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6415,8 +6987,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6448,8 +7026,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6481,8 +7065,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7104,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7143,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6580,8 +7182,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6610,15 +7218,23 @@
         <v>12993.63965546</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3720</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>1.108172043010753</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.002965758964681</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6643,7 +7259,7 @@
         <v>13051.15305546</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6676,7 +7292,7 @@
         <v>14098.88725546</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6709,7 +7325,7 @@
         <v>14598.52695546</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6742,7 +7358,7 @@
         <v>13115.45255546</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6775,7 +7391,7 @@
         <v>13128.77405546</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6808,7 +7424,7 @@
         <v>12900.39565546</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>

--- a/BackTest/2019-10-09 BackTest MCO.xlsx
+++ b/BackTest/2019-10-09 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>3548.62581862</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>3548.32581862</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3720</v>
       </c>
       <c r="I3" t="n">
         <v>3720</v>
       </c>
-      <c r="J3" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>211.3499</v>
       </c>
       <c r="G4" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3709</v>
       </c>
       <c r="I4" t="n">
-        <v>3709</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>3720</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>32.6975</v>
       </c>
       <c r="G5" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I5" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I6" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>31.8899</v>
       </c>
       <c r="G7" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I7" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I8" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>160.19</v>
       </c>
       <c r="G9" t="n">
-        <v>3759.67571862</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I9" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,23 @@
         <v>161.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3598.17571862</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3710</v>
       </c>
       <c r="I10" t="n">
-        <v>3710</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +773,23 @@
         <v>3.26</v>
       </c>
       <c r="G11" t="n">
-        <v>3601.43571862</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3677</v>
       </c>
       <c r="I11" t="n">
-        <v>3677</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +811,23 @@
         <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3601.43571862</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3699</v>
       </c>
       <c r="I12" t="n">
-        <v>3699</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +849,23 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3601.43571862</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3699</v>
       </c>
       <c r="I13" t="n">
-        <v>3699</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +887,23 @@
         <v>68.89</v>
       </c>
       <c r="G14" t="n">
-        <v>3601.43571862</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3699</v>
       </c>
       <c r="I14" t="n">
-        <v>3699</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +925,23 @@
         <v>108.6899</v>
       </c>
       <c r="G15" t="n">
-        <v>3492.745818620001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3699</v>
       </c>
       <c r="I15" t="n">
-        <v>3699</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +963,23 @@
         <v>99.65000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>3492.745818620001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3690</v>
       </c>
       <c r="I16" t="n">
-        <v>3690</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +1001,23 @@
         <v>550.6582</v>
       </c>
       <c r="G17" t="n">
-        <v>3492.745818620001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3690</v>
       </c>
       <c r="I17" t="n">
-        <v>3690</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>3720</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,24 +1039,23 @@
         <v>23.2899</v>
       </c>
       <c r="G18" t="n">
-        <v>3516.035718620001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>3690</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,24 +1077,21 @@
         <v>15.44</v>
       </c>
       <c r="G19" t="n">
-        <v>3516.035718620001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,24 +1113,23 @@
         <v>106.0951</v>
       </c>
       <c r="G20" t="n">
-        <v>3516.035718620001</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>3700</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,24 +1151,23 @@
         <v>362.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3878.535718620001</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>3700</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,24 +1189,23 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>3878.535718620001</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>3705</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,24 +1227,21 @@
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>3878.535718620001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,24 +1263,23 @@
         <v>398.6257</v>
       </c>
       <c r="G24" t="n">
-        <v>3878.535718620001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>3705</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1365,24 +1301,23 @@
         <v>139.9757</v>
       </c>
       <c r="G25" t="n">
-        <v>4018.511418620001</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>3705</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,24 +1339,21 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>4022.511418620001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,24 +1375,21 @@
         <v>57.77</v>
       </c>
       <c r="G27" t="n">
-        <v>3964.741418620001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1482,24 +1411,21 @@
         <v>15.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3949.641418620001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1521,24 +1447,21 @@
         <v>95</v>
       </c>
       <c r="G29" t="n">
-        <v>3949.641418620001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,24 +1483,21 @@
         <v>93.19</v>
       </c>
       <c r="G30" t="n">
-        <v>4042.831418620001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,24 +1519,21 @@
         <v>11.92</v>
       </c>
       <c r="G31" t="n">
-        <v>4042.831418620001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,24 +1555,21 @@
         <v>15.1</v>
       </c>
       <c r="G32" t="n">
-        <v>4042.831418620001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1677,24 +1591,21 @@
         <v>31.8</v>
       </c>
       <c r="G33" t="n">
-        <v>4011.031418620001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1716,24 +1627,21 @@
         <v>8.9</v>
       </c>
       <c r="G34" t="n">
-        <v>4019.931418620001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1755,24 +1663,21 @@
         <v>22.9</v>
       </c>
       <c r="G35" t="n">
-        <v>4019.931418620001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1794,24 +1699,21 @@
         <v>25.0611</v>
       </c>
       <c r="G36" t="n">
-        <v>4044.992518620001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,24 +1735,21 @@
         <v>22.5858</v>
       </c>
       <c r="G37" t="n">
-        <v>4044.992518620001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,24 +1771,21 @@
         <v>59.87</v>
       </c>
       <c r="G38" t="n">
-        <v>4044.992518620001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1911,24 +1807,21 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>4044.992518620001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,24 +1843,21 @@
         <v>377.4651</v>
       </c>
       <c r="G40" t="n">
-        <v>4422.457618620001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1989,24 +1879,21 @@
         <v>47.5</v>
       </c>
       <c r="G41" t="n">
-        <v>4422.457618620001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2028,24 +1915,21 @@
         <v>60.36</v>
       </c>
       <c r="G42" t="n">
-        <v>4422.457618620001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2067,24 +1951,21 @@
         <v>157.6982</v>
       </c>
       <c r="G43" t="n">
-        <v>4580.155818620001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,24 +1987,21 @@
         <v>1173.2699</v>
       </c>
       <c r="G44" t="n">
-        <v>4580.155818620001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2145,24 +2023,21 @@
         <v>150.73</v>
       </c>
       <c r="G45" t="n">
-        <v>4580.155818620001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2184,24 +2059,21 @@
         <v>99.2403</v>
       </c>
       <c r="G46" t="n">
-        <v>4580.155818620001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2223,24 +2095,21 @@
         <v>139.7129</v>
       </c>
       <c r="G47" t="n">
-        <v>4719.86871862</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,24 +2131,21 @@
         <v>57.65</v>
       </c>
       <c r="G48" t="n">
-        <v>4719.86871862</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2301,24 +2167,21 @@
         <v>60.11</v>
       </c>
       <c r="G49" t="n">
-        <v>4719.86871862</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2340,24 +2203,21 @@
         <v>59.25</v>
       </c>
       <c r="G50" t="n">
-        <v>4660.61871862</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2379,24 +2239,21 @@
         <v>61.0143</v>
       </c>
       <c r="G51" t="n">
-        <v>4721.63301862</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,24 +2275,21 @@
         <v>494.1718</v>
       </c>
       <c r="G52" t="n">
-        <v>4721.63301862</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2457,24 +2311,21 @@
         <v>11.93</v>
       </c>
       <c r="G53" t="n">
-        <v>4733.563018620001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2496,24 +2347,21 @@
         <v>88.7</v>
       </c>
       <c r="G54" t="n">
-        <v>4733.563018620001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2535,24 +2383,21 @@
         <v>87.1598</v>
       </c>
       <c r="G55" t="n">
-        <v>4733.563018620001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2574,24 +2419,21 @@
         <v>28.54</v>
       </c>
       <c r="G56" t="n">
-        <v>4762.103018620001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2613,24 +2455,21 @@
         <v>117.7079</v>
       </c>
       <c r="G57" t="n">
-        <v>4762.103018620001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2652,24 +2491,21 @@
         <v>45.9799</v>
       </c>
       <c r="G58" t="n">
-        <v>4762.103018620001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2691,24 +2527,21 @@
         <v>0.3668</v>
       </c>
       <c r="G59" t="n">
-        <v>4761.736218620001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2730,24 +2563,21 @@
         <v>0.3807</v>
       </c>
       <c r="G60" t="n">
-        <v>4762.11691862</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2769,24 +2599,21 @@
         <v>15.1</v>
       </c>
       <c r="G61" t="n">
-        <v>4747.01691862</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2808,24 +2635,21 @@
         <v>125.4541</v>
       </c>
       <c r="G62" t="n">
-        <v>4747.01691862</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2847,24 +2671,21 @@
         <v>80.1079</v>
       </c>
       <c r="G63" t="n">
-        <v>4827.12481862</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2886,24 +2707,21 @@
         <v>2.2297</v>
       </c>
       <c r="G64" t="n">
-        <v>4824.89511862</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2925,24 +2743,21 @@
         <v>1059.7987</v>
       </c>
       <c r="G65" t="n">
-        <v>3765.09641862</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2964,24 +2779,21 @@
         <v>99.0085</v>
       </c>
       <c r="G66" t="n">
-        <v>3864.10491862</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3003,24 +2815,21 @@
         <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>3882.10491862</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3042,24 +2851,21 @@
         <v>45.5799</v>
       </c>
       <c r="G68" t="n">
-        <v>3927.68481862</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3081,24 +2887,21 @@
         <v>68.48</v>
       </c>
       <c r="G69" t="n">
-        <v>3927.68481862</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3120,24 +2923,21 @@
         <v>15.1</v>
       </c>
       <c r="G70" t="n">
-        <v>3927.68481862</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3159,24 +2959,21 @@
         <v>296.6735</v>
       </c>
       <c r="G71" t="n">
-        <v>4224.35831862</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3198,24 +2995,21 @@
         <v>72.8899</v>
       </c>
       <c r="G72" t="n">
-        <v>4297.24821862</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3237,24 +3031,21 @@
         <v>9.5999</v>
       </c>
       <c r="G73" t="n">
-        <v>4297.24821862</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3276,24 +3067,21 @@
         <v>15.1</v>
       </c>
       <c r="G74" t="n">
-        <v>4297.24821862</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3315,24 +3103,21 @@
         <v>56.3299</v>
       </c>
       <c r="G75" t="n">
-        <v>4297.24821862</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3354,24 +3139,21 @@
         <v>99.4546</v>
       </c>
       <c r="G76" t="n">
-        <v>4396.70281862</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3393,24 +3175,21 @@
         <v>11.7316</v>
       </c>
       <c r="G77" t="n">
-        <v>4408.434418620001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3432,24 +3211,21 @@
         <v>5.2153</v>
       </c>
       <c r="G78" t="n">
-        <v>4403.219118620001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3471,24 +3247,21 @@
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>4403.319118620001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3510,24 +3283,21 @@
         <v>22.9</v>
       </c>
       <c r="G80" t="n">
-        <v>4426.219118620001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3549,24 +3319,21 @@
         <v>59.08</v>
       </c>
       <c r="G81" t="n">
-        <v>4426.219118620001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3588,24 +3355,21 @@
         <v>348.0656</v>
       </c>
       <c r="G82" t="n">
-        <v>4774.284718620001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3627,24 +3391,21 @@
         <v>12.6813</v>
       </c>
       <c r="G83" t="n">
-        <v>4786.966018620001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3666,24 +3427,21 @@
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>4786.966018620001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3705,24 +3463,21 @@
         <v>41.3006</v>
       </c>
       <c r="G85" t="n">
-        <v>4828.26661862</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3744,24 +3499,21 @@
         <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>4828.26661862</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3783,24 +3535,21 @@
         <v>5.9018</v>
       </c>
       <c r="G87" t="n">
-        <v>4822.364818620001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3822,24 +3571,21 @@
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>4822.464818620001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3861,24 +3607,21 @@
         <v>1304.595</v>
       </c>
       <c r="G89" t="n">
-        <v>3517.869818620001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3900,24 +3643,21 @@
         <v>871.2791999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>2646.590618620001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3939,24 +3679,21 @@
         <v>7.54</v>
       </c>
       <c r="G91" t="n">
-        <v>2654.130618620001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3978,24 +3715,21 @@
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>2654.230618620001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4017,24 +3751,21 @@
         <v>28.4276</v>
       </c>
       <c r="G93" t="n">
-        <v>2625.803018620001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4056,24 +3787,21 @@
         <v>30.8</v>
       </c>
       <c r="G94" t="n">
-        <v>2595.003018620001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4095,24 +3823,21 @@
         <v>11.3</v>
       </c>
       <c r="G95" t="n">
-        <v>2606.303018620001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4134,24 +3859,21 @@
         <v>349.5172</v>
       </c>
       <c r="G96" t="n">
-        <v>2955.820218620001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4173,24 +3895,21 @@
         <v>43.8191</v>
       </c>
       <c r="G97" t="n">
-        <v>2999.639318620001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4212,24 +3931,21 @@
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>2999.639318620001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4251,24 +3967,21 @@
         <v>12.1963</v>
       </c>
       <c r="G99" t="n">
-        <v>3011.835618620001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4290,24 +4003,21 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>3011.835618620001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4329,24 +4039,21 @@
         <v>211.1705</v>
       </c>
       <c r="G101" t="n">
-        <v>2800.665118620001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4368,24 +4075,21 @@
         <v>0.2895</v>
       </c>
       <c r="G102" t="n">
-        <v>2800.375618620001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4407,24 +4111,21 @@
         <v>82</v>
       </c>
       <c r="G103" t="n">
-        <v>2718.375618620001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4446,24 +4147,21 @@
         <v>12.3136</v>
       </c>
       <c r="G104" t="n">
-        <v>2730.689218620001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4485,24 +4183,21 @@
         <v>17.0029</v>
       </c>
       <c r="G105" t="n">
-        <v>2730.689218620001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4524,24 +4219,21 @@
         <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>2734.689218620001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4563,24 +4255,21 @@
         <v>39.487</v>
       </c>
       <c r="G107" t="n">
-        <v>2695.202218620001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4602,24 +4291,21 @@
         <v>590.2285000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>3285.430718620001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4641,24 +4327,21 @@
         <v>77.56999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>3207.860718620001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4680,24 +4363,21 @@
         <v>168.8159</v>
       </c>
       <c r="G110" t="n">
-        <v>3207.860718620001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4719,24 +4399,21 @@
         <v>10.92</v>
       </c>
       <c r="G111" t="n">
-        <v>3196.940718620001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4758,24 +4435,21 @@
         <v>77.92</v>
       </c>
       <c r="G112" t="n">
-        <v>3119.02071862</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4797,24 +4471,21 @@
         <v>8.1906</v>
       </c>
       <c r="G113" t="n">
-        <v>3127.21131862</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4836,24 +4507,21 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>3137.21131862</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4875,24 +4543,21 @@
         <v>4.31522432</v>
       </c>
       <c r="G115" t="n">
-        <v>3141.526542940001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4914,24 +4579,21 @@
         <v>58.3106</v>
       </c>
       <c r="G116" t="n">
-        <v>3083.215942940001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4953,24 +4615,21 @@
         <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>3083.315942940001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4992,24 +4651,21 @@
         <v>0.8094</v>
       </c>
       <c r="G118" t="n">
-        <v>3082.506542940001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5031,24 +4687,21 @@
         <v>111.6502</v>
       </c>
       <c r="G119" t="n">
-        <v>2970.856342940001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5070,24 +4723,21 @@
         <v>5.37</v>
       </c>
       <c r="G120" t="n">
-        <v>2965.486342940001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5109,24 +4759,21 @@
         <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>2969.486342940001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5148,24 +4795,21 @@
         <v>4.00206026</v>
       </c>
       <c r="G122" t="n">
-        <v>2965.484282680001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5187,24 +4831,21 @@
         <v>4</v>
       </c>
       <c r="G123" t="n">
-        <v>2969.484282680001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5226,24 +4867,21 @@
         <v>4.00102722</v>
       </c>
       <c r="G124" t="n">
-        <v>2965.483255460001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5265,24 +4903,21 @@
         <v>87.3219</v>
       </c>
       <c r="G125" t="n">
-        <v>2878.161355460001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5304,24 +4939,21 @@
         <v>167.2461</v>
       </c>
       <c r="G126" t="n">
-        <v>2878.161355460001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5343,24 +4975,21 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>2874.161355460001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5382,24 +5011,21 @@
         <v>54.7068</v>
       </c>
       <c r="G128" t="n">
-        <v>2819.454555460001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5421,24 +5047,21 @@
         <v>39.2052</v>
       </c>
       <c r="G129" t="n">
-        <v>2819.454555460001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5460,24 +5083,21 @@
         <v>2.5377</v>
       </c>
       <c r="G130" t="n">
-        <v>2821.992255460001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5499,24 +5119,21 @@
         <v>4</v>
       </c>
       <c r="G131" t="n">
-        <v>2825.992255460001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5538,24 +5155,21 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>2825.992255460001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5577,24 +5191,21 @@
         <v>22.5925</v>
       </c>
       <c r="G133" t="n">
-        <v>2803.399755460001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5616,24 +5227,21 @@
         <v>40</v>
       </c>
       <c r="G134" t="n">
-        <v>2843.399755460001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5655,24 +5263,21 @@
         <v>40</v>
       </c>
       <c r="G135" t="n">
-        <v>2883.399755460001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5694,24 +5299,21 @@
         <v>64.09999999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>2819.299755460001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5733,24 +5335,21 @@
         <v>10.7505</v>
       </c>
       <c r="G137" t="n">
-        <v>2819.299755460001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5772,24 +5371,21 @@
         <v>95.9639</v>
       </c>
       <c r="G138" t="n">
-        <v>2723.33585546</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5811,24 +5407,21 @@
         <v>8.011200000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>2723.33585546</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5850,24 +5443,21 @@
         <v>69.756</v>
       </c>
       <c r="G140" t="n">
-        <v>2793.09185546</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5889,24 +5479,21 @@
         <v>42.1</v>
       </c>
       <c r="G141" t="n">
-        <v>2835.19185546</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5928,24 +5515,21 @@
         <v>21</v>
       </c>
       <c r="G142" t="n">
-        <v>2835.19185546</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5967,24 +5551,21 @@
         <v>26.6</v>
       </c>
       <c r="G143" t="n">
-        <v>2835.19185546</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6006,24 +5587,21 @@
         <v>175</v>
       </c>
       <c r="G144" t="n">
-        <v>3010.19185546</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6045,24 +5623,21 @@
         <v>49.2091</v>
       </c>
       <c r="G145" t="n">
-        <v>3010.19185546</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6084,24 +5659,21 @@
         <v>562.5029</v>
       </c>
       <c r="G146" t="n">
-        <v>3572.69475546</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6123,24 +5695,21 @@
         <v>2136.7184</v>
       </c>
       <c r="G147" t="n">
-        <v>5709.413155460001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6162,24 +5731,21 @@
         <v>486</v>
       </c>
       <c r="G148" t="n">
-        <v>6195.413155460001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6201,24 +5767,21 @@
         <v>121.3</v>
       </c>
       <c r="G149" t="n">
-        <v>6074.113155460001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6240,24 +5803,21 @@
         <v>1068.1496</v>
       </c>
       <c r="G150" t="n">
-        <v>7142.26275546</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6279,24 +5839,21 @@
         <v>3100.4944</v>
       </c>
       <c r="G151" t="n">
-        <v>10242.75715546</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6318,24 +5875,21 @@
         <v>1544.0513</v>
       </c>
       <c r="G152" t="n">
-        <v>11786.80845546</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6357,24 +5911,21 @@
         <v>571.6998</v>
       </c>
       <c r="G153" t="n">
-        <v>12358.50825546</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6396,24 +5947,21 @@
         <v>2349.1368</v>
       </c>
       <c r="G154" t="n">
-        <v>10009.37145546</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6435,24 +5983,21 @@
         <v>146.6389</v>
       </c>
       <c r="G155" t="n">
-        <v>10156.01035546</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6474,24 +6019,21 @@
         <v>312.3795</v>
       </c>
       <c r="G156" t="n">
-        <v>10468.38985546</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6513,24 +6055,21 @@
         <v>15</v>
       </c>
       <c r="G157" t="n">
-        <v>10453.38985546</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6552,24 +6091,21 @@
         <v>8.4</v>
       </c>
       <c r="G158" t="n">
-        <v>10461.78985546</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6591,24 +6127,21 @@
         <v>82.3107</v>
       </c>
       <c r="G159" t="n">
-        <v>10544.10055546</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6630,24 +6163,21 @@
         <v>40.3411</v>
       </c>
       <c r="G160" t="n">
-        <v>10584.44165546</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6669,24 +6199,21 @@
         <v>964.3812</v>
       </c>
       <c r="G161" t="n">
-        <v>10584.44165546</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6708,24 +6235,21 @@
         <v>474.7361</v>
       </c>
       <c r="G162" t="n">
-        <v>10109.70555546</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6747,24 +6271,21 @@
         <v>193.0085</v>
       </c>
       <c r="G163" t="n">
-        <v>10302.71405546</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6786,24 +6307,21 @@
         <v>295.93</v>
       </c>
       <c r="G164" t="n">
-        <v>10006.78405546</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6825,24 +6343,21 @@
         <v>59.0434</v>
       </c>
       <c r="G165" t="n">
-        <v>10065.82745546</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6864,24 +6379,21 @@
         <v>39.8736</v>
       </c>
       <c r="G166" t="n">
-        <v>10105.70105546</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6903,24 +6415,21 @@
         <v>419.4817</v>
       </c>
       <c r="G167" t="n">
-        <v>10525.18275546</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6942,24 +6451,21 @@
         <v>98.2</v>
       </c>
       <c r="G168" t="n">
-        <v>10623.38275546</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6981,24 +6487,21 @@
         <v>539.8313000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>10083.55145546</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7020,24 +6523,21 @@
         <v>768.6543</v>
       </c>
       <c r="G170" t="n">
-        <v>10852.20575546</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7059,24 +6559,21 @@
         <v>402.5452</v>
       </c>
       <c r="G171" t="n">
-        <v>11254.75095546</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7098,24 +6595,21 @@
         <v>11.0347</v>
       </c>
       <c r="G172" t="n">
-        <v>11243.71625546</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7137,24 +6631,21 @@
         <v>13.8828</v>
       </c>
       <c r="G173" t="n">
-        <v>11229.83345546</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7176,24 +6667,21 @@
         <v>1576.8927</v>
       </c>
       <c r="G174" t="n">
-        <v>12806.72615546</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7215,26 +6703,21 @@
         <v>186.9135</v>
       </c>
       <c r="G175" t="n">
-        <v>12993.63965546</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3720</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1.108172043010753</v>
-      </c>
-      <c r="M175" t="n">
-        <v>1.002965758964681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7256,18 +6739,21 @@
         <v>57.5134</v>
       </c>
       <c r="G176" t="n">
-        <v>13051.15305546</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7289,18 +6775,21 @@
         <v>1047.7342</v>
       </c>
       <c r="G177" t="n">
-        <v>14098.88725546</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7322,18 +6811,23 @@
         <v>499.6397</v>
       </c>
       <c r="G178" t="n">
-        <v>14598.52695546</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1.118924731182796</v>
+      </c>
       <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>1.002965758964681</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7355,18 +6849,15 @@
         <v>1483.0744</v>
       </c>
       <c r="G179" t="n">
-        <v>13115.45255546</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7388,18 +6879,15 @@
         <v>13.3215</v>
       </c>
       <c r="G180" t="n">
-        <v>13128.77405546</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7421,18 +6909,15 @@
         <v>228.3784</v>
       </c>
       <c r="G181" t="n">
-        <v>12900.39565546</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
